--- a/lang/tr/headTags.xlsx
+++ b/lang/tr/headTags.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1170">
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>tr</t>
+    <t>tr (Turkish)</t>
   </si>
   <si>
     <t>101 Dalmatians</t>
@@ -511,6 +511,9 @@
     <t>Charlie and the Chocolate Factory</t>
   </si>
   <si>
+    <t>Chase the Skies</t>
+  </si>
+  <si>
     <t>Cheese</t>
   </si>
   <si>
@@ -982,6 +985,9 @@
     <t>Fairy Tales</t>
   </si>
   <si>
+    <t>Fall Drop</t>
+  </si>
+  <si>
     <t>Fall Guys</t>
   </si>
   <si>
@@ -1747,6 +1753,9 @@
     <t>Hypixel</t>
   </si>
   <si>
+    <t>Hypixel (Attribute Shard)</t>
+  </si>
+  <si>
     <t>Hypixel (Dyes)</t>
   </si>
   <si>
@@ -2638,6 +2647,9 @@
     <t>Quake</t>
   </si>
   <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
     <t>Rabbit</t>
   </si>
   <si>
@@ -2959,6 +2971,9 @@
     <t>Spooky's Jump Scare Mansion</t>
   </si>
   <si>
+    <t>Spore</t>
+  </si>
+  <si>
     <t>Sport</t>
   </si>
   <si>
@@ -3047,9 +3062,6 @@
   </si>
   <si>
     <t>Summer</t>
-  </si>
-  <si>
-    <t>Summer Drop 2025</t>
   </si>
   <si>
     <t>Sunglasses</t>
@@ -3861,7 +3873,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1165"/>
+  <dimension ref="A1:B1169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9702,8 +9714,28 @@
         <v>1165</v>
       </c>
     </row>
+    <row r="1166" spans="1:2">
+      <c r="A1166" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2">
+      <c r="A1167" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2">
+      <c r="A1168" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2">
+      <c r="A1169" t="s">
+        <v>1169</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1165"/>
+  <autoFilter ref="A1:B1169"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/tr/headTags.xlsx
+++ b/lang/tr/headTags.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1990">
   <si>
     <t>en</t>
   </si>
@@ -2755,39 +2755,72 @@
     <t>Hat (crooked)</t>
   </si>
   <si>
+    <t>Şapka (çarpık)</t>
+  </si>
+  <si>
     <t>Hat (pointed)</t>
   </si>
   <si>
+    <t>Şapka (sivri uçlu)</t>
+  </si>
+  <si>
     <t>Hazbin Hotel</t>
   </si>
   <si>
+    <t>Hazbin Otel</t>
+  </si>
+  <si>
     <t>Hazmat Suit</t>
   </si>
   <si>
+    <t>Hazmat Kıyafeti</t>
+  </si>
+  <si>
     <t>Head Cloth</t>
   </si>
   <si>
+    <t>Baş Bezi</t>
+  </si>
+  <si>
     <t>Headband</t>
   </si>
   <si>
+    <t>Kafa bandı</t>
+  </si>
+  <si>
     <t>Headphones</t>
   </si>
   <si>
+    <t>Kulaklıklar</t>
+  </si>
+  <si>
     <t>Headwear</t>
   </si>
   <si>
+    <t>Şapkalar</t>
+  </si>
+  <si>
     <t>Health Care</t>
   </si>
   <si>
+    <t>Sağlık Hizmetleri</t>
+  </si>
+  <si>
     <t>Hearthstone</t>
   </si>
   <si>
     <t>Heaven Officials Blessing</t>
   </si>
   <si>
+    <t>Cennet Yetkilileri Kutsaması</t>
+  </si>
+  <si>
     <t>Hell</t>
   </si>
   <si>
+    <t>Cehennem</t>
+  </si>
+  <si>
     <t>Hellboy</t>
   </si>
   <si>
@@ -2797,9 +2830,15 @@
     <t>Hello Neighbor</t>
   </si>
   <si>
+    <t>Merhaba Komşu</t>
+  </si>
+  <si>
     <t>Hercules</t>
   </si>
   <si>
+    <t>Herkül</t>
+  </si>
+  <si>
     <t>Hermitcraft</t>
   </si>
   <si>
@@ -2812,15 +2851,27 @@
     <t>Heterochromia</t>
   </si>
   <si>
+    <t>Heterokromi</t>
+  </si>
+  <si>
     <t>High Rise Invasion</t>
   </si>
   <si>
+    <t>Yüksek Bina İstilası</t>
+  </si>
+  <si>
     <t>High School DxD</t>
   </si>
   <si>
+    <t>Lise DxD</t>
+  </si>
+  <si>
     <t>Higurashi - When They Cry</t>
   </si>
   <si>
+    <t>Higurashi - Ağladıklarında</t>
+  </si>
+  <si>
     <t>Himegoto</t>
   </si>
   <si>
@@ -2830,18 +2881,30 @@
     <t>Historical Figure</t>
   </si>
   <si>
+    <t>Tarihsel Figür</t>
+  </si>
+  <si>
     <t>Hocus Pocus</t>
   </si>
   <si>
+    <t>Hokus Pokus</t>
+  </si>
+  <si>
     <t>Hollow Knight</t>
   </si>
   <si>
+    <t>Hollow Şövalye</t>
+  </si>
+  <si>
     <t>Hololive</t>
   </si>
   <si>
     <t>Hololive (EN Advent)</t>
   </si>
   <si>
+    <t>Hololive (TR Advent)</t>
+  </si>
+  <si>
     <t>Hololive (EN CouncilRyS)</t>
   </si>
   <si>
@@ -2854,24 +2917,45 @@
     <t>Hololive (JP 0th Generation)</t>
   </si>
   <si>
+    <t>Hololive (JP 0. Nesil)</t>
+  </si>
+  <si>
     <t>Hololive (JP 1st Generation)</t>
   </si>
   <si>
+    <t>Hololive (JP 1. Nesil)</t>
+  </si>
+  <si>
     <t>Hololive (JP 2nd Generation)</t>
   </si>
   <si>
+    <t>Hololive (JP 2. Nesil)</t>
+  </si>
+  <si>
     <t>Hololive (JP 3rd Generation)</t>
   </si>
   <si>
+    <t>Hololive (JP 3. Nesil)</t>
+  </si>
+  <si>
     <t>Hololive (JP 4th Generation)</t>
   </si>
   <si>
+    <t>Hololive (JP 4. Nesil)</t>
+  </si>
+  <si>
     <t>Hololive (JP 5th Generation)</t>
   </si>
   <si>
+    <t>Hololive (JP 5. Nesil)</t>
+  </si>
+  <si>
     <t>Hololive (JP 6th Generation)</t>
   </si>
   <si>
+    <t>Hololive (JP 6. Nesil)</t>
+  </si>
+  <si>
     <t>Hololive (JP Gamers)</t>
   </si>
   <si>
@@ -2881,39 +2965,66 @@
     <t>Honkai: Star Rail</t>
   </si>
   <si>
+    <t>Honkai: Yıldız Rayı</t>
+  </si>
+  <si>
     <t>Hood in the Neck</t>
   </si>
   <si>
+    <t>Boyundaki Başlık</t>
+  </si>
+  <si>
     <t>Hooded</t>
   </si>
   <si>
+    <t>Kapüşonlu</t>
+  </si>
+  <si>
     <t>Horizon</t>
   </si>
   <si>
     <t>Horns</t>
   </si>
   <si>
+    <t>Boynuzlar</t>
+  </si>
+  <si>
     <t>Horse</t>
   </si>
   <si>
+    <t>At</t>
+  </si>
+  <si>
     <t>Hotline Miami</t>
   </si>
   <si>
     <t>How the Grinch Stole Christmas</t>
   </si>
   <si>
+    <t>Grinch Noel'i Nasıl Çaldı?</t>
+  </si>
+  <si>
     <t>How to Train Your Dragon</t>
   </si>
   <si>
+    <t>Ejderhanı Nasıl Eğitirsin</t>
+  </si>
+  <si>
     <t>Howl's Moving Castle</t>
   </si>
   <si>
+    <t>Howl'un Yürüyen Şatosu</t>
+  </si>
+  <si>
     <t>Hulk</t>
   </si>
   <si>
     <t>Hunter x Hunter</t>
   </si>
   <si>
+    <t>Avcı x Avcı</t>
+  </si>
+  <si>
     <t>Hylics</t>
   </si>
   <si>
@@ -2926,15 +3037,24 @@
     <t>Hypixel (Attribute Shard)</t>
   </si>
   <si>
+    <t>Hypixel (Öznitelik Parçası)</t>
+  </si>
+  <si>
     <t>Hypixel (Dyes)</t>
   </si>
   <si>
+    <t>Hypixel (Boyalar)</t>
+  </si>
+  <si>
     <t>Hypixel (Fandom)</t>
   </si>
   <si>
     <t>Hypixel (Gear)</t>
   </si>
   <si>
+    <t>Hypixel (Dişli)</t>
+  </si>
+  <si>
     <t>Hypixel (Minion)</t>
   </si>
   <si>
@@ -2944,6 +3064,9 @@
     <t>Hypixel (Pets)</t>
   </si>
   <si>
+    <t>Hypixel (Evcil Hayvanlar)</t>
+  </si>
+  <si>
     <t>Hypixel (Reforge Stone)</t>
   </si>
   <si>
@@ -2953,42 +3076,75 @@
     <t>Hypixel (Skins)</t>
   </si>
   <si>
+    <t>Hypixel (Kaplamalar)</t>
+  </si>
+  <si>
     <t>Hypixel (Talismans)</t>
   </si>
   <si>
+    <t>Hypixel (Tılsımlar)</t>
+  </si>
+  <si>
     <t>Hypixel (Trophy Fish)</t>
   </si>
   <si>
     <t>Hōseki no Kuni (Land of the Lustrous)</t>
   </si>
   <si>
+    <t>Hōseki no Kuni (Parıltılı Ülke)</t>
+  </si>
+  <si>
     <t>Ib</t>
   </si>
   <si>
     <t>Ice Age</t>
   </si>
   <si>
+    <t>Buz Devri</t>
+  </si>
+  <si>
     <t>Ice Climber</t>
   </si>
   <si>
+    <t>Buz Tırmanıcısı</t>
+  </si>
+  <si>
     <t>Ice Cream</t>
   </si>
   <si>
+    <t>Dondurma</t>
+  </si>
+  <si>
     <t>Icons (GUI)</t>
   </si>
   <si>
+    <t>Simgeler (GUI)</t>
+  </si>
+  <si>
     <t>Icons (Ironblock)</t>
   </si>
   <si>
+    <t>Simgeler (Ironblock)</t>
+  </si>
+  <si>
     <t>Icons (Other)</t>
   </si>
   <si>
+    <t>Simgeler (Diğer)</t>
+  </si>
+  <si>
     <t>Icons (white background)</t>
   </si>
   <si>
+    <t>Simgeler (beyaz arka plan)</t>
+  </si>
+  <si>
     <t>Identity V</t>
   </si>
   <si>
+    <t>Kimlik V</t>
+  </si>
+  <si>
     <t>Illager</t>
   </si>
   <si>
@@ -2998,6 +3154,9 @@
     <t>Incredibles</t>
   </si>
   <si>
+    <t>İnanılmaz Aile</t>
+  </si>
+  <si>
     <t>Indiana Jones</t>
   </si>
   <si>
@@ -3007,54 +3166,102 @@
     <t>Injuries</t>
   </si>
   <si>
+    <t>Yaralanmalar</t>
+  </si>
+  <si>
     <t>Inner Layer Block</t>
   </si>
   <si>
+    <t>İç Katman Bloğu</t>
+  </si>
+  <si>
     <t>Inscryption</t>
   </si>
   <si>
+    <t>Şifreleme</t>
+  </si>
+  <si>
     <t>Insect</t>
   </si>
   <si>
+    <t>Böcek</t>
+  </si>
+  <si>
     <t>Inside Out</t>
   </si>
   <si>
+    <t>Tersyüz</t>
+  </si>
+  <si>
     <t>Inu Yasha</t>
   </si>
   <si>
     <t>Invader Zim</t>
   </si>
   <si>
+    <t>İstilacı Zim</t>
+  </si>
+  <si>
     <t>Invincible</t>
   </si>
   <si>
+    <t>Yenilmez</t>
+  </si>
+  <si>
     <t>Iron Man</t>
   </si>
   <si>
+    <t>Demir Adam</t>
+  </si>
+  <si>
     <t>It</t>
   </si>
   <si>
+    <t>Bu</t>
+  </si>
+  <si>
     <t>Jak and Daxter</t>
   </si>
   <si>
+    <t>Jak ve Daxter</t>
+  </si>
+  <si>
     <t>Japan</t>
   </si>
   <si>
+    <t>Japonya</t>
+  </si>
+  <si>
     <t>Jar</t>
   </si>
   <si>
+    <t>Kavanoz</t>
+  </si>
+  <si>
     <t>Jewelry</t>
   </si>
   <si>
+    <t>Takı</t>
+  </si>
+  <si>
     <t>JoJo's Bizarre Adventure</t>
   </si>
   <si>
+    <t>JoJo'nun Tuhaf Macerası</t>
+  </si>
+  <si>
     <t>JoJo's Bizarre Adventure (Stand)</t>
   </si>
   <si>
+    <t>JoJo'nun Tuhaf Maceraları (Stand)</t>
+  </si>
+  <si>
     <t>Journey</t>
   </si>
   <si>
+    <t>Yolculuk</t>
+  </si>
+  <si>
     <t>Jujutsu Kaisen</t>
   </si>
   <si>
@@ -3067,15 +3274,24 @@
     <t>Justice League</t>
   </si>
   <si>
+    <t>Adalet Birliği</t>
+  </si>
+  <si>
     <t>Kaiju Paradise</t>
   </si>
   <si>
+    <t>Kaiju Cenneti</t>
+  </si>
+  <si>
     <t>Kakegurui</t>
   </si>
   <si>
     <t>Karate Kid</t>
   </si>
   <si>
+    <t>Karate Çocuk</t>
+  </si>
+  <si>
     <t>Katamari Damacy</t>
   </si>
   <si>
@@ -3085,6 +3301,9 @@
     <t>Kiki's Delivery Service</t>
   </si>
   <si>
+    <t>Kiki'nin Teslimat Servisi</t>
+  </si>
+  <si>
     <t>Kill la Kill</t>
   </si>
   <si>
@@ -3106,6 +3325,9 @@
     <t>Kitchen</t>
   </si>
   <si>
+    <t>Mutfak</t>
+  </si>
+  <si>
     <t>KonoSuba</t>
   </si>
   <si>
@@ -3121,15 +3343,27 @@
     <t>Lamp Shade</t>
   </si>
   <si>
+    <t>Abajur</t>
+  </si>
+  <si>
     <t>Landscape</t>
   </si>
   <si>
+    <t>Peyzaj</t>
+  </si>
+  <si>
     <t>Lantern</t>
   </si>
   <si>
+    <t>Fener</t>
+  </si>
+  <si>
     <t>Laputa: Castle in the Sky</t>
   </si>
   <si>
+    <t>Laputa: Gökyüzündeki Kale</t>
+  </si>
+  <si>
     <t>LazyTown</t>
   </si>
   <si>
@@ -3142,15 +3376,24 @@
     <t>Legendary Pokemon</t>
   </si>
   <si>
+    <t>Efsanevi Pokemon</t>
+  </si>
+  <si>
     <t>Lego</t>
   </si>
   <si>
     <t>Lethal League</t>
   </si>
   <si>
+    <t>Ölümcül Lig</t>
+  </si>
+  <si>
     <t>Library of Ruina</t>
   </si>
   <si>
+    <t>Ruina Kütüphanesi</t>
+  </si>
+  <si>
     <t>Life is Strange</t>
   </si>
   <si>
@@ -3160,27 +3403,51 @@
     <t>Limbus Company</t>
   </si>
   <si>
+    <t>Limbus Şirketi</t>
+  </si>
+  <si>
     <t>Lion King</t>
   </si>
   <si>
+    <t>Aslan Kral</t>
+  </si>
+  <si>
     <t>Little Big Planet</t>
   </si>
   <si>
+    <t>Küçük Büyük Gezegen</t>
+  </si>
+  <si>
     <t>Little Mermaid</t>
   </si>
   <si>
+    <t>Küçük Deniz Kızı</t>
+  </si>
+  <si>
     <t>Little Nightmares</t>
   </si>
   <si>
+    <t>Küçük Kabuslar</t>
+  </si>
+  <si>
     <t>Little Shop of Horrors</t>
   </si>
   <si>
+    <t>Küçük Korku Dükkanı</t>
+  </si>
+  <si>
     <t>Little Witch Academia</t>
   </si>
   <si>
+    <t>Küçük Cadı Akademisi</t>
+  </si>
+  <si>
     <t>Llama</t>
   </si>
   <si>
+    <t>Lama</t>
+  </si>
+  <si>
     <t>Logo</t>
   </si>
   <si>
@@ -3190,45 +3457,78 @@
     <t>Lord of the Rings</t>
   </si>
   <si>
+    <t>Yüzüklerin Efendisi</t>
+  </si>
+  <si>
     <t>Love Live!</t>
   </si>
   <si>
     <t>Lovestruck Creature</t>
   </si>
   <si>
+    <t>Aşık Yaratık</t>
+  </si>
+  <si>
     <t>Lovestruck Person</t>
   </si>
   <si>
+    <t>Aşık İnsan</t>
+  </si>
+  <si>
     <t>Lucky Luke</t>
   </si>
   <si>
+    <t>Şanslı Luke</t>
+  </si>
+  <si>
     <t>Machine Part</t>
   </si>
   <si>
+    <t>Makine Parçası</t>
+  </si>
+  <si>
     <t>Mad Father</t>
   </si>
   <si>
+    <t>Çılgın Baba</t>
+  </si>
+  <si>
     <t>Mad Max</t>
   </si>
   <si>
+    <t>Çılgın Max</t>
+  </si>
+  <si>
     <t>Made in Abyss</t>
   </si>
   <si>
     <t>Madness Combat</t>
   </si>
   <si>
+    <t>Çılgınlık Savaşı</t>
+  </si>
+  <si>
     <t>Madoka Magica</t>
   </si>
   <si>
     <t>Makeup</t>
   </si>
   <si>
+    <t>Makyaj</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
+    <t>Erkek</t>
+  </si>
+  <si>
     <t>Mao Mao Heroes of Pure Heart</t>
   </si>
   <si>
+    <t>Mao Mao Saf Kalpli Kahramanlar</t>
+  </si>
+  <si>
     <t>MapleStory</t>
   </si>
   <si>
@@ -3238,57 +3538,102 @@
     <t>Mary and the Witch's Flower</t>
   </si>
   <si>
+    <t>Meryem ve Cadının Çiçeği</t>
+  </si>
+  <si>
     <t>Mascot</t>
   </si>
   <si>
+    <t>Maskot</t>
+  </si>
+  <si>
     <t>Mask</t>
   </si>
   <si>
+    <t>Maske</t>
+  </si>
+  <si>
     <t>Mask (full)</t>
   </si>
   <si>
+    <t>Maske (tam)</t>
+  </si>
+  <si>
     <t>Mask (functional)</t>
   </si>
   <si>
+    <t>Maske (işlevsel)</t>
+  </si>
+  <si>
     <t>Mask (health)</t>
   </si>
   <si>
+    <t>Maske (sağlık)</t>
+  </si>
+  <si>
     <t>Mask (Minecraft mob)</t>
   </si>
   <si>
+    <t>Maske (Minecraft çetesi)</t>
+  </si>
+  <si>
     <t>Mass Effect</t>
   </si>
   <si>
     <t>Masters of the Universe</t>
   </si>
   <si>
+    <t>Evrenin Efendileri</t>
+  </si>
+  <si>
     <t>Mathematical Symbol</t>
   </si>
   <si>
+    <t>Matematiksel Sembol</t>
+  </si>
+  <si>
     <t>Mc Donalds</t>
   </si>
   <si>
     <t>Meal</t>
   </si>
   <si>
+    <t>Yemek</t>
+  </si>
+  <si>
     <t>Meat</t>
   </si>
   <si>
+    <t>Et</t>
+  </si>
+  <si>
     <t>Medieval</t>
   </si>
   <si>
+    <t>Ortaçağ</t>
+  </si>
+  <si>
     <t>Medieval Tavern</t>
   </si>
   <si>
+    <t>Ortaçağ Tavernası</t>
+  </si>
+  <si>
     <t>Medieval Warfare Helmet</t>
   </si>
   <si>
+    <t>Ortaçağ Savaş Miğferi</t>
+  </si>
+  <si>
     <t>MediEvil</t>
   </si>
   <si>
     <t>Mega Evolution</t>
   </si>
   <si>
+    <t>Mega Evrim</t>
+  </si>
+  <si>
     <t>Megaman</t>
   </si>
   <si>
@@ -3298,6 +3643,9 @@
     <t>Mekakucity Actors</t>
   </si>
   <si>
+    <t>Mekakucity Oyuncuları</t>
+  </si>
+  <si>
     <t>Meme</t>
   </si>
   <si>
@@ -3322,78 +3670,147 @@
     <t>Mexico</t>
   </si>
   <si>
+    <t>Meksika</t>
+  </si>
+  <si>
     <t>Mickey Mouse</t>
   </si>
   <si>
     <t>Military Equipment</t>
   </si>
   <si>
+    <t>Askeri Ekipman</t>
+  </si>
+  <si>
     <t>Minecraft April Fools</t>
   </si>
   <si>
+    <t>Minecraft 1 Nisan Şakası</t>
+  </si>
+  <si>
     <t>Minecraft Bedrock Edition</t>
   </si>
   <si>
+    <t>Minecraft Bedrock Sürümü</t>
+  </si>
+  <si>
     <t>Minecraft Dungeons</t>
   </si>
   <si>
+    <t>Minecraft Zindanları</t>
+  </si>
+  <si>
     <t>Minecraft Earth</t>
   </si>
   <si>
+    <t>Minecraft Dünya</t>
+  </si>
+  <si>
     <t>Minecraft Education Edition</t>
   </si>
   <si>
+    <t>Minecraft Eğitim Sürümü</t>
+  </si>
+  <si>
     <t>Minecraft Legends</t>
   </si>
   <si>
+    <t>Minecraft Efsaneleri</t>
+  </si>
+  <si>
     <t>Minecraft Live</t>
   </si>
   <si>
+    <t>Minecraft Canlı</t>
+  </si>
+  <si>
     <t>Minecraft Movie</t>
   </si>
   <si>
+    <t>Minecraft Filmi</t>
+  </si>
+  <si>
     <t>Minecraft Story Mode</t>
   </si>
   <si>
+    <t>Minecraft Hikaye Modu</t>
+  </si>
+  <si>
     <t>Miner</t>
   </si>
   <si>
+    <t>Madenci</t>
+  </si>
+  <si>
     <t>Minesweeper</t>
   </si>
   <si>
+    <t>Mayın Tarlası</t>
+  </si>
+  <si>
     <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
   </si>
   <si>
+    <t>Mucizevi: Uğur Böceği ve Kara Kedi Hikayeleri</t>
+  </si>
+  <si>
     <t>Mirai Nikki (Future Diary)</t>
   </si>
   <si>
+    <t>Mirai Nikki (Gelecek Günlüğü)</t>
+  </si>
+  <si>
     <t>Mirror's Edge</t>
   </si>
   <si>
+    <t>Aynanın Kenarı</t>
+  </si>
+  <si>
     <t>Miss Kobayashi's Dragon Maid</t>
   </si>
   <si>
+    <t>Bayan Kobayashi'nin Ejderha Hizmetçisi</t>
+  </si>
+  <si>
     <t>Mizuno's Resource Pack</t>
   </si>
   <si>
+    <t>Mizuno'nun Kaynak Paketi</t>
+  </si>
+  <si>
     <t>Moana</t>
   </si>
   <si>
     <t>Modern Warfare Helmet</t>
   </si>
   <si>
+    <t>Modern Savaş Kaskı</t>
+  </si>
+  <si>
     <t>Money</t>
   </si>
   <si>
+    <t>Para</t>
+  </si>
+  <si>
     <t>Money Heist</t>
   </si>
   <si>
+    <t>Para Soygunu</t>
+  </si>
+  <si>
     <t>Monitor</t>
   </si>
   <si>
+    <t>Monitör</t>
+  </si>
+  <si>
     <t>Monkey Island</t>
   </si>
   <si>
+    <t>Maymun Adası</t>
+  </si>
+  <si>
     <t>Monocle</t>
   </si>
   <si>
@@ -3403,9 +3820,15 @@
     <t>Monster Hunter</t>
   </si>
   <si>
+    <t>Canavar Avcısı</t>
+  </si>
+  <si>
     <t>Monsters Inc</t>
   </si>
   <si>
+    <t>Canavarlar Şirketi</t>
+  </si>
+  <si>
     <t>Moomin</t>
   </si>
   <si>
@@ -3415,6 +3838,9 @@
     <t>Mouthwashing</t>
   </si>
   <si>
+    <t>Ağız Yıkama</t>
+  </si>
+  <si>
     <t>Mr. Bean</t>
   </si>
   <si>
@@ -3430,42 +3856,78 @@
     <t>Murder Drones</t>
   </si>
   <si>
+    <t>Cinayet Dronları</t>
+  </si>
+  <si>
     <t>Mushroom</t>
   </si>
   <si>
+    <t>Mantar</t>
+  </si>
+  <si>
     <t>Mushroom (Biome)</t>
   </si>
   <si>
+    <t>Mantar (Biyom)</t>
+  </si>
+  <si>
     <t>Mushroom (Headwear)</t>
   </si>
   <si>
+    <t>Mantar (Şapkalar)</t>
+  </si>
+  <si>
     <t>Music</t>
   </si>
   <si>
+    <t>Müzik</t>
+  </si>
+  <si>
     <t>Mustache</t>
   </si>
   <si>
+    <t>Bıyık</t>
+  </si>
+  <si>
     <t>My Deer Friend Nokotan</t>
   </si>
   <si>
+    <t>Geyik Arkadaşım Nokotan</t>
+  </si>
+  <si>
     <t>My Hero Academia</t>
   </si>
   <si>
+    <t>Benim Kahraman Akademim</t>
+  </si>
+  <si>
     <t>My Little Pony</t>
   </si>
   <si>
+    <t>Benim Küçük Midillim</t>
+  </si>
+  <si>
     <t>My Neighbor Totoro</t>
   </si>
   <si>
+    <t>Komşum Totoro</t>
+  </si>
+  <si>
     <t>My Singing Monsters</t>
   </si>
   <si>
+    <t>Şarkı Söyleyen Canavarlarım</t>
+  </si>
+  <si>
     <t>Naruto</t>
   </si>
   <si>
     <t>Nausicaä of the Valley of the Wind</t>
   </si>
   <si>
+    <t>Rüzgar Vadisi'nin Nausicaä'sı</t>
+  </si>
+  <si>
     <t>Nekopara</t>
   </si>
   <si>
@@ -3475,60 +3937,111 @@
     <t>Nether (inspired)</t>
   </si>
   <si>
+    <t>Nether (ilham)</t>
+  </si>
+  <si>
     <t>Nether (vanilla)</t>
   </si>
   <si>
+    <t>Nether (vanilya)</t>
+  </si>
+  <si>
     <t>Neutral Creature</t>
   </si>
   <si>
+    <t>Nötr Yaratık</t>
+  </si>
+  <si>
     <t>Neutral Person</t>
   </si>
   <si>
+    <t>Tarafsız Kişi</t>
+  </si>
+  <si>
     <t>New Year's Eve</t>
   </si>
   <si>
+    <t>Yeni Yıl Arifesi</t>
+  </si>
+  <si>
     <t>NieR: Automata</t>
   </si>
   <si>
     <t>Night in the Woods</t>
   </si>
   <si>
+    <t>Ormanda Gece</t>
+  </si>
+  <si>
     <t>Nightmare Before Christmas</t>
   </si>
   <si>
+    <t>Noel Öncesi Kabus</t>
+  </si>
+  <si>
     <t>Ninja Turtles</t>
   </si>
   <si>
+    <t>Ninja Kaplumbağalar</t>
+  </si>
+  <si>
     <t>No Game No Life</t>
   </si>
   <si>
+    <t>Oyun Yoksa Hayat da Yok</t>
+  </si>
+  <si>
     <t>No Man's Sky</t>
   </si>
   <si>
     <t>Noel's House Party</t>
   </si>
   <si>
+    <t>Noel'in Ev Partisi</t>
+  </si>
+  <si>
     <t>Norse Mythology</t>
   </si>
   <si>
+    <t>İskandinav Mitolojisi</t>
+  </si>
+  <si>
     <t>NPC (Education Edition)</t>
   </si>
   <si>
+    <t>NPC (Eğitim Sürümü)</t>
+  </si>
+  <si>
     <t>Nuclear Fallout</t>
   </si>
   <si>
+    <t>Nükleer Serpinti</t>
+  </si>
+  <si>
     <t>Nuclear Throne</t>
   </si>
   <si>
+    <t>Nükleer Taht</t>
+  </si>
+  <si>
     <t>Number</t>
   </si>
   <si>
+    <t>Sayı</t>
+  </si>
+  <si>
     <t>Nut</t>
   </si>
   <si>
+    <t>Fındık</t>
+  </si>
+  <si>
     <t>Ocean</t>
   </si>
   <si>
+    <t>Okyanus</t>
+  </si>
+  <si>
     <t>Octodad</t>
   </si>
   <si>
@@ -3538,18 +4051,30 @@
     <t>OFF</t>
   </si>
   <si>
+    <t>KAPALI</t>
+  </si>
+  <si>
     <t>Officer Cap</t>
   </si>
   <si>
+    <t>Memur Şapkası</t>
+  </si>
+  <si>
     <t>Oggy and the Cockroaches</t>
   </si>
   <si>
+    <t>Oggy ve Hamamböcekleri</t>
+  </si>
+  <si>
     <t>Okegom</t>
   </si>
   <si>
     <t>Old</t>
   </si>
   <si>
+    <t>Eski</t>
+  </si>
+  <si>
     <t>Oliver &amp; Co</t>
   </si>
   <si>
@@ -3559,6 +4084,9 @@
     <t>One Piece</t>
   </si>
   <si>
+    <t>Tek Parça</t>
+  </si>
+  <si>
     <t>One Punch Man</t>
   </si>
   <si>
@@ -3574,30 +4102,57 @@
     <t>Open Source Objects</t>
   </si>
   <si>
+    <t>Açık Kaynak Nesneler</t>
+  </si>
+  <si>
     <t>Orb</t>
   </si>
   <si>
+    <t>Küre</t>
+  </si>
+  <si>
     <t>Orc</t>
   </si>
   <si>
+    <t>Ork</t>
+  </si>
+  <si>
     <t>Ore</t>
   </si>
   <si>
+    <t>Cevher</t>
+  </si>
+  <si>
     <t>Organs and Bodyparts</t>
   </si>
   <si>
+    <t>Organlar ve Vücut Parçaları</t>
+  </si>
+  <si>
     <t>Other Headgear</t>
   </si>
   <si>
+    <t>Diğer Başlıklar</t>
+  </si>
+  <si>
     <t>Other Illumination</t>
   </si>
   <si>
+    <t>Diğer Aydınlatmalar</t>
+  </si>
+  <si>
     <t>Other Mystic Creature</t>
   </si>
   <si>
+    <t>Diğer Mistik Yaratık</t>
+  </si>
+  <si>
     <t>Outer Layer Block</t>
   </si>
   <si>
+    <t>Dış Katman Bloğu</t>
+  </si>
+  <si>
     <t>Overlord</t>
   </si>
   <si>
@@ -3610,75 +4165,126 @@
     <t>Pacific Rim</t>
   </si>
   <si>
+    <t>Pasifik Kıyıları</t>
+  </si>
+  <si>
     <t>Pacifier</t>
   </si>
   <si>
+    <t>Emzik</t>
+  </si>
+  <si>
     <t>Painted Face</t>
   </si>
   <si>
+    <t>Boyalı Yüz</t>
+  </si>
+  <si>
     <t>Pale Garden (inspired)</t>
   </si>
   <si>
+    <t>Solgun Bahçe (ilham)</t>
+  </si>
+  <si>
     <t>Panda Bear</t>
   </si>
   <si>
+    <t>Panda Ayı</t>
+  </si>
+  <si>
     <t>Pans Labyrinth</t>
   </si>
   <si>
+    <t>Tavalar Labirenti</t>
+  </si>
+  <si>
     <t>Papers Please</t>
   </si>
   <si>
+    <t>Kağıtlar Lütfen</t>
+  </si>
+  <si>
     <t>PaRappa the Rapper</t>
   </si>
   <si>
+    <t>Rapçi PaRappa</t>
+  </si>
+  <si>
     <t>Party</t>
   </si>
   <si>
+    <t>Parti</t>
+  </si>
+  <si>
     <t>Pastries and Sweets</t>
   </si>
   <si>
+    <t>Hamur İşleri ve Tatlılar</t>
+  </si>
+  <si>
     <t>Paw Patrol</t>
   </si>
   <si>
     <t>Payday</t>
   </si>
   <si>
+    <t>Ödeme Günü</t>
+  </si>
+  <si>
     <t>Peanuts (Snoopy)</t>
   </si>
   <si>
     <t>Penguin</t>
   </si>
   <si>
+    <t>Penguen</t>
+  </si>
+  <si>
     <t>Peppa Pig</t>
   </si>
   <si>
     <t>Periodic Table of Elements</t>
   </si>
   <si>
+    <t>Elementlerin Periyodik Tablosu</t>
+  </si>
+  <si>
     <t>Persona</t>
   </si>
   <si>
     <t>Pet Equipment</t>
   </si>
   <si>
+    <t>Evcil Hayvan Ekipmanları</t>
+  </si>
+  <si>
     <t>Peter Pan</t>
   </si>
   <si>
     <t>Phantom</t>
   </si>
   <si>
+    <t>Fantom</t>
+  </si>
+  <si>
     <t>Phineas &amp; Ferb</t>
   </si>
   <si>
     <t>Pig</t>
   </si>
   <si>
+    <t>Domuz</t>
+  </si>
+  <si>
     <t>Piglin</t>
   </si>
   <si>
     <t>Pigman</t>
   </si>
   <si>
+    <t>Domuz Adam</t>
+  </si>
+  <si>
     <t>Pikmin</t>
   </si>
   <si>
@@ -3688,24 +4294,45 @@
     <t>Pink Panther</t>
   </si>
   <si>
+    <t>Pembe Panter</t>
+  </si>
+  <si>
     <t>Pinky and the Brain</t>
   </si>
   <si>
+    <t>Pinky ve Beyin</t>
+  </si>
+  <si>
     <t>Pinocchio</t>
   </si>
   <si>
+    <t>Pinokyo</t>
+  </si>
+  <si>
     <t>Pirates of the Caribbean</t>
   </si>
   <si>
+    <t>Karayip Korsanları</t>
+  </si>
+  <si>
     <t>Pizza Tower</t>
   </si>
   <si>
+    <t>Pizza Kulesi</t>
+  </si>
+  <si>
     <t>Planet</t>
   </si>
   <si>
+    <t>Gezegen</t>
+  </si>
+  <si>
     <t>Plants vs. Zombies</t>
   </si>
   <si>
+    <t>Bitkiler Zombilere Karşı</t>
+  </si>
+  <si>
     <t>Playerunknown's Battlegrounds</t>
   </si>
   <si>
@@ -3721,42 +4348,81 @@
     <t>Pokemon Generation 1</t>
   </si>
   <si>
+    <t>Pokemon Nesil 1</t>
+  </si>
+  <si>
     <t>Pokemon Generation 2</t>
   </si>
   <si>
+    <t>Pokemon 2. Nesil</t>
+  </si>
+  <si>
     <t>Pokemon Generation 3</t>
   </si>
   <si>
+    <t>Pokemon 3. Nesil</t>
+  </si>
+  <si>
     <t>Pokemon Generation 4</t>
   </si>
   <si>
+    <t>Pokemon 4. Nesil</t>
+  </si>
+  <si>
     <t>Pokemon Generation 5</t>
   </si>
   <si>
+    <t>Pokemon 5. Nesil</t>
+  </si>
+  <si>
     <t>Pokemon Generation 6</t>
   </si>
   <si>
+    <t>Pokemon 6. Nesil</t>
+  </si>
+  <si>
     <t>Pokemon Generation 7</t>
   </si>
   <si>
+    <t>Pokemon 7. Nesil</t>
+  </si>
+  <si>
     <t>Pokemon Generation 8</t>
   </si>
   <si>
+    <t>Pokemon 8. Nesil</t>
+  </si>
+  <si>
     <t>Pokemon Generation 9</t>
   </si>
   <si>
+    <t>Pokemon 9. Nesil</t>
+  </si>
+  <si>
     <t>Pokemon Items</t>
   </si>
   <si>
+    <t>Pokemon Eşyaları</t>
+  </si>
+  <si>
     <t>Pokemon Trainer</t>
   </si>
   <si>
+    <t>Pokemon Eğitmeni</t>
+  </si>
+  <si>
     <t>Polar Bear</t>
   </si>
   <si>
+    <t>Kutup Ayısı</t>
+  </si>
+  <si>
     <t>Police</t>
   </si>
   <si>
+    <t>Polis</t>
+  </si>
+  <si>
     <t>Pom Poko</t>
   </si>
   <si>
@@ -3772,6 +4438,9 @@
     <t>Poppy Playtime</t>
   </si>
   <si>
+    <t>Poppy Oyun Zamanı</t>
+  </si>
+  <si>
     <t>Porco Rosso</t>
   </si>
   <si>
@@ -3781,39 +4450,69 @@
     <t>Postman Pat</t>
   </si>
   <si>
+    <t>Postacı Pat</t>
+  </si>
+  <si>
     <t>Power Rangers</t>
   </si>
   <si>
     <t>Powerpuff Girls</t>
   </si>
   <si>
+    <t>Powerpuff Kızları</t>
+  </si>
+  <si>
     <t>Predator</t>
   </si>
   <si>
+    <t>Yırtıcı</t>
+  </si>
+  <si>
     <t>Present</t>
   </si>
   <si>
+    <t>Mevcut</t>
+  </si>
+  <si>
     <t>Pride</t>
   </si>
   <si>
+    <t>Gurur</t>
+  </si>
+  <si>
     <t>Primate</t>
   </si>
   <si>
+    <t>Primat</t>
+  </si>
+  <si>
     <t>Princess Mononoke</t>
   </si>
   <si>
+    <t>Prenses Mononoke</t>
+  </si>
+  <si>
     <t>Prof Layton</t>
   </si>
   <si>
     <t>Pumpkin</t>
   </si>
   <si>
+    <t>Balkabağı</t>
+  </si>
+  <si>
     <t>Pumpkin (Lit)</t>
   </si>
   <si>
+    <t>Balkabağı (Lit)</t>
+  </si>
+  <si>
     <t>Punctuation Mark</t>
   </si>
   <si>
+    <t>Noktalama İşareti</t>
+  </si>
+  <si>
     <t>Quake</t>
   </si>
   <si>
@@ -3823,12 +4522,21 @@
     <t>Rabbit</t>
   </si>
   <si>
+    <t>Tavşan</t>
+  </si>
+  <si>
     <t>Railway</t>
   </si>
   <si>
+    <t>Demiryolu</t>
+  </si>
+  <si>
     <t>Rain World</t>
   </si>
   <si>
+    <t>Yağmur Dünyası</t>
+  </si>
+  <si>
     <t>Ratatouille</t>
   </si>
   <si>
@@ -3838,24 +4546,39 @@
     <t>Re:Creators</t>
   </si>
   <si>
+    <t>Re:Yaratıcılar</t>
+  </si>
+  <si>
     <t>Re:Zero</t>
   </si>
   <si>
+    <t>Re:Sıfır</t>
+  </si>
+  <si>
     <t>Realm of the Mad God</t>
   </si>
   <si>
+    <t>Deli Tanrı'nın Diyarı</t>
+  </si>
+  <si>
     <t>Red Dead Redemption</t>
   </si>
   <si>
     <t>Red Riding Hood</t>
   </si>
   <si>
+    <t>Kırmızı Başlıklı Kız</t>
+  </si>
+  <si>
     <t>Redstone</t>
   </si>
   <si>
     <t>Regional Form Pokemon</t>
   </si>
   <si>
+    <t>Bölgesel Form Pokemonları</t>
+  </si>
+  <si>
     <t>Regretavator</t>
   </si>
   <si>
@@ -3865,33 +4588,57 @@
     <t>Religion</t>
   </si>
   <si>
+    <t>Din</t>
+  </si>
+  <si>
     <t>Reptile</t>
   </si>
   <si>
     <t>Rescue Rangers</t>
   </si>
   <si>
+    <t>Kurtarma Korucuları</t>
+  </si>
+  <si>
     <t>Resident Evil</t>
   </si>
   <si>
     <t>Rhythm Heaven</t>
   </si>
   <si>
+    <t>Ritim Cenneti</t>
+  </si>
+  <si>
     <t>Ribbon</t>
   </si>
   <si>
+    <t>Kurdele</t>
+  </si>
+  <si>
     <t>Rick and Morty</t>
   </si>
   <si>
+    <t>Rick ve Morty</t>
+  </si>
+  <si>
     <t>Risk of Rain</t>
   </si>
   <si>
+    <t>Yağmur Riski</t>
+  </si>
+  <si>
     <t>Rival of Aether</t>
   </si>
   <si>
+    <t>Aether'in Rakibi</t>
+  </si>
+  <si>
     <t>River</t>
   </si>
   <si>
+    <t>Nehir</t>
+  </si>
+  <si>
     <t>Riverdale</t>
   </si>
   <si>
@@ -3916,12 +4663,21 @@
     <t>Rodent</t>
   </si>
   <si>
+    <t>Kemirgen</t>
+  </si>
+  <si>
     <t>Rotated Entity</t>
   </si>
   <si>
+    <t>Döndürülmüş Varlık</t>
+  </si>
+  <si>
     <t>Royal Headgear</t>
   </si>
   <si>
+    <t>Kraliyet Başlığı</t>
+  </si>
+  <si>
     <t>Rune</t>
   </si>
   <si>
@@ -3934,72 +4690,132 @@
     <t>Sackboy: A Big Adventure</t>
   </si>
   <si>
+    <t>Sackboy Büyük Bir Macera</t>
+  </si>
+  <si>
     <t>Sad Creature</t>
   </si>
   <si>
+    <t>Hüzünlü Yaratık</t>
+  </si>
+  <si>
     <t>Sad Person</t>
   </si>
   <si>
+    <t>Üzgün İnsan</t>
+  </si>
+  <si>
     <t>Safari (Other)</t>
   </si>
   <si>
+    <t>Safari (Diğer)</t>
+  </si>
+  <si>
     <t>Saga of Tanya the Evil</t>
   </si>
   <si>
+    <t>Kötü Tanya'nın Destanı</t>
+  </si>
+  <si>
     <t>Sailor Moon</t>
   </si>
   <si>
+    <t>Ay Savaşçısı</t>
+  </si>
+  <si>
     <t>Sakurasou no Pet na Kanojo</t>
   </si>
   <si>
     <t>Samurai Helmet</t>
   </si>
   <si>
+    <t>Samuray Kaskı</t>
+  </si>
+  <si>
     <t>Satisfactory</t>
   </si>
   <si>
+    <t>Tatmin edici</t>
+  </si>
+  <si>
     <t>Saw</t>
   </si>
   <si>
+    <t>Testere</t>
+  </si>
+  <si>
     <t>Scarf</t>
   </si>
   <si>
+    <t>Eşarp</t>
+  </si>
+  <si>
     <t>Scooby-Doo</t>
   </si>
   <si>
     <t>SCP Containment Breach</t>
   </si>
   <si>
+    <t>SCP Muhafaza İhlali</t>
+  </si>
+  <si>
     <t>Scream</t>
   </si>
   <si>
+    <t>Çığlık</t>
+  </si>
+  <si>
     <t>Scribblenauts</t>
   </si>
   <si>
     <t>Sea of Thieves</t>
   </si>
   <si>
+    <t>Hırsızlar Denizi</t>
+  </si>
+  <si>
     <t>Seafarer</t>
   </si>
   <si>
+    <t>Denizci</t>
+  </si>
+  <si>
     <t>Seraph of the End</t>
   </si>
   <si>
+    <t>Sonun Seraph'ı</t>
+  </si>
+  <si>
     <t>Serial Experiments Lain</t>
   </si>
   <si>
+    <t>Seri Deneyler Lain</t>
+  </si>
+  <si>
     <t>Sesame Street</t>
   </si>
   <si>
+    <t>Susam Sokağı</t>
+  </si>
+  <si>
     <t>Seven Deadly Sins</t>
   </si>
   <si>
+    <t>Yedi Ölümcül Günah</t>
+  </si>
+  <si>
     <t>Shadows of Mordor</t>
   </si>
   <si>
+    <t>Mordor'un Gölgeleri</t>
+  </si>
+  <si>
     <t>Sheep</t>
   </si>
   <si>
+    <t>Koyun</t>
+  </si>
+  <si>
     <t>Sherlock Holmes</t>
   </si>
   <si>
@@ -4012,12 +4828,21 @@
     <t>Shiny Pokemon</t>
   </si>
   <si>
+    <t>Parlak Pokemon</t>
+  </si>
+  <si>
     <t>Shipping</t>
   </si>
   <si>
+    <t>Nakliye</t>
+  </si>
+  <si>
     <t>Shovel Knight</t>
   </si>
   <si>
+    <t>Kürek Şövalyesi</t>
+  </si>
+  <si>
     <t>Shrek</t>
   </si>
   <si>
@@ -4027,24 +4852,42 @@
     <t>Silent Hill</t>
   </si>
   <si>
+    <t>Sessiz Tepe</t>
+  </si>
+  <si>
     <t>SilvaGunner</t>
   </si>
   <si>
     <t>Simpsons</t>
   </si>
   <si>
+    <t>Simpsonlar</t>
+  </si>
+  <si>
     <t>Skeleton</t>
   </si>
   <si>
+    <t>İskelet</t>
+  </si>
+  <si>
     <t>Skeleton (Vanilla)</t>
   </si>
   <si>
+    <t>İskelet (Vanilya)</t>
+  </si>
+  <si>
     <t>Skeptical Creature</t>
   </si>
   <si>
+    <t>Şüpheci Yaratık</t>
+  </si>
+  <si>
     <t>Skeptical Person</t>
   </si>
   <si>
+    <t>Şüpheci Kişi</t>
+  </si>
+  <si>
     <t>Skullgirls</t>
   </si>
   <si>
@@ -4054,21 +4897,39 @@
     <t>Sleeping Beauty</t>
   </si>
   <si>
+    <t>Uyuyan Güzel</t>
+  </si>
+  <si>
     <t>Sleeping Creature</t>
   </si>
   <si>
+    <t>Uyuyan Yaratık</t>
+  </si>
+  <si>
     <t>Sleeping Person</t>
   </si>
   <si>
+    <t>Uyuyan Kişi</t>
+  </si>
+  <si>
     <t>Sliced</t>
   </si>
   <si>
+    <t>Dilimlenmiş</t>
+  </si>
+  <si>
     <t>Slime</t>
   </si>
   <si>
+    <t>Balçık</t>
+  </si>
+  <si>
     <t>Slime (Vanilla)</t>
   </si>
   <si>
+    <t>Slime (Vanilya)</t>
+  </si>
+  <si>
     <t>Slime Rancher</t>
   </si>
   <si>
@@ -4081,39 +4942,69 @@
     <t>Smite Gods</t>
   </si>
   <si>
+    <t>Tanrıları Parçala</t>
+  </si>
+  <si>
     <t>Smoking</t>
   </si>
   <si>
+    <t>Sigara içmek</t>
+  </si>
+  <si>
     <t>Smurfs</t>
   </si>
   <si>
+    <t>Şirinler</t>
+  </si>
+  <si>
     <t>Snow Fight</t>
   </si>
   <si>
+    <t>Karla Mücadele</t>
+  </si>
+  <si>
     <t>Snow Sculpture</t>
   </si>
   <si>
+    <t>Kar Heykeli</t>
+  </si>
+  <si>
     <t>Snow White and the Seven Dwarfs</t>
   </si>
   <si>
+    <t>Pamuk Prenses ve Yedi Cüceler</t>
+  </si>
+  <si>
     <t>Songs of War</t>
   </si>
   <si>
+    <t>Savaş Şarkıları</t>
+  </si>
+  <si>
     <t>Sonic the Hedgehog</t>
   </si>
   <si>
     <t>Soul Knight</t>
   </si>
   <si>
+    <t>Ruh Şövalyesi</t>
+  </si>
+  <si>
     <t>South Park</t>
   </si>
   <si>
     <t>Space Travel</t>
   </si>
   <si>
+    <t>Uzay Yolculuğu</t>
+  </si>
+  <si>
     <t>Spawn Egg</t>
   </si>
   <si>
+    <t>Yumurtlama Yumurtası</t>
+  </si>
+  <si>
     <t>Spawner</t>
   </si>
   <si>
@@ -4123,15 +5014,27 @@
     <t>Spider</t>
   </si>
   <si>
+    <t>Örümcek</t>
+  </si>
+  <si>
     <t>Spider (Vanilla)</t>
   </si>
   <si>
+    <t>Örümcek (Vanilya)</t>
+  </si>
+  <si>
     <t>Spiderman</t>
   </si>
   <si>
+    <t>Örümcek Adam</t>
+  </si>
+  <si>
     <t>Spirited Away</t>
   </si>
   <si>
+    <t>Ruhların Kaçışı</t>
+  </si>
+  <si>
     <t>Splatoon</t>
   </si>
   <si>
@@ -4141,51 +5044,87 @@
     <t>Spooky's Jump Scare Mansion</t>
   </si>
   <si>
+    <t>Spooky'nin Atlama Korku Konağı</t>
+  </si>
+  <si>
     <t>Spore</t>
   </si>
   <si>
+    <t>Spor</t>
+  </si>
+  <si>
     <t>Sport</t>
   </si>
   <si>
     <t>Spreads</t>
   </si>
   <si>
+    <t>Spreadler</t>
+  </si>
+  <si>
     <t>Spring to Life</t>
   </si>
   <si>
+    <t>Hayata Bahar</t>
+  </si>
+  <si>
     <t>Spy x Family</t>
   </si>
   <si>
+    <t>Casus x Aile</t>
+  </si>
+  <si>
     <t>Spyro</t>
   </si>
   <si>
     <t>Squid Game</t>
   </si>
   <si>
+    <t>Kalamar Oyunu</t>
+  </si>
+  <si>
     <t>St. Patrick's Day</t>
   </si>
   <si>
+    <t>Aziz Patrick Günü</t>
+  </si>
+  <si>
     <t>StackUp</t>
   </si>
   <si>
     <t>Star Fox</t>
   </si>
   <si>
+    <t>Yıldız Tilki</t>
+  </si>
+  <si>
     <t>Star Trek</t>
   </si>
   <si>
     <t>Star vs the Forces of Evil</t>
   </si>
   <si>
+    <t>Yıldız Kötülük Güçlerine Karşı</t>
+  </si>
+  <si>
     <t>Star Wars</t>
   </si>
   <si>
+    <t>Yıldız Savaşları</t>
+  </si>
+  <si>
     <t>Star Wars Helmet</t>
   </si>
   <si>
+    <t>Yıldız Savaşları Kaskı</t>
+  </si>
+  <si>
     <t>Star Wars Trooper Helmet</t>
   </si>
   <si>
+    <t>Yıldız Savaşları Asker Kaskı</t>
+  </si>
+  <si>
     <t>Starbucks</t>
   </si>
   <si>
@@ -4195,12 +5134,21 @@
     <t>Stardew Valley</t>
   </si>
   <si>
+    <t>Stardew Vadisi</t>
+  </si>
+  <si>
     <t>Starter Pokemon</t>
   </si>
   <si>
+    <t>Başlangıç Pokemonları</t>
+  </si>
+  <si>
     <t>Stationery</t>
   </si>
   <si>
+    <t>Kırtasiye Malzemeleri</t>
+  </si>
+  <si>
     <t>Steampunk</t>
   </si>
   <si>
@@ -4216,15 +5164,24 @@
     <t>Stone</t>
   </si>
   <si>
+    <t>Taş</t>
+  </si>
+  <si>
     <t>Storage (other)</t>
   </si>
   <si>
+    <t>Depolama (diğer)</t>
+  </si>
+  <si>
     <t>Stranger Things</t>
   </si>
   <si>
     <t>Street Fighter</t>
   </si>
   <si>
+    <t>Sokak Dövüşçüsü</t>
+  </si>
+  <si>
     <t>Strider</t>
   </si>
   <si>
@@ -4234,42 +5191,78 @@
     <t>Summer</t>
   </si>
   <si>
+    <t>Yaz</t>
+  </si>
+  <si>
     <t>Sunglasses</t>
   </si>
   <si>
+    <t>Güneş Gözlüğü</t>
+  </si>
+  <si>
     <t>Super Mario</t>
   </si>
   <si>
+    <t>Süper Mario</t>
+  </si>
+  <si>
     <t>Supernatural</t>
   </si>
   <si>
+    <t>Doğaüstü</t>
+  </si>
+  <si>
     <t>Surprised Creature</t>
   </si>
   <si>
+    <t>Sürpriz Yaratık</t>
+  </si>
+  <si>
     <t>Surprised Person</t>
   </si>
   <si>
+    <t>Şaşırmış Kişi</t>
+  </si>
+  <si>
     <t>Sushi</t>
   </si>
   <si>
+    <t>Suşi</t>
+  </si>
+  <si>
     <t>Swamp</t>
   </si>
   <si>
+    <t>Bataklık</t>
+  </si>
+  <si>
     <t>Sword Art Online</t>
   </si>
   <si>
+    <t>Kılıç Sanatı Çevrimiçi</t>
+  </si>
+  <si>
     <t>TaleSpin</t>
   </si>
   <si>
     <t>Tangled</t>
   </si>
   <si>
+    <t>Karmakarışık</t>
+  </si>
+  <si>
     <t>Tattletail</t>
   </si>
   <si>
+    <t>Gammaz</t>
+  </si>
+  <si>
     <t>Team Fortress 2</t>
   </si>
   <si>
+    <t>Takım Kalesi 2</t>
+  </si>
+  <si>
     <t>Teletubbies</t>
   </si>
   <si>
@@ -4285,120 +5278,219 @@
     <t>Thanksgiving</t>
   </si>
   <si>
+    <t>Şükran Günü</t>
+  </si>
+  <si>
     <t>That Time I Got Reincarnated as a Slime</t>
   </si>
   <si>
+    <t>Slime Olarak Reenkarne Olduğum Zaman</t>
+  </si>
+  <si>
     <t>Thaumcraft</t>
   </si>
   <si>
     <t>The Adventures of Tintin</t>
   </si>
   <si>
+    <t>Tenten'in Maceraları</t>
+  </si>
+  <si>
     <t>The Amazing Digital Circus</t>
   </si>
   <si>
+    <t>İnanılmaz Dijital Sirk</t>
+  </si>
+  <si>
     <t>The Amazing World of Gumball</t>
   </si>
   <si>
+    <t>Gumball'ın İnanılmaz Dünyası</t>
+  </si>
+  <si>
     <t>The Binding of Isaac</t>
   </si>
   <si>
     <t>The Boys</t>
   </si>
   <si>
+    <t>Çocuklar</t>
+  </si>
+  <si>
     <t>The Cat Returns</t>
   </si>
   <si>
+    <t>Kedi Geri Dönüyor</t>
+  </si>
+  <si>
     <t>The Conjuring</t>
   </si>
   <si>
     <t>The Emperor's New Groove</t>
   </si>
   <si>
+    <t>İmparatorun Yeni Groove'u</t>
+  </si>
+  <si>
     <t>The English Ensemble Stars</t>
   </si>
   <si>
+    <t>İngiliz Topluluk Yıldızları</t>
+  </si>
+  <si>
     <t>The Fairly OddParents</t>
   </si>
   <si>
     <t>The Finals</t>
   </si>
   <si>
+    <t>Finaller</t>
+  </si>
+  <si>
     <t>The Flash</t>
   </si>
   <si>
+    <t>Flash</t>
+  </si>
+  <si>
     <t>The Flintstones</t>
   </si>
   <si>
+    <t>Çakmaktaşlar</t>
+  </si>
+  <si>
     <t>The Fly</t>
   </si>
   <si>
+    <t>Sinek</t>
+  </si>
+  <si>
     <t>The Garden Awakens</t>
   </si>
   <si>
+    <t>Bahçe Uyanıyor</t>
+  </si>
+  <si>
     <t>The Good Dinosaur</t>
   </si>
   <si>
+    <t>İyi Dinozor</t>
+  </si>
+  <si>
     <t>The Great Mouse Detective</t>
   </si>
   <si>
+    <t>Büyük Fare Dedektifi</t>
+  </si>
+  <si>
     <t>The Grim Adventures of Billy &amp; Mandy</t>
   </si>
   <si>
+    <t>Billy ve Mandy'nin Korkunç Maceraları</t>
+  </si>
+  <si>
     <t>The Hunchback of Notre Dame</t>
   </si>
   <si>
+    <t>Notre Dame'ın Kamburu</t>
+  </si>
+  <si>
     <t>The Iron Giant</t>
   </si>
   <si>
+    <t>Demir Dev</t>
+  </si>
+  <si>
     <t>The Last Guardian</t>
   </si>
   <si>
+    <t>Son Muhafız</t>
+  </si>
+  <si>
     <t>The Last of Us</t>
   </si>
   <si>
     <t>The Legend of Zelda</t>
   </si>
   <si>
+    <t>Zelda Efsanesi</t>
+  </si>
+  <si>
     <t>The Lorax</t>
   </si>
   <si>
+    <t>Loraks</t>
+  </si>
+  <si>
     <t>The Neverhood</t>
   </si>
   <si>
+    <t>Hiçlik</t>
+  </si>
+  <si>
     <t>The Owl House</t>
   </si>
   <si>
+    <t>Baykuş Evi</t>
+  </si>
+  <si>
     <t>The Princess and the Frog</t>
   </si>
   <si>
+    <t>Prenses ve Kurbağa</t>
+  </si>
+  <si>
     <t>The Ren &amp; Stimpy Show</t>
   </si>
   <si>
+    <t>Ren &amp; Stimpy Şov</t>
+  </si>
+  <si>
     <t>The Road to El Dorado</t>
   </si>
   <si>
+    <t>El Dorado'ya Giden Yol</t>
+  </si>
+  <si>
     <t>The Texas Chainsaw Massacre</t>
   </si>
   <si>
+    <t>Teksas Testere Katliamı</t>
+  </si>
+  <si>
     <t>The Three Caballeros</t>
   </si>
   <si>
+    <t>Üç Caballeros</t>
+  </si>
+  <si>
     <t>The Walten Files</t>
   </si>
   <si>
+    <t>Walten Dosyaları</t>
+  </si>
+  <si>
     <t>The Woody Woodpecker Show</t>
   </si>
   <si>
+    <t>Woody Ağaçkakan Gösterisi</t>
+  </si>
+  <si>
     <t>Thomas &amp; Friends</t>
   </si>
   <si>
+    <t>Thomas ve Arkadaşları</t>
+  </si>
+  <si>
     <t>Thor</t>
   </si>
   <si>
     <t>Those Nights at Rachel's</t>
   </si>
   <si>
+    <t>Rachel'ın Geceleri</t>
+  </si>
+  <si>
     <t>Tinker's Construct</t>
   </si>
   <si>
@@ -4411,42 +5503,75 @@
     <t>Tom and Jerry</t>
   </si>
   <si>
+    <t>Tom ve Jerry</t>
+  </si>
+  <si>
     <t>Tomb Raider</t>
   </si>
   <si>
     <t>Tomorrow's Pioneers</t>
   </si>
   <si>
+    <t>Yarının Öncüleri</t>
+  </si>
+  <si>
     <t>Tooth Gap</t>
   </si>
   <si>
+    <t>Diş Boşluğu</t>
+  </si>
+  <si>
     <t>Toradora</t>
   </si>
   <si>
     <t>Total Drama Island</t>
   </si>
   <si>
+    <t>Toplam Drama Adası</t>
+  </si>
+  <si>
     <t>Touhou Project</t>
   </si>
   <si>
+    <t>Touhou Projesi</t>
+  </si>
+  <si>
     <t>Toy</t>
   </si>
   <si>
+    <t>Oyuncak</t>
+  </si>
+  <si>
     <t>Toy Story</t>
   </si>
   <si>
+    <t>Oyuncak Hikayesi</t>
+  </si>
+  <si>
     <t>Traffic</t>
   </si>
   <si>
+    <t>Trafik</t>
+  </si>
+  <si>
     <t>Traffic Light</t>
   </si>
   <si>
+    <t>Trafik Işığı</t>
+  </si>
+  <si>
     <t>Traffic Sign</t>
   </si>
   <si>
+    <t>Trafik İşareti</t>
+  </si>
+  <si>
     <t>Trails and Tales</t>
   </si>
   <si>
+    <t>İzler ve Masallar</t>
+  </si>
+  <si>
     <t>Transformers</t>
   </si>
   <si>
@@ -4456,33 +5581,57 @@
     <t>Transparent Head</t>
   </si>
   <si>
+    <t>Şeffaf Kafa</t>
+  </si>
+  <si>
     <t>Trash Can</t>
   </si>
   <si>
+    <t>Çöp Kovası</t>
+  </si>
+  <si>
     <t>Treasure</t>
   </si>
   <si>
+    <t>Hazine</t>
+  </si>
+  <si>
     <t>Treasure Planet</t>
   </si>
   <si>
+    <t>Hazine Gezegeni</t>
+  </si>
+  <si>
     <t>Tricky Trials Update</t>
   </si>
   <si>
+    <t>Zorlu Denemeler Güncellemesi</t>
+  </si>
+  <si>
     <t>Tron</t>
   </si>
   <si>
     <t>Turtle</t>
   </si>
   <si>
+    <t>Kaplumbağa</t>
+  </si>
+  <si>
     <t>Twilight Forest</t>
   </si>
   <si>
+    <t>Alacakaranlık Ormanı</t>
+  </si>
+  <si>
     <t>Ultrakill</t>
   </si>
   <si>
     <t>Umineko - When They Cry</t>
   </si>
   <si>
+    <t>Umineko - Ağladıklarında</t>
+  </si>
+  <si>
     <t>Undertale</t>
   </si>
   <si>
@@ -4492,81 +5641,153 @@
     <t>Undertale Yellow</t>
   </si>
   <si>
+    <t>Undertale Sarı</t>
+  </si>
+  <si>
     <t>Universal Symbol</t>
   </si>
   <si>
+    <t>Evrensel Sembol</t>
+  </si>
+  <si>
     <t>Up</t>
   </si>
   <si>
+    <t>Yukarı</t>
+  </si>
+  <si>
     <t>Urban Wildlife</t>
   </si>
   <si>
+    <t>Kentsel Yaban Hayatı</t>
+  </si>
+  <si>
     <t>V for Vendetta</t>
   </si>
   <si>
     <t>Valentines</t>
   </si>
   <si>
+    <t>Sevgililer Günü</t>
+  </si>
+  <si>
     <t>Valorant</t>
   </si>
   <si>
     <t>Vanilla (removed)</t>
   </si>
   <si>
+    <t>Vanilya (kaldırıldı)</t>
+  </si>
+  <si>
     <t>Vanilla Block</t>
   </si>
   <si>
+    <t>Vanilya Bloğu</t>
+  </si>
+  <si>
     <t>Vanilla Food</t>
   </si>
   <si>
+    <t>Vanilyalı Yiyecek</t>
+  </si>
+  <si>
     <t>Vanilla Helmet</t>
   </si>
   <si>
+    <t>Vanilya Kask</t>
+  </si>
+  <si>
     <t>Vanilla Item</t>
   </si>
   <si>
+    <t>Vanilya Eşyası</t>
+  </si>
+  <si>
     <t>Vanilla Mob</t>
   </si>
   <si>
+    <t>Vanilya Çetesi</t>
+  </si>
+  <si>
     <t>Vault Hunters</t>
   </si>
   <si>
+    <t>Kasa Avcıları</t>
+  </si>
+  <si>
     <t>Vegetable</t>
   </si>
   <si>
+    <t>Sebze</t>
+  </si>
+  <si>
     <t>Vehicle</t>
   </si>
   <si>
+    <t>Araç</t>
+  </si>
+  <si>
     <t>Vikings</t>
   </si>
   <si>
+    <t>Vikingler</t>
+  </si>
+  <si>
     <t>Villager</t>
   </si>
   <si>
+    <t>Köylü</t>
+  </si>
+  <si>
     <t>Villager (Desert)</t>
   </si>
   <si>
+    <t>Köylü (Çöl)</t>
+  </si>
+  <si>
     <t>Villager (Jungle)</t>
   </si>
   <si>
+    <t>Köylü (Orman)</t>
+  </si>
+  <si>
     <t>Villager (Plains)</t>
   </si>
   <si>
+    <t>Köylü (Ovalar)</t>
+  </si>
+  <si>
     <t>Villager (Savanna)</t>
   </si>
   <si>
+    <t>Köylü (Savanna)</t>
+  </si>
+  <si>
     <t>Villager (Snowy Tundra)</t>
   </si>
   <si>
+    <t>Köylü (Karlı Tundra)</t>
+  </si>
+  <si>
     <t>Villager (Swamp)</t>
   </si>
   <si>
+    <t>Köylü (Bataklık)</t>
+  </si>
+  <si>
     <t>Villager (Taiga)</t>
   </si>
   <si>
+    <t>Köylü (Tayga)</t>
+  </si>
+  <si>
     <t>Virtual Youtuber</t>
   </si>
   <si>
+    <t>Sanal Youtuber</t>
+  </si>
+  <si>
     <t>Vocaloid</t>
   </si>
   <si>
@@ -4579,15 +5800,24 @@
     <t>Walking Dead</t>
   </si>
   <si>
+    <t>Yürüyen Ölüler</t>
+  </si>
+  <si>
     <t>Wall-E</t>
   </si>
   <si>
     <t>Wallace and Gromit</t>
   </si>
   <si>
+    <t>Wallace ve Gromit</t>
+  </si>
+  <si>
     <t>War of the Worlds</t>
   </si>
   <si>
+    <t>Dünyalar Savaşı</t>
+  </si>
+  <si>
     <t>Warcraft</t>
   </si>
   <si>
@@ -4600,48 +5830,84 @@
     <t>Warrior Cats</t>
   </si>
   <si>
+    <t>Savaşçı Kediler</t>
+  </si>
+  <si>
     <t>We Bear Bears</t>
   </si>
   <si>
+    <t>Biz Ayılar</t>
+  </si>
+  <si>
     <t>We Happy Few</t>
   </si>
   <si>
     <t>Weather</t>
   </si>
   <si>
+    <t>Hava Durumu</t>
+  </si>
+  <si>
     <t>Welcome Home</t>
   </si>
   <si>
+    <t>Evinize Hoş Geldiniz</t>
+  </si>
+  <si>
     <t>Who is this?</t>
   </si>
   <si>
+    <t>Kim bu?</t>
+  </si>
+  <si>
     <t>Wild Update</t>
   </si>
   <si>
+    <t>Vahşi Güncelleme</t>
+  </si>
+  <si>
     <t>Wings of Fire</t>
   </si>
   <si>
+    <t>Ateşin Kanatları</t>
+  </si>
+  <si>
     <t>Winnie the Pooh</t>
   </si>
   <si>
     <t>Winter</t>
   </si>
   <si>
+    <t>Kış</t>
+  </si>
+  <si>
     <t>Witcher</t>
   </si>
   <si>
     <t>Wonderful Wonder World</t>
   </si>
   <si>
+    <t>Harika Harikalar Dünyası</t>
+  </si>
+  <si>
     <t>Wood</t>
   </si>
   <si>
+    <t>Ahşap</t>
+  </si>
+  <si>
     <t>Wool</t>
   </si>
   <si>
+    <t>Yün</t>
+  </si>
+  <si>
     <t>Work Safety Helmet</t>
   </si>
   <si>
+    <t>İş Güvenliği Bareti</t>
+  </si>
+  <si>
     <t>Wreck It Ralph</t>
   </si>
   <si>
@@ -4657,12 +5923,21 @@
     <t>Xenoblade Chronicles</t>
   </si>
   <si>
+    <t>Xenoblade Günlükleri</t>
+  </si>
+  <si>
     <t>Yandere Simulator</t>
   </si>
   <si>
+    <t>Yandere Simülatörü</t>
+  </si>
+  <si>
     <t>Yellow Submarine</t>
   </si>
   <si>
+    <t>Sarı Denizaltı</t>
+  </si>
+  <si>
     <t>Yokai</t>
   </si>
   <si>
@@ -4672,6 +5947,9 @@
     <t>Young</t>
   </si>
   <si>
+    <t>Genç</t>
+  </si>
+  <si>
     <t>Youtube</t>
   </si>
   <si>
@@ -4687,13 +5965,25 @@
     <t>Zero Wing</t>
   </si>
   <si>
+    <t>Sıfır Kanat</t>
+  </si>
+  <si>
     <t>Zodiac Sign</t>
   </si>
   <si>
+    <t>Zodyak Burcu</t>
+  </si>
+  <si>
     <t>Zombie</t>
   </si>
   <si>
+    <t>Zombi</t>
+  </si>
+  <si>
     <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>Zombi (Vanilya)</t>
   </si>
   <si>
     <t>Zootopia</t>
@@ -9220,3245 +10510,5192 @@
       <c r="A521" t="s">
         <v>911</v>
       </c>
+      <c r="B521" t="s">
+        <v>912</v>
+      </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
-        <v>912</v>
+        <v>913</v>
+      </c>
+      <c r="B522" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
-        <v>913</v>
+        <v>915</v>
+      </c>
+      <c r="B523" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>914</v>
+        <v>917</v>
+      </c>
+      <c r="B524" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" t="s">
-        <v>915</v>
+        <v>919</v>
+      </c>
+      <c r="B525" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
-        <v>916</v>
+        <v>921</v>
+      </c>
+      <c r="B526" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
-        <v>917</v>
+        <v>923</v>
+      </c>
+      <c r="B527" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
-        <v>918</v>
+        <v>925</v>
+      </c>
+      <c r="B528" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
-        <v>919</v>
+        <v>927</v>
+      </c>
+      <c r="B529" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" t="s">
-        <v>920</v>
+        <v>929</v>
+      </c>
+      <c r="B530" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>921</v>
+        <v>930</v>
+      </c>
+      <c r="B531" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" t="s">
-        <v>922</v>
+        <v>932</v>
+      </c>
+      <c r="B532" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" t="s">
-        <v>923</v>
+        <v>934</v>
+      </c>
+      <c r="B533" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>924</v>
+        <v>935</v>
+      </c>
+      <c r="B534" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>925</v>
+        <v>936</v>
+      </c>
+      <c r="B535" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
-        <v>926</v>
+        <v>938</v>
+      </c>
+      <c r="B536" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>927</v>
+        <v>940</v>
+      </c>
+      <c r="B537" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>928</v>
+        <v>941</v>
+      </c>
+      <c r="B538" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>929</v>
+        <v>942</v>
+      </c>
+      <c r="B539" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>930</v>
+        <v>943</v>
+      </c>
+      <c r="B540" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>931</v>
+        <v>945</v>
+      </c>
+      <c r="B541" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>932</v>
+        <v>947</v>
+      </c>
+      <c r="B542" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>933</v>
+        <v>949</v>
+      </c>
+      <c r="B543" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>934</v>
+        <v>951</v>
+      </c>
+      <c r="B544" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>935</v>
+        <v>952</v>
+      </c>
+      <c r="B545" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>936</v>
+        <v>953</v>
+      </c>
+      <c r="B546" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" t="s">
-        <v>937</v>
+        <v>955</v>
+      </c>
+      <c r="B547" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>938</v>
+        <v>957</v>
+      </c>
+      <c r="B548" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>939</v>
+        <v>959</v>
+      </c>
+      <c r="B549" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>940</v>
+        <v>960</v>
+      </c>
+      <c r="B550" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>941</v>
+        <v>962</v>
+      </c>
+      <c r="B551" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>942</v>
+        <v>963</v>
+      </c>
+      <c r="B552" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>943</v>
+        <v>964</v>
+      </c>
+      <c r="B553" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>944</v>
+        <v>965</v>
+      </c>
+      <c r="B554" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>945</v>
+        <v>967</v>
+      </c>
+      <c r="B555" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" t="s">
-        <v>946</v>
+        <v>969</v>
+      </c>
+      <c r="B556" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" t="s">
-        <v>947</v>
+        <v>971</v>
+      </c>
+      <c r="B557" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" t="s">
-        <v>948</v>
+        <v>973</v>
+      </c>
+      <c r="B558" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" t="s">
-        <v>949</v>
+        <v>975</v>
+      </c>
+      <c r="B559" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" t="s">
-        <v>950</v>
+        <v>977</v>
+      </c>
+      <c r="B560" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" t="s">
-        <v>951</v>
+        <v>979</v>
+      </c>
+      <c r="B561" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>952</v>
+        <v>980</v>
+      </c>
+      <c r="B562" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>953</v>
+        <v>981</v>
+      </c>
+      <c r="B563" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>954</v>
+        <v>983</v>
+      </c>
+      <c r="B564" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" t="s">
-        <v>955</v>
+        <v>985</v>
+      </c>
+      <c r="B565" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" t="s">
-        <v>956</v>
+        <v>987</v>
+      </c>
+      <c r="B566" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>957</v>
+        <v>988</v>
+      </c>
+      <c r="B567" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" t="s">
-        <v>958</v>
+        <v>990</v>
+      </c>
+      <c r="B568" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" t="s">
-        <v>959</v>
+        <v>992</v>
+      </c>
+      <c r="B569" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>960</v>
+        <v>993</v>
+      </c>
+      <c r="B570" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" t="s">
-        <v>961</v>
+        <v>995</v>
+      </c>
+      <c r="B571" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" t="s">
-        <v>962</v>
+        <v>997</v>
+      </c>
+      <c r="B572" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>963</v>
+        <v>999</v>
+      </c>
+      <c r="B573" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>964</v>
+        <v>1000</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>965</v>
+        <v>1002</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>966</v>
+        <v>1003</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>967</v>
+        <v>1004</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>968</v>
+        <v>1005</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" t="s">
-        <v>969</v>
+        <v>1007</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" t="s">
-        <v>970</v>
+        <v>1009</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>971</v>
+        <v>1010</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>972</v>
+        <v>1012</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>973</v>
+        <v>1013</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>974</v>
+        <v>1014</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>975</v>
+        <v>1016</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>976</v>
+        <v>1017</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>977</v>
+        <v>1018</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>978</v>
+        <v>1020</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
-        <v>979</v>
+        <v>1022</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>980</v>
+        <v>1023</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>981</v>
+        <v>1025</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>982</v>
+        <v>1026</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>983</v>
+        <v>1028</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>984</v>
+        <v>1030</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
-        <v>985</v>
+        <v>1032</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" t="s">
-        <v>986</v>
+        <v>1034</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" t="s">
-        <v>987</v>
+        <v>1036</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" t="s">
-        <v>988</v>
+        <v>1038</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" t="s">
-        <v>989</v>
+        <v>1040</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" t="s">
-        <v>990</v>
+        <v>1042</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>991</v>
+        <v>1043</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>992</v>
+        <v>1044</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>993</v>
+        <v>1046</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>994</v>
+        <v>1047</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>995</v>
+        <v>1048</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>996</v>
+        <v>1050</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" t="s">
-        <v>997</v>
+        <v>1052</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" t="s">
-        <v>998</v>
+        <v>1054</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" t="s">
-        <v>999</v>
+        <v>1056</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>1000</v>
+        <v>1058</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1001</v>
+        <v>1059</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1002</v>
+        <v>1061</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>1003</v>
+        <v>1063</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>1004</v>
+        <v>1065</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>1005</v>
+        <v>1067</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" t="s">
-        <v>1006</v>
+        <v>1069</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>1007</v>
+        <v>1071</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>1008</v>
+        <v>1073</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
-        <v>1009</v>
+        <v>1075</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>1010</v>
+        <v>1077</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>1011</v>
+        <v>1079</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" t="s">
-        <v>1012</v>
+        <v>1081</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1013</v>
+        <v>1082</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1014</v>
+        <v>1083</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1015</v>
+        <v>1084</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>1016</v>
+        <v>1086</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>1017</v>
+        <v>1088</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1018</v>
+        <v>1089</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1019</v>
+        <v>1091</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1020</v>
+        <v>1092</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1021</v>
+        <v>1093</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1022</v>
+        <v>1095</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1023</v>
+        <v>1096</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1024</v>
+        <v>1097</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1025</v>
+        <v>1098</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1026</v>
+        <v>1099</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1027</v>
+        <v>1100</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1028</v>
+        <v>1101</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>1029</v>
+        <v>1103</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1030</v>
+        <v>1104</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1031</v>
+        <v>1105</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1032</v>
+        <v>1106</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1033</v>
+        <v>1107</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>1034</v>
+        <v>1109</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" t="s">
-        <v>1035</v>
+        <v>1111</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" t="s">
-        <v>1036</v>
+        <v>1113</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" t="s">
-        <v>1037</v>
+        <v>1115</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1038</v>
+        <v>1116</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1039</v>
+        <v>1117</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1040</v>
+        <v>1118</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>1041</v>
+        <v>1120</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1042</v>
+        <v>1121</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>1043</v>
+        <v>1123</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" t="s">
-        <v>1044</v>
+        <v>1125</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>1045</v>
+        <v>1126</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1046</v>
+        <v>1127</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>1047</v>
+        <v>1129</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" t="s">
-        <v>1048</v>
+        <v>1131</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>1049</v>
+        <v>1133</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" t="s">
-        <v>1050</v>
+        <v>1135</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" t="s">
-        <v>1051</v>
+        <v>1137</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" t="s">
-        <v>1052</v>
+        <v>1139</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>1053</v>
+        <v>1141</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>1054</v>
+        <v>1143</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1055</v>
+        <v>1144</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1056</v>
+        <v>1145</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>1057</v>
+        <v>1147</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>1058</v>
+        <v>1148</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1149</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>1059</v>
+        <v>1150</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1151</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" t="s">
-        <v>1060</v>
+        <v>1152</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1061</v>
+        <v>1154</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>1062</v>
+        <v>1156</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" t="s">
-        <v>1063</v>
+        <v>1158</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1064</v>
+        <v>1160</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1065</v>
+        <v>1161</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1066</v>
+        <v>1163</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1067</v>
+        <v>1164</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>1068</v>
+        <v>1166</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" t="s">
-        <v>1069</v>
+        <v>1168</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" t="s">
-        <v>1070</v>
+        <v>1170</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1071</v>
+        <v>1171</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1072</v>
+        <v>1172</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>1073</v>
+        <v>1174</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" t="s">
-        <v>1074</v>
+        <v>1176</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" t="s">
-        <v>1075</v>
+        <v>1178</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" t="s">
-        <v>1076</v>
+        <v>1180</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" t="s">
-        <v>1077</v>
+        <v>1182</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" t="s">
-        <v>1078</v>
+        <v>1184</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" t="s">
-        <v>1079</v>
+        <v>1186</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1080</v>
+        <v>1187</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>1081</v>
+        <v>1189</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" t="s">
-        <v>1082</v>
+        <v>1191</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1083</v>
+        <v>1192</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>1084</v>
+        <v>1194</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" t="s">
-        <v>1085</v>
+        <v>1196</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" t="s">
-        <v>1086</v>
+        <v>1198</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" t="s">
-        <v>1087</v>
+        <v>1200</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" t="s">
-        <v>1088</v>
+        <v>1202</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1089</v>
+        <v>1203</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1204</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1090</v>
+        <v>1205</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1205</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1091</v>
+        <v>1206</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1092</v>
+        <v>1207</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1208</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>1093</v>
+        <v>1209</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1209</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1094</v>
+        <v>1210</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1095</v>
+        <v>1211</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1096</v>
+        <v>1212</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1097</v>
+        <v>1213</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1098</v>
+        <v>1214</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1214</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1099</v>
+        <v>1215</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1100</v>
+        <v>1216</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1101</v>
+        <v>1218</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1218</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>1102</v>
+        <v>1219</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1220</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" t="s">
-        <v>1103</v>
+        <v>1221</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" t="s">
-        <v>1104</v>
+        <v>1223</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>1105</v>
+        <v>1225</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" t="s">
-        <v>1106</v>
+        <v>1227</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" t="s">
-        <v>1107</v>
+        <v>1229</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>1108</v>
+        <v>1231</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" t="s">
-        <v>1109</v>
+        <v>1233</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1234</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>1110</v>
+        <v>1235</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1236</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
-        <v>1111</v>
+        <v>1237</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" t="s">
-        <v>1112</v>
+        <v>1239</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1240</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" t="s">
-        <v>1113</v>
+        <v>1241</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1114</v>
+        <v>1243</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" t="s">
-        <v>1115</v>
+        <v>1245</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1246</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" t="s">
-        <v>1116</v>
+        <v>1247</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1248</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1117</v>
+        <v>1249</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1250</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>1118</v>
+        <v>1251</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" t="s">
-        <v>1119</v>
+        <v>1253</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1253</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1120</v>
+        <v>1254</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>1121</v>
+        <v>1256</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1257</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" t="s">
-        <v>1122</v>
+        <v>1258</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" t="s">
-        <v>1123</v>
+        <v>1260</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1261</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1124</v>
+        <v>1262</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1125</v>
+        <v>1264</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1264</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1126</v>
+        <v>1265</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1265</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1127</v>
+        <v>1266</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1128</v>
+        <v>1268</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1269</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1129</v>
+        <v>1270</v>
+      </c>
+      <c r="B739" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1130</v>
+        <v>1271</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1271</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1131</v>
+        <v>1272</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1273</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1132</v>
+        <v>1274</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1133</v>
+        <v>1275</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1134</v>
+        <v>1276</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1276</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1135</v>
+        <v>1277</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1277</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1136</v>
+        <v>1278</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1137</v>
+        <v>1280</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
-        <v>1138</v>
+        <v>1282</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" t="s">
-        <v>1139</v>
+        <v>1284</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1285</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" t="s">
-        <v>1140</v>
+        <v>1286</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1287</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" t="s">
-        <v>1141</v>
+        <v>1288</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1289</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" t="s">
-        <v>1142</v>
+        <v>1290</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1291</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" t="s">
-        <v>1143</v>
+        <v>1292</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1293</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>1144</v>
+        <v>1294</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1295</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1145</v>
+        <v>1296</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>1146</v>
+        <v>1298</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1299</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>1147</v>
+        <v>1300</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1148</v>
+        <v>1301</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1302</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1149</v>
+        <v>1303</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1303</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1150</v>
+        <v>1304</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1151</v>
+        <v>1305</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1306</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1152</v>
+        <v>1307</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1153</v>
+        <v>1309</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1310</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" t="s">
-        <v>1154</v>
+        <v>1311</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" t="s">
-        <v>1155</v>
+        <v>1313</v>
+      </c>
+      <c r="B765" t="s">
+        <v>1314</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" t="s">
-        <v>1156</v>
+        <v>1315</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1315</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1157</v>
+        <v>1316</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1317</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>1158</v>
+        <v>1318</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1319</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>1159</v>
+        <v>1320</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1321</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
-        <v>1160</v>
+        <v>1322</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1323</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>1161</v>
+        <v>1324</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1324</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1162</v>
+        <v>1325</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1163</v>
+        <v>1327</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>1164</v>
+        <v>1329</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1330</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
-        <v>1165</v>
+        <v>1331</v>
+      </c>
+      <c r="B775" t="s">
+        <v>1332</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
-        <v>1166</v>
+        <v>1333</v>
+      </c>
+      <c r="B776" t="s">
+        <v>1334</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
-        <v>1167</v>
+        <v>1335</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1336</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" t="s">
-        <v>1168</v>
+        <v>1337</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1338</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" t="s">
-        <v>1169</v>
+        <v>1339</v>
+      </c>
+      <c r="B779" t="s">
+        <v>1340</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" t="s">
-        <v>1170</v>
+        <v>1341</v>
+      </c>
+      <c r="B780" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1171</v>
+        <v>1342</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1342</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1172</v>
+        <v>1343</v>
+      </c>
+      <c r="B782" t="s">
+        <v>1344</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1173</v>
+        <v>1345</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1346</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1174</v>
+        <v>1347</v>
+      </c>
+      <c r="B784" t="s">
+        <v>1348</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>1175</v>
+        <v>1349</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1349</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1176</v>
+        <v>1350</v>
+      </c>
+      <c r="B786" t="s">
+        <v>1351</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1177</v>
+        <v>1352</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1352</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1178</v>
+        <v>1353</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1353</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1179</v>
+        <v>1354</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1180</v>
+        <v>1356</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1356</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1181</v>
+        <v>1357</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1182</v>
+        <v>1358</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1358</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1183</v>
+        <v>1359</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1359</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1184</v>
+        <v>1360</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1361</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1185</v>
+        <v>1362</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1363</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1186</v>
+        <v>1364</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1365</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1187</v>
+        <v>1366</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1367</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1188</v>
+        <v>1368</v>
+      </c>
+      <c r="B798" t="s">
+        <v>1369</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
-        <v>1189</v>
+        <v>1370</v>
+      </c>
+      <c r="B799" t="s">
+        <v>1371</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" t="s">
-        <v>1190</v>
+        <v>1372</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1373</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" t="s">
-        <v>1191</v>
+        <v>1374</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1375</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" t="s">
-        <v>1192</v>
+        <v>1376</v>
+      </c>
+      <c r="B802" t="s">
+        <v>1377</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" t="s">
-        <v>1193</v>
+        <v>1378</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1378</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>1194</v>
+        <v>1379</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1379</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1195</v>
+        <v>1380</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1380</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1196</v>
+        <v>1381</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1382</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1197</v>
+        <v>1383</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1384</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1198</v>
+        <v>1385</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1386</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>1199</v>
+        <v>1387</v>
+      </c>
+      <c r="B809" t="s">
+        <v>1388</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" t="s">
-        <v>1200</v>
+        <v>1389</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1390</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" t="s">
-        <v>1201</v>
+        <v>1391</v>
+      </c>
+      <c r="B811" t="s">
+        <v>1392</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
-        <v>1202</v>
+        <v>1393</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1394</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>1203</v>
+        <v>1395</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1396</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1204</v>
+        <v>1397</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1398</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>1205</v>
+        <v>1399</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1400</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>1206</v>
+        <v>1401</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1207</v>
+        <v>1402</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1403</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1208</v>
+        <v>1404</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1404</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1209</v>
+        <v>1405</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1406</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1210</v>
+        <v>1407</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1407</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1211</v>
+        <v>1408</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1409</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1212</v>
+        <v>1410</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1410</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1213</v>
+        <v>1411</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1412</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1214</v>
+        <v>1413</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1413</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1215</v>
+        <v>1414</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1415</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1216</v>
+        <v>1416</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1416</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1217</v>
+        <v>1417</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1418</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1218</v>
+        <v>1419</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1419</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1219</v>
+        <v>1420</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1421</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1220</v>
+        <v>1422</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1422</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1221</v>
+        <v>1423</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1423</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1222</v>
+        <v>1424</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1425</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1223</v>
+        <v>1426</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1427</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1224</v>
+        <v>1428</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1429</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
-        <v>1225</v>
+        <v>1430</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
-        <v>1226</v>
+        <v>1432</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1433</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>1227</v>
+        <v>1434</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1435</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
-        <v>1228</v>
+        <v>1436</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1437</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>1229</v>
+        <v>1438</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1438</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1230</v>
+        <v>1439</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1439</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1231</v>
+        <v>1440</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1232</v>
+        <v>1441</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1441</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1233</v>
+        <v>1442</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1234</v>
+        <v>1444</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1445</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1235</v>
+        <v>1446</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1447</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
-        <v>1236</v>
+        <v>1448</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1449</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
-        <v>1237</v>
+        <v>1450</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1451</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
-        <v>1238</v>
+        <v>1452</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1453</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
-        <v>1239</v>
+        <v>1454</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1455</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
-        <v>1240</v>
+        <v>1456</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1457</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
-        <v>1241</v>
+        <v>1458</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1459</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
-        <v>1242</v>
+        <v>1460</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1461</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
-        <v>1243</v>
+        <v>1462</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1463</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" t="s">
-        <v>1244</v>
+        <v>1464</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1465</v>
       </c>
     </row>
     <row r="855" spans="1:2">
       <c r="A855" t="s">
-        <v>1245</v>
+        <v>1466</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1467</v>
       </c>
     </row>
     <row r="856" spans="1:2">
       <c r="A856" t="s">
-        <v>1246</v>
+        <v>1468</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1468</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1247</v>
+        <v>1469</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1469</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1248</v>
+        <v>1470</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1470</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1249</v>
+        <v>1471</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1471</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1250</v>
+        <v>1472</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1473</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1251</v>
+        <v>1474</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1474</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1252</v>
+        <v>1475</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1475</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1253</v>
+        <v>1476</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1477</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1254</v>
+        <v>1478</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1255</v>
+        <v>1479</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1256</v>
+        <v>1481</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1482</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1257</v>
+        <v>1483</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1258</v>
+        <v>1485</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1486</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
-        <v>1259</v>
+        <v>1487</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1488</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>1260</v>
+        <v>1489</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1490</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
-        <v>1261</v>
+        <v>1491</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1491</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>1262</v>
+        <v>1492</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1493</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" t="s">
-        <v>1263</v>
+        <v>1494</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" t="s">
-        <v>1264</v>
+        <v>1496</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1497</v>
       </c>
     </row>
     <row r="875" spans="1:2">
       <c r="A875" t="s">
-        <v>1265</v>
+        <v>1498</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1498</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>1266</v>
+        <v>1499</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1499</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1267</v>
+        <v>1500</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1501</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1268</v>
+        <v>1502</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1503</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1269</v>
+        <v>1504</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1505</v>
       </c>
     </row>
     <row r="880" spans="1:2">
       <c r="A880" t="s">
-        <v>1270</v>
+        <v>1506</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1506</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1271</v>
+        <v>1507</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1507</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1272</v>
+        <v>1508</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1509</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1273</v>
+        <v>1510</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1511</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1274</v>
+        <v>1512</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1513</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1275</v>
+        <v>1514</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1276</v>
+        <v>1515</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1516</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1277</v>
+        <v>1517</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1517</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1278</v>
+        <v>1518</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1519</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1279</v>
+        <v>1520</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1520</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1280</v>
+        <v>1521</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1521</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1281</v>
+        <v>1522</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1523</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1282</v>
+        <v>1524</v>
+      </c>
+      <c r="B892" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>1283</v>
+        <v>1525</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1526</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>1284</v>
+        <v>1527</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1527</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1285</v>
+        <v>1528</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1286</v>
+        <v>1530</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1531</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1287</v>
+        <v>1532</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1533</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" t="s">
-        <v>1288</v>
+        <v>1534</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="899" spans="1:2">
       <c r="A899" t="s">
-        <v>1289</v>
+        <v>1536</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1537</v>
       </c>
     </row>
     <row r="900" spans="1:2">
       <c r="A900" t="s">
-        <v>1290</v>
+        <v>1538</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1539</v>
       </c>
     </row>
     <row r="901" spans="1:2">
       <c r="A901" t="s">
-        <v>1291</v>
+        <v>1540</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1540</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1292</v>
+        <v>1541</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1541</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1293</v>
+        <v>1542</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1542</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1294</v>
+        <v>1543</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1543</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1295</v>
+        <v>1544</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1544</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1296</v>
+        <v>1545</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1545</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1297</v>
+        <v>1546</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1546</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1298</v>
+        <v>1547</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1548</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1299</v>
+        <v>1549</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
-        <v>1300</v>
+        <v>1551</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="911" spans="1:2">
       <c r="A911" t="s">
-        <v>1301</v>
+        <v>1553</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1553</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>1302</v>
+        <v>1554</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1554</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1303</v>
+        <v>1555</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1555</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1304</v>
+        <v>1556</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1305</v>
+        <v>1558</v>
+      </c>
+      <c r="B915" t="s">
+        <v>1559</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1306</v>
+        <v>1560</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1561</v>
       </c>
     </row>
     <row r="917" spans="1:2">
       <c r="A917" t="s">
-        <v>1307</v>
+        <v>1562</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1563</v>
       </c>
     </row>
     <row r="918" spans="1:2">
       <c r="A918" t="s">
-        <v>1308</v>
+        <v>1564</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1565</v>
       </c>
     </row>
     <row r="919" spans="1:2">
       <c r="A919" t="s">
-        <v>1309</v>
+        <v>1566</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1567</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1310</v>
+        <v>1568</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1568</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1311</v>
+        <v>1569</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1570</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1312</v>
+        <v>1571</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1572</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>1313</v>
+        <v>1573</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1574</v>
       </c>
     </row>
     <row r="924" spans="1:2">
       <c r="A924" t="s">
-        <v>1314</v>
+        <v>1575</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1576</v>
       </c>
     </row>
     <row r="925" spans="1:2">
       <c r="A925" t="s">
-        <v>1315</v>
+        <v>1577</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1577</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1316</v>
+        <v>1578</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1579</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1317</v>
+        <v>1580</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1581</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1318</v>
+        <v>1582</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1582</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1319</v>
+        <v>1583</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1584</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1320</v>
+        <v>1585</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1586</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1321</v>
+        <v>1587</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1588</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1322</v>
+        <v>1589</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
-        <v>1323</v>
+        <v>1591</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1592</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
-        <v>1324</v>
+        <v>1593</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1594</v>
       </c>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" t="s">
-        <v>1325</v>
+        <v>1595</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1596</v>
       </c>
     </row>
     <row r="936" spans="1:2">
       <c r="A936" t="s">
-        <v>1326</v>
+        <v>1597</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1598</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
-        <v>1327</v>
+        <v>1599</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1599</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1328</v>
+        <v>1600</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1600</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1329</v>
+        <v>1601</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1330</v>
+        <v>1602</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1603</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1331</v>
+        <v>1604</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1332</v>
+        <v>1606</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1607</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1333</v>
+        <v>1608</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1608</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1334</v>
+        <v>1609</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1609</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1335</v>
+        <v>1610</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1611</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1336</v>
+        <v>1612</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1612</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1337</v>
+        <v>1613</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1338</v>
+        <v>1615</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1616</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1339</v>
+        <v>1617</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1618</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1340</v>
+        <v>1619</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
-        <v>1341</v>
+        <v>1621</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1622</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" t="s">
-        <v>1342</v>
+        <v>1623</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1623</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1343</v>
+        <v>1624</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1624</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1344</v>
+        <v>1625</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1626</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1345</v>
+        <v>1627</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1628</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1346</v>
+        <v>1629</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1630</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>1347</v>
+        <v>1631</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1632</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" t="s">
-        <v>1348</v>
+        <v>1633</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
-        <v>1349</v>
+        <v>1635</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1636</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
-        <v>1350</v>
+        <v>1637</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1637</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1351</v>
+        <v>1638</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1638</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1352</v>
+        <v>1639</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1639</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1353</v>
+        <v>1640</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1641</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1354</v>
+        <v>1642</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1643</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1355</v>
+        <v>1644</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1645</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1356</v>
+        <v>1646</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1647</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
-        <v>1357</v>
+        <v>1648</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1649</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
-        <v>1358</v>
+        <v>1650</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1651</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
-        <v>1359</v>
+        <v>1652</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1653</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" t="s">
-        <v>1360</v>
+        <v>1654</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1654</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
-        <v>1361</v>
+        <v>1655</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1656</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
-        <v>1362</v>
+        <v>1657</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1657</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1363</v>
+        <v>1658</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1659</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1364</v>
+        <v>1660</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1661</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>1365</v>
+        <v>1662</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1662</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1366</v>
+        <v>1663</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1663</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1367</v>
+        <v>1664</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1665</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1368</v>
+        <v>1666</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1667</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1369</v>
+        <v>1668</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1669</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1370</v>
+        <v>1670</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1371</v>
+        <v>1672</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1672</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1372</v>
+        <v>1673</v>
+      </c>
+      <c r="B982" t="s">
+        <v>1673</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1373</v>
+        <v>1674</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1675</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1374</v>
+        <v>1676</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1677</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1375</v>
+        <v>1678</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1677</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1376</v>
+        <v>1679</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1680</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1377</v>
+        <v>1681</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1682</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1378</v>
+        <v>1683</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1684</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
-        <v>1379</v>
+        <v>1685</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1685</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1380</v>
+        <v>1686</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1687</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1381</v>
+        <v>1688</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1689</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>1382</v>
+        <v>1690</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1690</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1383</v>
+        <v>1691</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1384</v>
+        <v>1693</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1693</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1385</v>
+        <v>1694</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1695</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1386</v>
+        <v>1696</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1697</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1387</v>
+        <v>1698</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1699</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
-        <v>1388</v>
+        <v>1700</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1701</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
-        <v>1389</v>
+        <v>1702</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1702</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1390</v>
+        <v>1703</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1703</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1391</v>
+        <v>1704</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>1705</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1392</v>
+        <v>1706</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1707</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1393</v>
+        <v>1708</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1709</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1394</v>
+        <v>1710</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1395</v>
+        <v>1711</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1711</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1396</v>
+        <v>1712</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1712</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1397</v>
+        <v>1713</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1713</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1398</v>
+        <v>1714</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1715</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1399</v>
+        <v>1716</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1717</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1400</v>
+        <v>1718</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>1718</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1401</v>
+        <v>1719</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>1720</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1402</v>
+        <v>1721</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>1721</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1403</v>
+        <v>1722</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>1722</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1404</v>
+        <v>1723</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1724</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1405</v>
+        <v>1725</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>1726</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1406</v>
+        <v>1727</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1407</v>
+        <v>1729</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>1730</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1408</v>
+        <v>1731</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>1732</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
-        <v>1409</v>
+        <v>1733</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>1734</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
-        <v>1410</v>
+        <v>1735</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>1736</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1411</v>
+        <v>1737</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>1738</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1412</v>
+        <v>1739</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>1740</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1413</v>
+        <v>1741</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1414</v>
+        <v>1742</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>1743</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1415</v>
+        <v>1744</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>1745</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1416</v>
+        <v>1746</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>1747</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1417</v>
+        <v>1748</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1748</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1418</v>
+        <v>1749</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>1749</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1419</v>
+        <v>1750</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1750</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1420</v>
+        <v>1751</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1751</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1421</v>
+        <v>1752</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1753</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1422</v>
+        <v>1754</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1755</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1423</v>
+        <v>1756</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>1756</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1424</v>
+        <v>1757</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>1758</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1425</v>
+        <v>1759</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1760</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1426</v>
+        <v>1761</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>1762</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1427</v>
+        <v>1763</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>1763</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
-        <v>1428</v>
+        <v>1764</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>1765</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
-        <v>1429</v>
+        <v>1766</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1767</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
-        <v>1430</v>
+        <v>1768</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>1768</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1431</v>
+        <v>1769</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1770</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>1432</v>
+        <v>1771</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>1772</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
-        <v>1433</v>
+        <v>1773</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>1773</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1434</v>
+        <v>1774</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>1775</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1435</v>
+        <v>1776</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1777</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1436</v>
+        <v>1778</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1779</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1437</v>
+        <v>1780</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>1781</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1438</v>
+        <v>1782</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1783</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
-        <v>1439</v>
+        <v>1784</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>1785</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
-        <v>1440</v>
+        <v>1786</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>1787</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
-        <v>1441</v>
+        <v>1788</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>1789</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
-        <v>1442</v>
+        <v>1790</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1791</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
-        <v>1443</v>
+        <v>1792</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1793</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" t="s">
-        <v>1444</v>
+        <v>1794</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>1795</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" t="s">
-        <v>1445</v>
+        <v>1796</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>1796</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
-        <v>1446</v>
+        <v>1797</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>1798</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
-        <v>1447</v>
+        <v>1799</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1800</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
-        <v>1448</v>
+        <v>1801</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>1802</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1449</v>
+        <v>1803</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1804</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1450</v>
+        <v>1805</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1806</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
-        <v>1451</v>
+        <v>1807</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1808</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
-        <v>1452</v>
+        <v>1809</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>1810</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
-        <v>1453</v>
+        <v>1811</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1812</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
-        <v>1454</v>
+        <v>1813</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>1814</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
-        <v>1455</v>
+        <v>1815</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1816</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
-        <v>1456</v>
+        <v>1817</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>1818</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
-        <v>1457</v>
+        <v>1819</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>1820</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>1458</v>
+        <v>1821</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>1821</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1459</v>
+        <v>1822</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1823</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1460</v>
+        <v>1824</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>1824</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1461</v>
+        <v>1825</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>1825</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1462</v>
+        <v>1826</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>1826</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1463</v>
+        <v>1827</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1828</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1464</v>
+        <v>1829</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>1829</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1465</v>
+        <v>1830</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>1831</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1466</v>
+        <v>1832</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1467</v>
+        <v>1834</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>1834</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1468</v>
+        <v>1835</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>1836</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1469</v>
+        <v>1837</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>1838</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1470</v>
+        <v>1839</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>1840</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1471</v>
+        <v>1841</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>1842</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1472</v>
+        <v>1843</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>1844</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1473</v>
+        <v>1845</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>1846</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
-        <v>1474</v>
+        <v>1847</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>1848</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
-        <v>1475</v>
+        <v>1849</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>1850</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
-        <v>1476</v>
+        <v>1851</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>1851</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
-        <v>1477</v>
+        <v>1852</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>1852</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1478</v>
+        <v>1853</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>1854</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1479</v>
+        <v>1855</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1480</v>
+        <v>1857</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>1858</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1481</v>
+        <v>1859</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>1860</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1482</v>
+        <v>1861</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>1862</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" t="s">
-        <v>1483</v>
+        <v>1863</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>1863</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1484</v>
+        <v>1864</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>1865</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1485</v>
+        <v>1866</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>1867</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1486</v>
+        <v>1868</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>1868</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1487</v>
+        <v>1869</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>1870</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1488</v>
+        <v>1871</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>1871</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1489</v>
+        <v>1872</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>1872</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1490</v>
+        <v>1873</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>1874</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1491</v>
+        <v>1875</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>1876</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1492</v>
+        <v>1877</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>1878</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1493</v>
+        <v>1879</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>1880</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1494</v>
+        <v>1881</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>1881</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1495</v>
+        <v>1882</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>1883</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1496</v>
+        <v>1884</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>1884</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1497</v>
+        <v>1885</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>1886</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1498</v>
+        <v>1887</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>1888</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1499</v>
+        <v>1889</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>1890</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1500</v>
+        <v>1891</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>1892</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
-        <v>1501</v>
+        <v>1893</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>1894</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1502</v>
+        <v>1895</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>1896</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
-        <v>1503</v>
+        <v>1897</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>1898</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
-        <v>1504</v>
+        <v>1899</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>1900</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
-        <v>1505</v>
+        <v>1901</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>1902</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1506</v>
+        <v>1903</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>1904</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
-        <v>1507</v>
+        <v>1905</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>1906</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
-        <v>1508</v>
+        <v>1907</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>1908</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
-        <v>1509</v>
+        <v>1909</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>1910</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
-        <v>1510</v>
+        <v>1911</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>1912</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
-        <v>1511</v>
+        <v>1913</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>1914</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
-        <v>1512</v>
+        <v>1915</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>1916</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
-        <v>1513</v>
+        <v>1917</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>1918</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
-        <v>1514</v>
+        <v>1919</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>1920</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
-        <v>1515</v>
+        <v>1921</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>1922</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
-        <v>1516</v>
+        <v>1923</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>1923</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1517</v>
+        <v>1924</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>1924</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1518</v>
+        <v>1925</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>1925</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1519</v>
+        <v>1926</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>1927</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1520</v>
+        <v>1928</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>1928</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1521</v>
+        <v>1929</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>1930</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1522</v>
+        <v>1931</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>1932</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1523</v>
+        <v>1933</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>1933</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1524</v>
+        <v>1934</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>1934</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1525</v>
+        <v>1935</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>1935</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1526</v>
+        <v>1936</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>1937</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1527</v>
+        <v>1938</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>1939</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1528</v>
+        <v>1940</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>1940</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1529</v>
+        <v>1941</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>1942</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1530</v>
+        <v>1943</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>1944</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1531</v>
+        <v>1945</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>1946</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
-        <v>1532</v>
+        <v>1947</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>1948</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
-        <v>1533</v>
+        <v>1949</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>1950</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
-        <v>1534</v>
+        <v>1951</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>1951</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
-        <v>1535</v>
+        <v>1952</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>1953</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
-        <v>1536</v>
+        <v>1954</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>1954</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1537</v>
+        <v>1955</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>1956</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1538</v>
+        <v>1957</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>1958</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>1539</v>
+        <v>1959</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>1960</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1540</v>
+        <v>1961</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>1962</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
-        <v>1541</v>
+        <v>1963</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>1963</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1542</v>
+        <v>1964</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>1964</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1543</v>
+        <v>1965</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>1965</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1544</v>
+        <v>1966</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>1966</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1545</v>
+        <v>1967</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>1968</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1546</v>
+        <v>1969</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>1970</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1547</v>
+        <v>1971</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>1972</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1548</v>
+        <v>1973</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>1973</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1549</v>
+        <v>1974</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>1974</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1550</v>
+        <v>1975</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1551</v>
+        <v>1977</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>1977</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1552</v>
+        <v>1978</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>1978</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1553</v>
+        <v>1979</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>1979</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1554</v>
+        <v>1980</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>1980</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1555</v>
+        <v>1981</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>1982</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1556</v>
+        <v>1983</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>1984</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1557</v>
+        <v>1985</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>1986</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1558</v>
+        <v>1987</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>1988</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1559</v>
+        <v>1989</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>1989</v>
       </c>
     </row>
   </sheetData>

--- a/lang/tr/headTags.xlsx
+++ b/lang/tr/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1992">
   <si>
     <t>en</t>
   </si>
@@ -1610,6 +1610,12 @@
   </si>
   <si>
     <t>Patlayıcı</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Göz</t>
   </si>
   <si>
     <t>Eyepatch</t>
@@ -6333,7 +6339,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1169"/>
+  <dimension ref="A1:B1170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -8879,36 +8885,36 @@
         <v>535</v>
       </c>
       <c r="B317" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B318" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B319" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B320" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B321" t="s">
         <v>540</v>
@@ -8943,12 +8949,12 @@
         <v>547</v>
       </c>
       <c r="B325" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B326" t="s">
         <v>549</v>
@@ -8967,12 +8973,12 @@
         <v>552</v>
       </c>
       <c r="B328" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B329" t="s">
         <v>554</v>
@@ -9055,12 +9061,12 @@
         <v>573</v>
       </c>
       <c r="B339" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B340" t="s">
         <v>575</v>
@@ -9247,12 +9253,12 @@
         <v>620</v>
       </c>
       <c r="B363" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B364" t="s">
         <v>622</v>
@@ -9775,20 +9781,20 @@
         <v>751</v>
       </c>
       <c r="B429" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B430" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B431" t="s">
         <v>754</v>
@@ -9807,12 +9813,12 @@
         <v>757</v>
       </c>
       <c r="B433" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B434" t="s">
         <v>759</v>
@@ -9887,12 +9893,12 @@
         <v>776</v>
       </c>
       <c r="B443" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B444" t="s">
         <v>778</v>
@@ -9903,12 +9909,12 @@
         <v>779</v>
       </c>
       <c r="B445" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B446" t="s">
         <v>781</v>
@@ -9919,12 +9925,12 @@
         <v>782</v>
       </c>
       <c r="B447" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B448" t="s">
         <v>784</v>
@@ -9935,12 +9941,12 @@
         <v>785</v>
       </c>
       <c r="B449" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B450" t="s">
         <v>787</v>
@@ -9959,12 +9965,12 @@
         <v>790</v>
       </c>
       <c r="B452" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B453" t="s">
         <v>792</v>
@@ -10063,12 +10069,12 @@
         <v>815</v>
       </c>
       <c r="B465" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B466" t="s">
         <v>817</v>
@@ -10103,36 +10109,36 @@
         <v>824</v>
       </c>
       <c r="B470" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B471" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B472" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B473" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B474" t="s">
         <v>829</v>
@@ -10143,12 +10149,12 @@
         <v>830</v>
       </c>
       <c r="B475" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B476" t="s">
         <v>832</v>
@@ -10183,20 +10189,20 @@
         <v>839</v>
       </c>
       <c r="B480" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B481" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B482" t="s">
         <v>842</v>
@@ -10207,12 +10213,12 @@
         <v>843</v>
       </c>
       <c r="B483" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B484" t="s">
         <v>845</v>
@@ -10223,36 +10229,36 @@
         <v>846</v>
       </c>
       <c r="B485" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B486" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B487" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B488" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B489" t="s">
         <v>851</v>
@@ -10407,12 +10413,12 @@
         <v>888</v>
       </c>
       <c r="B508" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B509" t="s">
         <v>890</v>
@@ -10431,12 +10437,12 @@
         <v>893</v>
       </c>
       <c r="B511" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B512" t="s">
         <v>895</v>
@@ -10487,12 +10493,12 @@
         <v>906</v>
       </c>
       <c r="B518" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B519" t="s">
         <v>908</v>
@@ -10583,12 +10589,12 @@
         <v>929</v>
       </c>
       <c r="B530" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B531" t="s">
         <v>931</v>
@@ -10607,20 +10613,20 @@
         <v>934</v>
       </c>
       <c r="B533" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B534" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B535" t="s">
         <v>937</v>
@@ -10639,28 +10645,28 @@
         <v>940</v>
       </c>
       <c r="B537" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B538" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B539" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B540" t="s">
         <v>944</v>
@@ -10695,20 +10701,20 @@
         <v>951</v>
       </c>
       <c r="B544" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B545" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B546" t="s">
         <v>954</v>
@@ -10735,12 +10741,12 @@
         <v>959</v>
       </c>
       <c r="B549" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B550" t="s">
         <v>961</v>
@@ -10751,28 +10757,28 @@
         <v>962</v>
       </c>
       <c r="B551" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B552" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B553" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B554" t="s">
         <v>966</v>
@@ -10831,20 +10837,20 @@
         <v>979</v>
       </c>
       <c r="B561" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B562" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B563" t="s">
         <v>982</v>
@@ -10871,12 +10877,12 @@
         <v>987</v>
       </c>
       <c r="B566" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B567" t="s">
         <v>989</v>
@@ -10895,12 +10901,12 @@
         <v>992</v>
       </c>
       <c r="B569" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B570" t="s">
         <v>994</v>
@@ -10927,12 +10933,12 @@
         <v>999</v>
       </c>
       <c r="B573" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B574" t="s">
         <v>1001</v>
@@ -10943,28 +10949,28 @@
         <v>1002</v>
       </c>
       <c r="B575" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B576" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B577" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B578" t="s">
         <v>1006</v>
@@ -10983,12 +10989,12 @@
         <v>1009</v>
       </c>
       <c r="B580" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B581" t="s">
         <v>1011</v>
@@ -10999,20 +11005,20 @@
         <v>1012</v>
       </c>
       <c r="B582" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B583" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B584" t="s">
         <v>1015</v>
@@ -11023,20 +11029,20 @@
         <v>1016</v>
       </c>
       <c r="B585" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B586" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B587" t="s">
         <v>1019</v>
@@ -11055,12 +11061,12 @@
         <v>1022</v>
       </c>
       <c r="B589" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B590" t="s">
         <v>1024</v>
@@ -11071,12 +11077,12 @@
         <v>1025</v>
       </c>
       <c r="B591" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B592" t="s">
         <v>1027</v>
@@ -11143,20 +11149,20 @@
         <v>1042</v>
       </c>
       <c r="B600" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B601" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B602" t="s">
         <v>1045</v>
@@ -11167,20 +11173,20 @@
         <v>1046</v>
       </c>
       <c r="B603" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B604" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B605" t="s">
         <v>1049</v>
@@ -11223,12 +11229,12 @@
         <v>1058</v>
       </c>
       <c r="B610" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B611" t="s">
         <v>1060</v>
@@ -11319,28 +11325,28 @@
         <v>1081</v>
       </c>
       <c r="B622" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B623" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B624" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B625" t="s">
         <v>1085</v>
@@ -11359,12 +11365,12 @@
         <v>1088</v>
       </c>
       <c r="B627" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B628" t="s">
         <v>1090</v>
@@ -11375,20 +11381,20 @@
         <v>1091</v>
       </c>
       <c r="B629" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B630" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B631" t="s">
         <v>1094</v>
@@ -11399,52 +11405,52 @@
         <v>1095</v>
       </c>
       <c r="B632" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B633" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B634" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B635" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B636" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B637" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B638" t="s">
         <v>1102</v>
@@ -11455,36 +11461,36 @@
         <v>1103</v>
       </c>
       <c r="B639" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B640" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B641" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B642" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B643" t="s">
         <v>1108</v>
@@ -11519,28 +11525,28 @@
         <v>1115</v>
       </c>
       <c r="B647" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B648" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B649" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B650" t="s">
         <v>1119</v>
@@ -11551,12 +11557,12 @@
         <v>1120</v>
       </c>
       <c r="B651" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B652" t="s">
         <v>1122</v>
@@ -11575,20 +11581,20 @@
         <v>1125</v>
       </c>
       <c r="B654" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B655" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B656" t="s">
         <v>1128</v>
@@ -11655,20 +11661,20 @@
         <v>1143</v>
       </c>
       <c r="B664" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B665" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B666" t="s">
         <v>1146</v>
@@ -11679,12 +11685,12 @@
         <v>1147</v>
       </c>
       <c r="B667" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B668" t="s">
         <v>1149</v>
@@ -11735,12 +11741,12 @@
         <v>1160</v>
       </c>
       <c r="B674" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B675" t="s">
         <v>1162</v>
@@ -11751,12 +11757,12 @@
         <v>1163</v>
       </c>
       <c r="B676" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B677" t="s">
         <v>1165</v>
@@ -11783,20 +11789,20 @@
         <v>1170</v>
       </c>
       <c r="B680" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B681" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B682" t="s">
         <v>1173</v>
@@ -11855,12 +11861,12 @@
         <v>1186</v>
       </c>
       <c r="B689" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B690" t="s">
         <v>1188</v>
@@ -11879,12 +11885,12 @@
         <v>1191</v>
       </c>
       <c r="B692" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B693" t="s">
         <v>1193</v>
@@ -11927,12 +11933,12 @@
         <v>1202</v>
       </c>
       <c r="B698" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B699" t="s">
         <v>1204</v>
@@ -11943,20 +11949,20 @@
         <v>1205</v>
       </c>
       <c r="B700" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B701" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B702" t="s">
         <v>1208</v>
@@ -11967,60 +11973,60 @@
         <v>1209</v>
       </c>
       <c r="B703" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B704" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B705" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B706" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B707" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B708" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B709" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B710" t="s">
         <v>1217</v>
@@ -12031,12 +12037,12 @@
         <v>1218</v>
       </c>
       <c r="B711" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B712" t="s">
         <v>1220</v>
@@ -12175,12 +12181,12 @@
         <v>1253</v>
       </c>
       <c r="B729" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B730" t="s">
         <v>1255</v>
@@ -12223,20 +12229,20 @@
         <v>1264</v>
       </c>
       <c r="B735" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B736" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B737" t="s">
         <v>1267</v>
@@ -12255,20 +12261,20 @@
         <v>1270</v>
       </c>
       <c r="B739" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B740" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B741" t="s">
         <v>1273</v>
@@ -12279,36 +12285,36 @@
         <v>1274</v>
       </c>
       <c r="B742" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B743" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B744" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B745" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B746" t="s">
         <v>1279</v>
@@ -12399,12 +12405,12 @@
         <v>1300</v>
       </c>
       <c r="B757" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B758" t="s">
         <v>1302</v>
@@ -12415,20 +12421,20 @@
         <v>1303</v>
       </c>
       <c r="B759" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B760" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B761" t="s">
         <v>1306</v>
@@ -12471,12 +12477,12 @@
         <v>1315</v>
       </c>
       <c r="B766" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B767" t="s">
         <v>1317</v>
@@ -12511,12 +12517,12 @@
         <v>1324</v>
       </c>
       <c r="B771" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B772" t="s">
         <v>1326</v>
@@ -12583,20 +12589,20 @@
         <v>1341</v>
       </c>
       <c r="B780" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B781" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B782" t="s">
         <v>1344</v>
@@ -12623,12 +12629,12 @@
         <v>1349</v>
       </c>
       <c r="B785" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B786" t="s">
         <v>1351</v>
@@ -12639,20 +12645,20 @@
         <v>1352</v>
       </c>
       <c r="B787" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B788" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B789" t="s">
         <v>1355</v>
@@ -12663,36 +12669,36 @@
         <v>1356</v>
       </c>
       <c r="B790" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B791" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B792" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B793" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B794" t="s">
         <v>1361</v>
@@ -12767,28 +12773,28 @@
         <v>1378</v>
       </c>
       <c r="B803" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B804" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B805" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B806" t="s">
         <v>1382</v>
@@ -12871,12 +12877,12 @@
         <v>1401</v>
       </c>
       <c r="B816" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B817" t="s">
         <v>1403</v>
@@ -12887,12 +12893,12 @@
         <v>1404</v>
       </c>
       <c r="B818" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B819" t="s">
         <v>1406</v>
@@ -12903,12 +12909,12 @@
         <v>1407</v>
       </c>
       <c r="B820" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B821" t="s">
         <v>1409</v>
@@ -12919,12 +12925,12 @@
         <v>1410</v>
       </c>
       <c r="B822" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B823" t="s">
         <v>1412</v>
@@ -12935,12 +12941,12 @@
         <v>1413</v>
       </c>
       <c r="B824" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B825" t="s">
         <v>1415</v>
@@ -12951,12 +12957,12 @@
         <v>1416</v>
       </c>
       <c r="B826" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B827" t="s">
         <v>1418</v>
@@ -12967,12 +12973,12 @@
         <v>1419</v>
       </c>
       <c r="B828" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B829" t="s">
         <v>1421</v>
@@ -12983,20 +12989,20 @@
         <v>1422</v>
       </c>
       <c r="B830" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B831" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B832" t="s">
         <v>1425</v>
@@ -13055,36 +13061,36 @@
         <v>1438</v>
       </c>
       <c r="B839" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B840" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B841" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B842" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B843" t="s">
         <v>1443</v>
@@ -13191,36 +13197,36 @@
         <v>1468</v>
       </c>
       <c r="B856" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B857" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B858" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B859" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B860" t="s">
         <v>1473</v>
@@ -13231,20 +13237,20 @@
         <v>1474</v>
       </c>
       <c r="B861" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B862" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B863" t="s">
         <v>1477</v>
@@ -13255,12 +13261,12 @@
         <v>1478</v>
       </c>
       <c r="B864" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B865" t="s">
         <v>1480</v>
@@ -13311,12 +13317,12 @@
         <v>1491</v>
       </c>
       <c r="B871" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B872" t="s">
         <v>1493</v>
@@ -13343,20 +13349,20 @@
         <v>1498</v>
       </c>
       <c r="B875" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B876" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B877" t="s">
         <v>1501</v>
@@ -13383,20 +13389,20 @@
         <v>1506</v>
       </c>
       <c r="B880" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B881" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B882" t="s">
         <v>1509</v>
@@ -13423,12 +13429,12 @@
         <v>1514</v>
       </c>
       <c r="B885" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B886" t="s">
         <v>1516</v>
@@ -13439,12 +13445,12 @@
         <v>1517</v>
       </c>
       <c r="B887" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B888" t="s">
         <v>1519</v>
@@ -13455,20 +13461,20 @@
         <v>1520</v>
       </c>
       <c r="B889" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B890" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B891" t="s">
         <v>1523</v>
@@ -13479,15 +13485,15 @@
         <v>1524</v>
       </c>
       <c r="B892" t="s">
-        <v>354</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B893" t="s">
-        <v>1526</v>
+        <v>354</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -13495,12 +13501,12 @@
         <v>1527</v>
       </c>
       <c r="B894" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B895" t="s">
         <v>1529</v>
@@ -13551,60 +13557,60 @@
         <v>1540</v>
       </c>
       <c r="B901" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B902" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B903" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B904" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B905" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B906" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B907" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B908" t="s">
         <v>1548</v>
@@ -13631,28 +13637,28 @@
         <v>1553</v>
       </c>
       <c r="B911" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B912" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B913" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B914" t="s">
         <v>1557</v>
@@ -13703,12 +13709,12 @@
         <v>1568</v>
       </c>
       <c r="B920" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B921" t="s">
         <v>1570</v>
@@ -13743,12 +13749,12 @@
         <v>1577</v>
       </c>
       <c r="B925" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B926" t="s">
         <v>1579</v>
@@ -13767,12 +13773,12 @@
         <v>1582</v>
       </c>
       <c r="B928" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B929" t="s">
         <v>1584</v>
@@ -13839,28 +13845,28 @@
         <v>1599</v>
       </c>
       <c r="B937" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B938" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B939" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B940" t="s">
         <v>1603</v>
@@ -13887,20 +13893,20 @@
         <v>1608</v>
       </c>
       <c r="B943" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B944" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B945" t="s">
         <v>1611</v>
@@ -13911,12 +13917,12 @@
         <v>1612</v>
       </c>
       <c r="B946" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B947" t="s">
         <v>1614</v>
@@ -13959,20 +13965,20 @@
         <v>1623</v>
       </c>
       <c r="B952" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B953" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B954" t="s">
         <v>1626</v>
@@ -14023,28 +14029,28 @@
         <v>1637</v>
       </c>
       <c r="B960" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B961" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B962" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B963" t="s">
         <v>1641</v>
@@ -14103,12 +14109,12 @@
         <v>1654</v>
       </c>
       <c r="B970" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B971" t="s">
         <v>1656</v>
@@ -14119,12 +14125,12 @@
         <v>1657</v>
       </c>
       <c r="B972" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B973" t="s">
         <v>1659</v>
@@ -14143,20 +14149,20 @@
         <v>1662</v>
       </c>
       <c r="B975" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B976" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B977" t="s">
         <v>1665</v>
@@ -14191,20 +14197,20 @@
         <v>1672</v>
       </c>
       <c r="B981" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B982" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B983" t="s">
         <v>1675</v>
@@ -14223,15 +14229,15 @@
         <v>1678</v>
       </c>
       <c r="B985" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B986" t="s">
         <v>1679</v>
-      </c>
-      <c r="B986" t="s">
-        <v>1680</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -14255,12 +14261,12 @@
         <v>1685</v>
       </c>
       <c r="B989" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B990" t="s">
         <v>1687</v>
@@ -14279,12 +14285,12 @@
         <v>1690</v>
       </c>
       <c r="B992" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B993" t="s">
         <v>1692</v>
@@ -14295,12 +14301,12 @@
         <v>1693</v>
       </c>
       <c r="B994" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B995" t="s">
         <v>1695</v>
@@ -14335,20 +14341,20 @@
         <v>1702</v>
       </c>
       <c r="B999" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B1000" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B1001" t="s">
         <v>1705</v>
@@ -14375,36 +14381,36 @@
         <v>1710</v>
       </c>
       <c r="B1004" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1005" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B1006" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B1007" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1008" t="s">
         <v>1715</v>
@@ -14423,12 +14429,12 @@
         <v>1718</v>
       </c>
       <c r="B1010" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B1011" t="s">
         <v>1720</v>
@@ -14439,20 +14445,20 @@
         <v>1721</v>
       </c>
       <c r="B1012" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B1013" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B1014" t="s">
         <v>1724</v>
@@ -14527,12 +14533,12 @@
         <v>1741</v>
       </c>
       <c r="B1023" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B1024" t="s">
         <v>1743</v>
@@ -14559,36 +14565,36 @@
         <v>1748</v>
       </c>
       <c r="B1027" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1028" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1029" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1030" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1031" t="s">
         <v>1753</v>
@@ -14607,12 +14613,12 @@
         <v>1756</v>
       </c>
       <c r="B1033" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B1034" t="s">
         <v>1758</v>
@@ -14639,12 +14645,12 @@
         <v>1763</v>
       </c>
       <c r="B1037" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B1038" t="s">
         <v>1765</v>
@@ -14663,12 +14669,12 @@
         <v>1768</v>
       </c>
       <c r="B1040" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B1041" t="s">
         <v>1770</v>
@@ -14687,12 +14693,12 @@
         <v>1773</v>
       </c>
       <c r="B1043" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="B1044" t="s">
         <v>1775</v>
@@ -14783,12 +14789,12 @@
         <v>1796</v>
       </c>
       <c r="B1055" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="B1056" t="s">
         <v>1798</v>
@@ -14887,12 +14893,12 @@
         <v>1821</v>
       </c>
       <c r="B1068" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="B1069" t="s">
         <v>1823</v>
@@ -14903,28 +14909,28 @@
         <v>1824</v>
       </c>
       <c r="B1070" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B1071" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B1072" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="B1073" t="s">
         <v>1828</v>
@@ -14935,12 +14941,12 @@
         <v>1829</v>
       </c>
       <c r="B1074" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B1075" t="s">
         <v>1831</v>
@@ -14959,12 +14965,12 @@
         <v>1834</v>
       </c>
       <c r="B1077" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B1078" t="s">
         <v>1836</v>
@@ -15031,20 +15037,20 @@
         <v>1851</v>
       </c>
       <c r="B1086" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B1087" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B1088" t="s">
         <v>1854</v>
@@ -15087,12 +15093,12 @@
         <v>1863</v>
       </c>
       <c r="B1093" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B1094" t="s">
         <v>1865</v>
@@ -15111,12 +15117,12 @@
         <v>1868</v>
       </c>
       <c r="B1096" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B1097" t="s">
         <v>1870</v>
@@ -15127,20 +15133,20 @@
         <v>1871</v>
       </c>
       <c r="B1098" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="B1099" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B1100" t="s">
         <v>1874</v>
@@ -15175,12 +15181,12 @@
         <v>1881</v>
       </c>
       <c r="B1104" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B1105" t="s">
         <v>1883</v>
@@ -15191,12 +15197,12 @@
         <v>1884</v>
       </c>
       <c r="B1106" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B1107" t="s">
         <v>1886</v>
@@ -15351,28 +15357,28 @@
         <v>1923</v>
       </c>
       <c r="B1126" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="B1127" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="B1128" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="B1129" t="s">
         <v>1927</v>
@@ -15383,12 +15389,12 @@
         <v>1928</v>
       </c>
       <c r="B1130" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="B1131" t="s">
         <v>1930</v>
@@ -15407,28 +15413,28 @@
         <v>1933</v>
       </c>
       <c r="B1133" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="B1134" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="B1135" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B1136" t="s">
         <v>1937</v>
@@ -15447,12 +15453,12 @@
         <v>1940</v>
       </c>
       <c r="B1138" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="B1139" t="s">
         <v>1942</v>
@@ -15495,12 +15501,12 @@
         <v>1951</v>
       </c>
       <c r="B1144" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="B1145" t="s">
         <v>1953</v>
@@ -15511,12 +15517,12 @@
         <v>1954</v>
       </c>
       <c r="B1146" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="B1147" t="s">
         <v>1956</v>
@@ -15551,36 +15557,36 @@
         <v>1963</v>
       </c>
       <c r="B1151" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="B1152" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="B1153" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B1154" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B1155" t="s">
         <v>1968</v>
@@ -15607,20 +15613,20 @@
         <v>1973</v>
       </c>
       <c r="B1158" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B1159" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B1160" t="s">
         <v>1976</v>
@@ -15631,36 +15637,36 @@
         <v>1977</v>
       </c>
       <c r="B1161" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B1162" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B1163" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B1164" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B1165" t="s">
         <v>1982</v>
@@ -15695,11 +15701,19 @@
         <v>1989</v>
       </c>
       <c r="B1169" t="s">
-        <v>1989</v>
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2">
+      <c r="A1170" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>1991</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1169"/>
+  <autoFilter ref="A1:B1170"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/tr/headTags.xlsx
+++ b/lang/tr/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1171</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1994">
   <si>
     <t>en</t>
   </si>
@@ -4808,6 +4808,12 @@
   </si>
   <si>
     <t>Yedi Ölümcül Günah</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>Colossus'un Gölgesi</t>
   </si>
   <si>
     <t>Shadows of Mordor</t>
@@ -6339,7 +6345,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1170"/>
+  <dimension ref="A1:B1171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13853,28 +13859,28 @@
         <v>1601</v>
       </c>
       <c r="B938" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B939" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B940" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B941" t="s">
         <v>1605</v>
@@ -13901,20 +13907,20 @@
         <v>1610</v>
       </c>
       <c r="B944" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B945" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B946" t="s">
         <v>1613</v>
@@ -13925,12 +13931,12 @@
         <v>1614</v>
       </c>
       <c r="B947" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B948" t="s">
         <v>1616</v>
@@ -13973,20 +13979,20 @@
         <v>1625</v>
       </c>
       <c r="B953" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B954" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B955" t="s">
         <v>1628</v>
@@ -14037,28 +14043,28 @@
         <v>1639</v>
       </c>
       <c r="B961" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B962" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B963" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B964" t="s">
         <v>1643</v>
@@ -14117,12 +14123,12 @@
         <v>1656</v>
       </c>
       <c r="B971" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B972" t="s">
         <v>1658</v>
@@ -14133,12 +14139,12 @@
         <v>1659</v>
       </c>
       <c r="B973" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B974" t="s">
         <v>1661</v>
@@ -14157,20 +14163,20 @@
         <v>1664</v>
       </c>
       <c r="B976" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B977" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B978" t="s">
         <v>1667</v>
@@ -14205,20 +14211,20 @@
         <v>1674</v>
       </c>
       <c r="B982" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B983" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B984" t="s">
         <v>1677</v>
@@ -14237,15 +14243,15 @@
         <v>1680</v>
       </c>
       <c r="B986" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B987" t="s">
         <v>1681</v>
-      </c>
-      <c r="B987" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -14269,12 +14275,12 @@
         <v>1687</v>
       </c>
       <c r="B990" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B991" t="s">
         <v>1689</v>
@@ -14293,12 +14299,12 @@
         <v>1692</v>
       </c>
       <c r="B993" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B994" t="s">
         <v>1694</v>
@@ -14309,12 +14315,12 @@
         <v>1695</v>
       </c>
       <c r="B995" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B996" t="s">
         <v>1697</v>
@@ -14349,20 +14355,20 @@
         <v>1704</v>
       </c>
       <c r="B1000" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1001" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1002" t="s">
         <v>1707</v>
@@ -14389,36 +14395,36 @@
         <v>1712</v>
       </c>
       <c r="B1005" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B1006" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1007" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B1008" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B1009" t="s">
         <v>1717</v>
@@ -14437,12 +14443,12 @@
         <v>1720</v>
       </c>
       <c r="B1011" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B1012" t="s">
         <v>1722</v>
@@ -14453,20 +14459,20 @@
         <v>1723</v>
       </c>
       <c r="B1013" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B1014" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1015" t="s">
         <v>1726</v>
@@ -14541,12 +14547,12 @@
         <v>1743</v>
       </c>
       <c r="B1024" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B1025" t="s">
         <v>1745</v>
@@ -14573,36 +14579,36 @@
         <v>1750</v>
       </c>
       <c r="B1028" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1029" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1030" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1031" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1032" t="s">
         <v>1755</v>
@@ -14621,12 +14627,12 @@
         <v>1758</v>
       </c>
       <c r="B1034" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B1035" t="s">
         <v>1760</v>
@@ -14653,12 +14659,12 @@
         <v>1765</v>
       </c>
       <c r="B1038" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B1039" t="s">
         <v>1767</v>
@@ -14677,12 +14683,12 @@
         <v>1770</v>
       </c>
       <c r="B1041" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B1042" t="s">
         <v>1772</v>
@@ -14701,12 +14707,12 @@
         <v>1775</v>
       </c>
       <c r="B1044" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B1045" t="s">
         <v>1777</v>
@@ -14797,12 +14803,12 @@
         <v>1798</v>
       </c>
       <c r="B1056" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B1057" t="s">
         <v>1800</v>
@@ -14901,12 +14907,12 @@
         <v>1823</v>
       </c>
       <c r="B1069" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B1070" t="s">
         <v>1825</v>
@@ -14917,28 +14923,28 @@
         <v>1826</v>
       </c>
       <c r="B1071" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="B1072" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B1073" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B1074" t="s">
         <v>1830</v>
@@ -14949,12 +14955,12 @@
         <v>1831</v>
       </c>
       <c r="B1075" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B1076" t="s">
         <v>1833</v>
@@ -14973,12 +14979,12 @@
         <v>1836</v>
       </c>
       <c r="B1078" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B1079" t="s">
         <v>1838</v>
@@ -15045,20 +15051,20 @@
         <v>1853</v>
       </c>
       <c r="B1087" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B1088" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B1089" t="s">
         <v>1856</v>
@@ -15101,12 +15107,12 @@
         <v>1865</v>
       </c>
       <c r="B1094" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B1095" t="s">
         <v>1867</v>
@@ -15125,12 +15131,12 @@
         <v>1870</v>
       </c>
       <c r="B1097" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B1098" t="s">
         <v>1872</v>
@@ -15141,20 +15147,20 @@
         <v>1873</v>
       </c>
       <c r="B1099" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B1100" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B1101" t="s">
         <v>1876</v>
@@ -15189,12 +15195,12 @@
         <v>1883</v>
       </c>
       <c r="B1105" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B1106" t="s">
         <v>1885</v>
@@ -15205,12 +15211,12 @@
         <v>1886</v>
       </c>
       <c r="B1107" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B1108" t="s">
         <v>1888</v>
@@ -15365,28 +15371,28 @@
         <v>1925</v>
       </c>
       <c r="B1127" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="B1128" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="B1129" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="B1130" t="s">
         <v>1929</v>
@@ -15397,12 +15403,12 @@
         <v>1930</v>
       </c>
       <c r="B1131" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="B1132" t="s">
         <v>1932</v>
@@ -15421,28 +15427,28 @@
         <v>1935</v>
       </c>
       <c r="B1134" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B1135" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="B1136" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="B1137" t="s">
         <v>1939</v>
@@ -15461,12 +15467,12 @@
         <v>1942</v>
       </c>
       <c r="B1139" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="B1140" t="s">
         <v>1944</v>
@@ -15509,12 +15515,12 @@
         <v>1953</v>
       </c>
       <c r="B1145" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B1146" t="s">
         <v>1955</v>
@@ -15525,12 +15531,12 @@
         <v>1956</v>
       </c>
       <c r="B1147" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="B1148" t="s">
         <v>1958</v>
@@ -15565,36 +15571,36 @@
         <v>1965</v>
       </c>
       <c r="B1152" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B1153" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B1154" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B1155" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B1156" t="s">
         <v>1970</v>
@@ -15621,20 +15627,20 @@
         <v>1975</v>
       </c>
       <c r="B1159" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B1160" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B1161" t="s">
         <v>1978</v>
@@ -15645,36 +15651,36 @@
         <v>1979</v>
       </c>
       <c r="B1162" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B1163" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B1164" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B1165" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B1166" t="s">
         <v>1984</v>
@@ -15709,11 +15715,19 @@
         <v>1991</v>
       </c>
       <c r="B1170" t="s">
-        <v>1991</v>
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2">
+      <c r="A1171" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>1993</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1170"/>
+  <autoFilter ref="A1:B1171"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/tr/headTags.xlsx
+++ b/lang/tr/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1998">
   <si>
     <t>en</t>
   </si>
@@ -3833,6 +3833,12 @@
   </si>
   <si>
     <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Kargaşa Binekleri</t>
   </si>
   <si>
     <t>Mouthwashing</t>
@@ -6351,7 +6357,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1172"/>
+  <dimension ref="A1:B1173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -12297,36 +12303,36 @@
         <v>1274</v>
       </c>
       <c r="B742" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B743" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B744" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B745" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B746" t="s">
         <v>1279</v>
@@ -12417,12 +12423,12 @@
         <v>1300</v>
       </c>
       <c r="B757" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B758" t="s">
         <v>1302</v>
@@ -12433,20 +12439,20 @@
         <v>1303</v>
       </c>
       <c r="B759" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B760" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B761" t="s">
         <v>1306</v>
@@ -12489,12 +12495,12 @@
         <v>1315</v>
       </c>
       <c r="B766" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B767" t="s">
         <v>1317</v>
@@ -12529,12 +12535,12 @@
         <v>1324</v>
       </c>
       <c r="B771" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B772" t="s">
         <v>1326</v>
@@ -12601,20 +12607,20 @@
         <v>1341</v>
       </c>
       <c r="B780" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B781" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B782" t="s">
         <v>1344</v>
@@ -12641,12 +12647,12 @@
         <v>1349</v>
       </c>
       <c r="B785" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B786" t="s">
         <v>1351</v>
@@ -12657,20 +12663,20 @@
         <v>1352</v>
       </c>
       <c r="B787" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B788" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B789" t="s">
         <v>1355</v>
@@ -12681,36 +12687,36 @@
         <v>1356</v>
       </c>
       <c r="B790" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B791" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B792" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B793" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B794" t="s">
         <v>1361</v>
@@ -12785,28 +12791,28 @@
         <v>1378</v>
       </c>
       <c r="B803" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B804" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B805" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B806" t="s">
         <v>1382</v>
@@ -12889,12 +12895,12 @@
         <v>1401</v>
       </c>
       <c r="B816" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B817" t="s">
         <v>1403</v>
@@ -12905,12 +12911,12 @@
         <v>1404</v>
       </c>
       <c r="B818" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B819" t="s">
         <v>1406</v>
@@ -12921,12 +12927,12 @@
         <v>1407</v>
       </c>
       <c r="B820" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B821" t="s">
         <v>1409</v>
@@ -12937,12 +12943,12 @@
         <v>1410</v>
       </c>
       <c r="B822" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B823" t="s">
         <v>1412</v>
@@ -12953,12 +12959,12 @@
         <v>1413</v>
       </c>
       <c r="B824" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B825" t="s">
         <v>1415</v>
@@ -12969,12 +12975,12 @@
         <v>1416</v>
       </c>
       <c r="B826" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B827" t="s">
         <v>1418</v>
@@ -12985,12 +12991,12 @@
         <v>1419</v>
       </c>
       <c r="B828" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B829" t="s">
         <v>1421</v>
@@ -13001,20 +13007,20 @@
         <v>1422</v>
       </c>
       <c r="B830" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B831" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B832" t="s">
         <v>1425</v>
@@ -13073,36 +13079,36 @@
         <v>1438</v>
       </c>
       <c r="B839" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B840" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B841" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B842" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B843" t="s">
         <v>1443</v>
@@ -13209,36 +13215,36 @@
         <v>1468</v>
       </c>
       <c r="B856" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B857" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B858" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B859" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B860" t="s">
         <v>1473</v>
@@ -13249,20 +13255,20 @@
         <v>1474</v>
       </c>
       <c r="B861" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B862" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B863" t="s">
         <v>1477</v>
@@ -13273,12 +13279,12 @@
         <v>1478</v>
       </c>
       <c r="B864" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B865" t="s">
         <v>1480</v>
@@ -13329,12 +13335,12 @@
         <v>1491</v>
       </c>
       <c r="B871" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B872" t="s">
         <v>1493</v>
@@ -13361,20 +13367,20 @@
         <v>1498</v>
       </c>
       <c r="B875" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B876" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B877" t="s">
         <v>1501</v>
@@ -13401,20 +13407,20 @@
         <v>1506</v>
       </c>
       <c r="B880" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B881" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B882" t="s">
         <v>1509</v>
@@ -13441,12 +13447,12 @@
         <v>1514</v>
       </c>
       <c r="B885" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B886" t="s">
         <v>1516</v>
@@ -13457,12 +13463,12 @@
         <v>1517</v>
       </c>
       <c r="B887" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B888" t="s">
         <v>1519</v>
@@ -13473,20 +13479,20 @@
         <v>1520</v>
       </c>
       <c r="B889" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B890" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B891" t="s">
         <v>1523</v>
@@ -13497,15 +13503,15 @@
         <v>1524</v>
       </c>
       <c r="B892" t="s">
-        <v>354</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B893" t="s">
-        <v>1526</v>
+        <v>354</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -13513,12 +13519,12 @@
         <v>1527</v>
       </c>
       <c r="B894" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B895" t="s">
         <v>1529</v>
@@ -13569,60 +13575,60 @@
         <v>1540</v>
       </c>
       <c r="B901" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B902" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B903" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B904" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B905" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B906" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B907" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B908" t="s">
         <v>1548</v>
@@ -13649,28 +13655,28 @@
         <v>1553</v>
       </c>
       <c r="B911" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B912" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B913" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B914" t="s">
         <v>1557</v>
@@ -13721,12 +13727,12 @@
         <v>1568</v>
       </c>
       <c r="B920" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B921" t="s">
         <v>1570</v>
@@ -13761,12 +13767,12 @@
         <v>1577</v>
       </c>
       <c r="B925" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B926" t="s">
         <v>1579</v>
@@ -13785,12 +13791,12 @@
         <v>1582</v>
       </c>
       <c r="B928" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B929" t="s">
         <v>1584</v>
@@ -13865,28 +13871,28 @@
         <v>1601</v>
       </c>
       <c r="B938" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B939" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B940" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B941" t="s">
         <v>1605</v>
@@ -13913,20 +13919,20 @@
         <v>1610</v>
       </c>
       <c r="B944" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B945" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B946" t="s">
         <v>1613</v>
@@ -13937,12 +13943,12 @@
         <v>1614</v>
       </c>
       <c r="B947" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B948" t="s">
         <v>1616</v>
@@ -13985,20 +13991,20 @@
         <v>1625</v>
       </c>
       <c r="B953" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B954" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B955" t="s">
         <v>1628</v>
@@ -14049,28 +14055,28 @@
         <v>1639</v>
       </c>
       <c r="B961" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B962" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B963" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B964" t="s">
         <v>1643</v>
@@ -14129,12 +14135,12 @@
         <v>1656</v>
       </c>
       <c r="B971" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B972" t="s">
         <v>1658</v>
@@ -14145,12 +14151,12 @@
         <v>1659</v>
       </c>
       <c r="B973" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B974" t="s">
         <v>1661</v>
@@ -14169,20 +14175,20 @@
         <v>1664</v>
       </c>
       <c r="B976" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B977" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B978" t="s">
         <v>1667</v>
@@ -14217,20 +14223,20 @@
         <v>1674</v>
       </c>
       <c r="B982" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B983" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B984" t="s">
         <v>1677</v>
@@ -14249,15 +14255,15 @@
         <v>1680</v>
       </c>
       <c r="B986" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B987" t="s">
         <v>1681</v>
-      </c>
-      <c r="B987" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -14281,12 +14287,12 @@
         <v>1687</v>
       </c>
       <c r="B990" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B991" t="s">
         <v>1689</v>
@@ -14305,12 +14311,12 @@
         <v>1692</v>
       </c>
       <c r="B993" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B994" t="s">
         <v>1694</v>
@@ -14321,12 +14327,12 @@
         <v>1695</v>
       </c>
       <c r="B995" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B996" t="s">
         <v>1697</v>
@@ -14361,20 +14367,20 @@
         <v>1704</v>
       </c>
       <c r="B1000" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1001" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1002" t="s">
         <v>1707</v>
@@ -14401,36 +14407,36 @@
         <v>1712</v>
       </c>
       <c r="B1005" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B1006" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1007" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B1008" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B1009" t="s">
         <v>1717</v>
@@ -14449,12 +14455,12 @@
         <v>1720</v>
       </c>
       <c r="B1011" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B1012" t="s">
         <v>1722</v>
@@ -14465,20 +14471,20 @@
         <v>1723</v>
       </c>
       <c r="B1013" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B1014" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1015" t="s">
         <v>1726</v>
@@ -14553,12 +14559,12 @@
         <v>1743</v>
       </c>
       <c r="B1024" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B1025" t="s">
         <v>1745</v>
@@ -14585,36 +14591,36 @@
         <v>1750</v>
       </c>
       <c r="B1028" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1029" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1030" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1031" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1032" t="s">
         <v>1755</v>
@@ -14633,12 +14639,12 @@
         <v>1758</v>
       </c>
       <c r="B1034" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B1035" t="s">
         <v>1760</v>
@@ -14665,12 +14671,12 @@
         <v>1765</v>
       </c>
       <c r="B1038" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B1039" t="s">
         <v>1767</v>
@@ -14689,12 +14695,12 @@
         <v>1770</v>
       </c>
       <c r="B1041" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B1042" t="s">
         <v>1772</v>
@@ -14721,12 +14727,12 @@
         <v>1777</v>
       </c>
       <c r="B1045" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="B1046" t="s">
         <v>1779</v>
@@ -14817,12 +14823,12 @@
         <v>1800</v>
       </c>
       <c r="B1057" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B1058" t="s">
         <v>1802</v>
@@ -14921,12 +14927,12 @@
         <v>1825</v>
       </c>
       <c r="B1070" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B1071" t="s">
         <v>1827</v>
@@ -14937,28 +14943,28 @@
         <v>1828</v>
       </c>
       <c r="B1072" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B1073" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B1074" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B1075" t="s">
         <v>1832</v>
@@ -14969,12 +14975,12 @@
         <v>1833</v>
       </c>
       <c r="B1076" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B1077" t="s">
         <v>1835</v>
@@ -14993,12 +14999,12 @@
         <v>1838</v>
       </c>
       <c r="B1079" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B1080" t="s">
         <v>1840</v>
@@ -15065,20 +15071,20 @@
         <v>1855</v>
       </c>
       <c r="B1088" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B1089" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B1090" t="s">
         <v>1858</v>
@@ -15121,12 +15127,12 @@
         <v>1867</v>
       </c>
       <c r="B1095" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B1096" t="s">
         <v>1869</v>
@@ -15145,12 +15151,12 @@
         <v>1872</v>
       </c>
       <c r="B1098" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B1099" t="s">
         <v>1874</v>
@@ -15161,20 +15167,20 @@
         <v>1875</v>
       </c>
       <c r="B1100" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B1101" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="B1102" t="s">
         <v>1878</v>
@@ -15209,12 +15215,12 @@
         <v>1885</v>
       </c>
       <c r="B1106" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B1107" t="s">
         <v>1887</v>
@@ -15225,12 +15231,12 @@
         <v>1888</v>
       </c>
       <c r="B1108" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B1109" t="s">
         <v>1890</v>
@@ -15385,28 +15391,28 @@
         <v>1927</v>
       </c>
       <c r="B1128" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="B1129" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="B1130" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B1131" t="s">
         <v>1931</v>
@@ -15417,12 +15423,12 @@
         <v>1932</v>
       </c>
       <c r="B1132" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="B1133" t="s">
         <v>1934</v>
@@ -15441,28 +15447,28 @@
         <v>1937</v>
       </c>
       <c r="B1135" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="B1136" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B1137" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="B1138" t="s">
         <v>1941</v>
@@ -15481,12 +15487,12 @@
         <v>1944</v>
       </c>
       <c r="B1140" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="B1141" t="s">
         <v>1946</v>
@@ -15529,12 +15535,12 @@
         <v>1955</v>
       </c>
       <c r="B1146" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B1147" t="s">
         <v>1957</v>
@@ -15545,12 +15551,12 @@
         <v>1958</v>
       </c>
       <c r="B1148" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="B1149" t="s">
         <v>1960</v>
@@ -15585,36 +15591,36 @@
         <v>1967</v>
       </c>
       <c r="B1153" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B1154" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B1155" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B1156" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B1157" t="s">
         <v>1972</v>
@@ -15641,20 +15647,20 @@
         <v>1977</v>
       </c>
       <c r="B1160" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B1161" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B1162" t="s">
         <v>1980</v>
@@ -15665,36 +15671,36 @@
         <v>1981</v>
       </c>
       <c r="B1163" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B1164" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B1165" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B1166" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B1167" t="s">
         <v>1986</v>
@@ -15729,19 +15735,27 @@
         <v>1993</v>
       </c>
       <c r="B1171" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B1172" t="s">
         <v>1995</v>
       </c>
     </row>
+    <row r="1173" spans="1:2">
+      <c r="A1173" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>1997</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1172"/>
+  <autoFilter ref="A1:B1173"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/tr/headTags.xlsx
+++ b/lang/tr/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2000">
   <si>
     <t>en</t>
   </si>
@@ -2192,6 +2192,12 @@
   </si>
   <si>
     <t>Yazı Tipi (Gökkuşağı)</t>
+  </si>
+  <si>
+    <t>Font (Red Chiseled Sandstone)</t>
+  </si>
+  <si>
+    <t>Yazı Tipi (Kırmızı Yontulmuş Kumtaşı)</t>
   </si>
   <si>
     <t>Font (Red)</t>
@@ -6357,7 +6363,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1173"/>
+  <dimension ref="A1:B1174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9799,20 +9805,20 @@
         <v>751</v>
       </c>
       <c r="B429" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B430" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B431" t="s">
         <v>754</v>
@@ -9831,12 +9837,12 @@
         <v>757</v>
       </c>
       <c r="B433" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B434" t="s">
         <v>759</v>
@@ -9911,12 +9917,12 @@
         <v>776</v>
       </c>
       <c r="B443" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B444" t="s">
         <v>778</v>
@@ -9927,12 +9933,12 @@
         <v>779</v>
       </c>
       <c r="B445" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B446" t="s">
         <v>781</v>
@@ -9943,12 +9949,12 @@
         <v>782</v>
       </c>
       <c r="B447" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B448" t="s">
         <v>784</v>
@@ -9959,12 +9965,12 @@
         <v>785</v>
       </c>
       <c r="B449" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B450" t="s">
         <v>787</v>
@@ -9983,12 +9989,12 @@
         <v>790</v>
       </c>
       <c r="B452" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B453" t="s">
         <v>792</v>
@@ -10087,12 +10093,12 @@
         <v>815</v>
       </c>
       <c r="B465" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B466" t="s">
         <v>817</v>
@@ -10127,36 +10133,36 @@
         <v>824</v>
       </c>
       <c r="B470" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B471" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B472" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B473" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B474" t="s">
         <v>829</v>
@@ -10167,12 +10173,12 @@
         <v>830</v>
       </c>
       <c r="B475" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B476" t="s">
         <v>832</v>
@@ -10207,20 +10213,20 @@
         <v>839</v>
       </c>
       <c r="B480" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B481" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B482" t="s">
         <v>842</v>
@@ -10231,12 +10237,12 @@
         <v>843</v>
       </c>
       <c r="B483" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B484" t="s">
         <v>845</v>
@@ -10247,36 +10253,36 @@
         <v>846</v>
       </c>
       <c r="B485" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B486" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B487" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B488" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B489" t="s">
         <v>851</v>
@@ -10431,12 +10437,12 @@
         <v>888</v>
       </c>
       <c r="B508" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B509" t="s">
         <v>890</v>
@@ -10455,12 +10461,12 @@
         <v>893</v>
       </c>
       <c r="B511" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B512" t="s">
         <v>895</v>
@@ -10511,12 +10517,12 @@
         <v>906</v>
       </c>
       <c r="B518" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B519" t="s">
         <v>908</v>
@@ -10607,12 +10613,12 @@
         <v>929</v>
       </c>
       <c r="B530" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B531" t="s">
         <v>931</v>
@@ -10631,20 +10637,20 @@
         <v>934</v>
       </c>
       <c r="B533" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B534" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B535" t="s">
         <v>937</v>
@@ -10663,28 +10669,28 @@
         <v>940</v>
       </c>
       <c r="B537" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B538" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B539" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B540" t="s">
         <v>944</v>
@@ -10719,20 +10725,20 @@
         <v>951</v>
       </c>
       <c r="B544" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B545" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B546" t="s">
         <v>954</v>
@@ -10759,12 +10765,12 @@
         <v>959</v>
       </c>
       <c r="B549" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B550" t="s">
         <v>961</v>
@@ -10775,28 +10781,28 @@
         <v>962</v>
       </c>
       <c r="B551" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B552" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B553" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B554" t="s">
         <v>966</v>
@@ -10855,20 +10861,20 @@
         <v>979</v>
       </c>
       <c r="B561" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B562" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B563" t="s">
         <v>982</v>
@@ -10895,12 +10901,12 @@
         <v>987</v>
       </c>
       <c r="B566" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B567" t="s">
         <v>989</v>
@@ -10919,12 +10925,12 @@
         <v>992</v>
       </c>
       <c r="B569" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B570" t="s">
         <v>994</v>
@@ -10951,12 +10957,12 @@
         <v>999</v>
       </c>
       <c r="B573" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B574" t="s">
         <v>1001</v>
@@ -10967,28 +10973,28 @@
         <v>1002</v>
       </c>
       <c r="B575" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B576" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B577" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B578" t="s">
         <v>1006</v>
@@ -11007,12 +11013,12 @@
         <v>1009</v>
       </c>
       <c r="B580" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B581" t="s">
         <v>1011</v>
@@ -11023,20 +11029,20 @@
         <v>1012</v>
       </c>
       <c r="B582" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B583" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B584" t="s">
         <v>1015</v>
@@ -11047,20 +11053,20 @@
         <v>1016</v>
       </c>
       <c r="B585" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B586" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B587" t="s">
         <v>1019</v>
@@ -11079,12 +11085,12 @@
         <v>1022</v>
       </c>
       <c r="B589" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B590" t="s">
         <v>1024</v>
@@ -11095,12 +11101,12 @@
         <v>1025</v>
       </c>
       <c r="B591" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B592" t="s">
         <v>1027</v>
@@ -11167,20 +11173,20 @@
         <v>1042</v>
       </c>
       <c r="B600" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B601" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B602" t="s">
         <v>1045</v>
@@ -11191,20 +11197,20 @@
         <v>1046</v>
       </c>
       <c r="B603" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B604" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B605" t="s">
         <v>1049</v>
@@ -11247,12 +11253,12 @@
         <v>1058</v>
       </c>
       <c r="B610" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B611" t="s">
         <v>1060</v>
@@ -11343,28 +11349,28 @@
         <v>1081</v>
       </c>
       <c r="B622" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B623" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B624" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B625" t="s">
         <v>1085</v>
@@ -11383,12 +11389,12 @@
         <v>1088</v>
       </c>
       <c r="B627" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B628" t="s">
         <v>1090</v>
@@ -11399,20 +11405,20 @@
         <v>1091</v>
       </c>
       <c r="B629" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B630" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B631" t="s">
         <v>1094</v>
@@ -11423,52 +11429,52 @@
         <v>1095</v>
       </c>
       <c r="B632" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B633" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B634" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B635" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B636" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B637" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B638" t="s">
         <v>1102</v>
@@ -11479,36 +11485,36 @@
         <v>1103</v>
       </c>
       <c r="B639" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B640" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B641" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B642" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B643" t="s">
         <v>1108</v>
@@ -11543,28 +11549,28 @@
         <v>1115</v>
       </c>
       <c r="B647" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B648" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B649" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B650" t="s">
         <v>1119</v>
@@ -11575,12 +11581,12 @@
         <v>1120</v>
       </c>
       <c r="B651" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B652" t="s">
         <v>1122</v>
@@ -11599,20 +11605,20 @@
         <v>1125</v>
       </c>
       <c r="B654" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B655" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B656" t="s">
         <v>1128</v>
@@ -11679,20 +11685,20 @@
         <v>1143</v>
       </c>
       <c r="B664" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B665" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B666" t="s">
         <v>1146</v>
@@ -11703,12 +11709,12 @@
         <v>1147</v>
       </c>
       <c r="B667" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B668" t="s">
         <v>1149</v>
@@ -11759,12 +11765,12 @@
         <v>1160</v>
       </c>
       <c r="B674" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B675" t="s">
         <v>1162</v>
@@ -11775,12 +11781,12 @@
         <v>1163</v>
       </c>
       <c r="B676" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B677" t="s">
         <v>1165</v>
@@ -11807,20 +11813,20 @@
         <v>1170</v>
       </c>
       <c r="B680" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B681" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B682" t="s">
         <v>1173</v>
@@ -11879,12 +11885,12 @@
         <v>1186</v>
       </c>
       <c r="B689" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B690" t="s">
         <v>1188</v>
@@ -11903,12 +11909,12 @@
         <v>1191</v>
       </c>
       <c r="B692" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B693" t="s">
         <v>1193</v>
@@ -11951,12 +11957,12 @@
         <v>1202</v>
       </c>
       <c r="B698" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B699" t="s">
         <v>1204</v>
@@ -11967,20 +11973,20 @@
         <v>1205</v>
       </c>
       <c r="B700" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B701" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B702" t="s">
         <v>1208</v>
@@ -11991,60 +11997,60 @@
         <v>1209</v>
       </c>
       <c r="B703" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B704" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B705" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B706" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B707" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B708" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B709" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B710" t="s">
         <v>1217</v>
@@ -12055,12 +12061,12 @@
         <v>1218</v>
       </c>
       <c r="B711" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B712" t="s">
         <v>1220</v>
@@ -12199,12 +12205,12 @@
         <v>1253</v>
       </c>
       <c r="B729" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B730" t="s">
         <v>1255</v>
@@ -12247,20 +12253,20 @@
         <v>1264</v>
       </c>
       <c r="B735" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B736" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B737" t="s">
         <v>1267</v>
@@ -12279,20 +12285,20 @@
         <v>1270</v>
       </c>
       <c r="B739" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B740" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B741" t="s">
         <v>1273</v>
@@ -12311,36 +12317,36 @@
         <v>1276</v>
       </c>
       <c r="B743" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B744" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B745" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B746" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B747" t="s">
         <v>1281</v>
@@ -12431,12 +12437,12 @@
         <v>1302</v>
       </c>
       <c r="B758" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B759" t="s">
         <v>1304</v>
@@ -12447,20 +12453,20 @@
         <v>1305</v>
       </c>
       <c r="B760" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B761" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B762" t="s">
         <v>1308</v>
@@ -12503,12 +12509,12 @@
         <v>1317</v>
       </c>
       <c r="B767" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B768" t="s">
         <v>1319</v>
@@ -12543,12 +12549,12 @@
         <v>1326</v>
       </c>
       <c r="B772" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B773" t="s">
         <v>1328</v>
@@ -12615,20 +12621,20 @@
         <v>1343</v>
       </c>
       <c r="B781" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B782" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B783" t="s">
         <v>1346</v>
@@ -12655,12 +12661,12 @@
         <v>1351</v>
       </c>
       <c r="B786" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B787" t="s">
         <v>1353</v>
@@ -12671,20 +12677,20 @@
         <v>1354</v>
       </c>
       <c r="B788" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B789" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B790" t="s">
         <v>1357</v>
@@ -12695,36 +12701,36 @@
         <v>1358</v>
       </c>
       <c r="B791" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B792" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B793" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B794" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B795" t="s">
         <v>1363</v>
@@ -12799,28 +12805,28 @@
         <v>1380</v>
       </c>
       <c r="B804" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B805" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B806" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B807" t="s">
         <v>1384</v>
@@ -12903,12 +12909,12 @@
         <v>1403</v>
       </c>
       <c r="B817" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B818" t="s">
         <v>1405</v>
@@ -12919,12 +12925,12 @@
         <v>1406</v>
       </c>
       <c r="B819" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B820" t="s">
         <v>1408</v>
@@ -12935,12 +12941,12 @@
         <v>1409</v>
       </c>
       <c r="B821" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B822" t="s">
         <v>1411</v>
@@ -12951,12 +12957,12 @@
         <v>1412</v>
       </c>
       <c r="B823" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B824" t="s">
         <v>1414</v>
@@ -12967,12 +12973,12 @@
         <v>1415</v>
       </c>
       <c r="B825" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B826" t="s">
         <v>1417</v>
@@ -12983,12 +12989,12 @@
         <v>1418</v>
       </c>
       <c r="B827" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B828" t="s">
         <v>1420</v>
@@ -12999,12 +13005,12 @@
         <v>1421</v>
       </c>
       <c r="B829" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B830" t="s">
         <v>1423</v>
@@ -13015,20 +13021,20 @@
         <v>1424</v>
       </c>
       <c r="B831" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B832" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B833" t="s">
         <v>1427</v>
@@ -13087,36 +13093,36 @@
         <v>1440</v>
       </c>
       <c r="B840" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B841" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B842" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B843" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B844" t="s">
         <v>1445</v>
@@ -13223,36 +13229,36 @@
         <v>1470</v>
       </c>
       <c r="B857" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B858" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B859" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B860" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B861" t="s">
         <v>1475</v>
@@ -13263,20 +13269,20 @@
         <v>1476</v>
       </c>
       <c r="B862" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B863" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B864" t="s">
         <v>1479</v>
@@ -13287,12 +13293,12 @@
         <v>1480</v>
       </c>
       <c r="B865" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B866" t="s">
         <v>1482</v>
@@ -13343,12 +13349,12 @@
         <v>1493</v>
       </c>
       <c r="B872" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B873" t="s">
         <v>1495</v>
@@ -13375,20 +13381,20 @@
         <v>1500</v>
       </c>
       <c r="B876" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B877" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B878" t="s">
         <v>1503</v>
@@ -13415,20 +13421,20 @@
         <v>1508</v>
       </c>
       <c r="B881" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B882" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B883" t="s">
         <v>1511</v>
@@ -13455,12 +13461,12 @@
         <v>1516</v>
       </c>
       <c r="B886" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B887" t="s">
         <v>1518</v>
@@ -13471,12 +13477,12 @@
         <v>1519</v>
       </c>
       <c r="B888" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B889" t="s">
         <v>1521</v>
@@ -13487,20 +13493,20 @@
         <v>1522</v>
       </c>
       <c r="B890" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B891" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B892" t="s">
         <v>1525</v>
@@ -13511,15 +13517,15 @@
         <v>1526</v>
       </c>
       <c r="B893" t="s">
-        <v>354</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B894" t="s">
-        <v>1528</v>
+        <v>354</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -13527,12 +13533,12 @@
         <v>1529</v>
       </c>
       <c r="B895" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B896" t="s">
         <v>1531</v>
@@ -13583,60 +13589,60 @@
         <v>1542</v>
       </c>
       <c r="B902" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B903" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B904" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B905" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B906" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B907" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B908" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B909" t="s">
         <v>1550</v>
@@ -13663,28 +13669,28 @@
         <v>1555</v>
       </c>
       <c r="B912" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B913" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B914" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B915" t="s">
         <v>1559</v>
@@ -13735,12 +13741,12 @@
         <v>1570</v>
       </c>
       <c r="B921" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B922" t="s">
         <v>1572</v>
@@ -13775,12 +13781,12 @@
         <v>1579</v>
       </c>
       <c r="B926" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B927" t="s">
         <v>1581</v>
@@ -13799,12 +13805,12 @@
         <v>1584</v>
       </c>
       <c r="B929" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B930" t="s">
         <v>1586</v>
@@ -13879,28 +13885,28 @@
         <v>1603</v>
       </c>
       <c r="B939" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B940" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B941" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B942" t="s">
         <v>1607</v>
@@ -13927,20 +13933,20 @@
         <v>1612</v>
       </c>
       <c r="B945" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B946" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B947" t="s">
         <v>1615</v>
@@ -13951,12 +13957,12 @@
         <v>1616</v>
       </c>
       <c r="B948" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B949" t="s">
         <v>1618</v>
@@ -13999,20 +14005,20 @@
         <v>1627</v>
       </c>
       <c r="B954" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B955" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B956" t="s">
         <v>1630</v>
@@ -14063,28 +14069,28 @@
         <v>1641</v>
       </c>
       <c r="B962" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B963" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B964" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B965" t="s">
         <v>1645</v>
@@ -14143,12 +14149,12 @@
         <v>1658</v>
       </c>
       <c r="B972" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B973" t="s">
         <v>1660</v>
@@ -14159,12 +14165,12 @@
         <v>1661</v>
       </c>
       <c r="B974" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B975" t="s">
         <v>1663</v>
@@ -14183,20 +14189,20 @@
         <v>1666</v>
       </c>
       <c r="B977" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B978" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B979" t="s">
         <v>1669</v>
@@ -14231,20 +14237,20 @@
         <v>1676</v>
       </c>
       <c r="B983" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B984" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B985" t="s">
         <v>1679</v>
@@ -14263,15 +14269,15 @@
         <v>1682</v>
       </c>
       <c r="B987" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B988" t="s">
         <v>1683</v>
-      </c>
-      <c r="B988" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -14295,12 +14301,12 @@
         <v>1689</v>
       </c>
       <c r="B991" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B992" t="s">
         <v>1691</v>
@@ -14319,12 +14325,12 @@
         <v>1694</v>
       </c>
       <c r="B994" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B995" t="s">
         <v>1696</v>
@@ -14335,12 +14341,12 @@
         <v>1697</v>
       </c>
       <c r="B996" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B997" t="s">
         <v>1699</v>
@@ -14375,20 +14381,20 @@
         <v>1706</v>
       </c>
       <c r="B1001" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B1002" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1003" t="s">
         <v>1709</v>
@@ -14415,36 +14421,36 @@
         <v>1714</v>
       </c>
       <c r="B1006" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B1007" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B1008" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B1009" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B1010" t="s">
         <v>1719</v>
@@ -14463,12 +14469,12 @@
         <v>1722</v>
       </c>
       <c r="B1012" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B1013" t="s">
         <v>1724</v>
@@ -14479,20 +14485,20 @@
         <v>1725</v>
       </c>
       <c r="B1014" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1015" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B1016" t="s">
         <v>1728</v>
@@ -14567,12 +14573,12 @@
         <v>1745</v>
       </c>
       <c r="B1025" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B1026" t="s">
         <v>1747</v>
@@ -14599,36 +14605,36 @@
         <v>1752</v>
       </c>
       <c r="B1029" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1030" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1031" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B1032" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B1033" t="s">
         <v>1757</v>
@@ -14647,12 +14653,12 @@
         <v>1760</v>
       </c>
       <c r="B1035" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1036" t="s">
         <v>1762</v>
@@ -14679,12 +14685,12 @@
         <v>1767</v>
       </c>
       <c r="B1039" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B1040" t="s">
         <v>1769</v>
@@ -14703,12 +14709,12 @@
         <v>1772</v>
       </c>
       <c r="B1042" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B1043" t="s">
         <v>1774</v>
@@ -14735,12 +14741,12 @@
         <v>1779</v>
       </c>
       <c r="B1046" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="B1047" t="s">
         <v>1781</v>
@@ -14831,12 +14837,12 @@
         <v>1802</v>
       </c>
       <c r="B1058" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B1059" t="s">
         <v>1804</v>
@@ -14935,12 +14941,12 @@
         <v>1827</v>
       </c>
       <c r="B1071" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B1072" t="s">
         <v>1829</v>
@@ -14951,28 +14957,28 @@
         <v>1830</v>
       </c>
       <c r="B1073" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B1074" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B1075" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B1076" t="s">
         <v>1834</v>
@@ -14983,12 +14989,12 @@
         <v>1835</v>
       </c>
       <c r="B1077" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B1078" t="s">
         <v>1837</v>
@@ -15007,12 +15013,12 @@
         <v>1840</v>
       </c>
       <c r="B1080" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B1081" t="s">
         <v>1842</v>
@@ -15079,20 +15085,20 @@
         <v>1857</v>
       </c>
       <c r="B1089" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B1090" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B1091" t="s">
         <v>1860</v>
@@ -15135,12 +15141,12 @@
         <v>1869</v>
       </c>
       <c r="B1096" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="B1097" t="s">
         <v>1871</v>
@@ -15159,12 +15165,12 @@
         <v>1874</v>
       </c>
       <c r="B1099" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B1100" t="s">
         <v>1876</v>
@@ -15175,20 +15181,20 @@
         <v>1877</v>
       </c>
       <c r="B1101" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="B1102" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B1103" t="s">
         <v>1880</v>
@@ -15223,12 +15229,12 @@
         <v>1887</v>
       </c>
       <c r="B1107" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B1108" t="s">
         <v>1889</v>
@@ -15239,12 +15245,12 @@
         <v>1890</v>
       </c>
       <c r="B1109" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="B1110" t="s">
         <v>1892</v>
@@ -15399,28 +15405,28 @@
         <v>1929</v>
       </c>
       <c r="B1129" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B1130" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="B1131" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B1132" t="s">
         <v>1933</v>
@@ -15431,12 +15437,12 @@
         <v>1934</v>
       </c>
       <c r="B1133" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="B1134" t="s">
         <v>1936</v>
@@ -15455,28 +15461,28 @@
         <v>1939</v>
       </c>
       <c r="B1136" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="B1137" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="B1138" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="B1139" t="s">
         <v>1943</v>
@@ -15495,12 +15501,12 @@
         <v>1946</v>
       </c>
       <c r="B1141" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="B1142" t="s">
         <v>1948</v>
@@ -15543,12 +15549,12 @@
         <v>1957</v>
       </c>
       <c r="B1147" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="B1148" t="s">
         <v>1959</v>
@@ -15559,12 +15565,12 @@
         <v>1960</v>
       </c>
       <c r="B1149" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="B1150" t="s">
         <v>1962</v>
@@ -15599,36 +15605,36 @@
         <v>1969</v>
       </c>
       <c r="B1154" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B1155" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B1156" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B1157" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B1158" t="s">
         <v>1974</v>
@@ -15655,20 +15661,20 @@
         <v>1979</v>
       </c>
       <c r="B1161" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B1162" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B1163" t="s">
         <v>1982</v>
@@ -15679,36 +15685,36 @@
         <v>1983</v>
       </c>
       <c r="B1164" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B1165" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B1166" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B1167" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B1168" t="s">
         <v>1988</v>
@@ -15743,19 +15749,27 @@
         <v>1995</v>
       </c>
       <c r="B1172" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B1173" t="s">
         <v>1997</v>
       </c>
     </row>
+    <row r="1174" spans="1:2">
+      <c r="A1174" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>1999</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1173"/>
+  <autoFilter ref="A1:B1174"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/tr/headTags.xlsx
+++ b/lang/tr/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2002">
   <si>
     <t>en</t>
   </si>
@@ -5645,6 +5645,12 @@
   </si>
   <si>
     <t>Alacakaranlık Ormanı</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Twisted Harikalar Diyarı</t>
   </si>
   <si>
     <t>Ultrakill</t>
@@ -6363,7 +6369,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1174"/>
+  <dimension ref="A1:B1175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15173,12 +15179,12 @@
         <v>1876</v>
       </c>
       <c r="B1100" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="B1101" t="s">
         <v>1878</v>
@@ -15189,20 +15195,20 @@
         <v>1879</v>
       </c>
       <c r="B1102" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B1103" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="B1104" t="s">
         <v>1882</v>
@@ -15237,12 +15243,12 @@
         <v>1889</v>
       </c>
       <c r="B1108" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="B1109" t="s">
         <v>1891</v>
@@ -15253,12 +15259,12 @@
         <v>1892</v>
       </c>
       <c r="B1110" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="B1111" t="s">
         <v>1894</v>
@@ -15413,28 +15419,28 @@
         <v>1931</v>
       </c>
       <c r="B1130" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B1131" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="B1132" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="B1133" t="s">
         <v>1935</v>
@@ -15445,12 +15451,12 @@
         <v>1936</v>
       </c>
       <c r="B1134" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="B1135" t="s">
         <v>1938</v>
@@ -15469,28 +15475,28 @@
         <v>1941</v>
       </c>
       <c r="B1137" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="B1138" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="B1139" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="B1140" t="s">
         <v>1945</v>
@@ -15509,12 +15515,12 @@
         <v>1948</v>
       </c>
       <c r="B1142" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="B1143" t="s">
         <v>1950</v>
@@ -15557,12 +15563,12 @@
         <v>1959</v>
       </c>
       <c r="B1148" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="B1149" t="s">
         <v>1961</v>
@@ -15573,12 +15579,12 @@
         <v>1962</v>
       </c>
       <c r="B1150" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="B1151" t="s">
         <v>1964</v>
@@ -15613,36 +15619,36 @@
         <v>1971</v>
       </c>
       <c r="B1155" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B1156" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B1157" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B1158" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B1159" t="s">
         <v>1976</v>
@@ -15669,20 +15675,20 @@
         <v>1981</v>
       </c>
       <c r="B1162" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B1163" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B1164" t="s">
         <v>1984</v>
@@ -15693,36 +15699,36 @@
         <v>1985</v>
       </c>
       <c r="B1165" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B1166" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B1167" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B1168" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B1169" t="s">
         <v>1990</v>
@@ -15757,19 +15763,27 @@
         <v>1997</v>
       </c>
       <c r="B1173" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B1174" t="s">
         <v>1999</v>
       </c>
     </row>
+    <row r="1175" spans="1:2">
+      <c r="A1175" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>2001</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1174"/>
+  <autoFilter ref="A1:B1175"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/tr/headTags.xlsx
+++ b/lang/tr/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2004">
   <si>
     <t>en</t>
   </si>
@@ -3062,6 +3062,12 @@
   </si>
   <si>
     <t>Hypixel (Minion)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutations) Tag</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutasyonlar) Etiketi</t>
   </si>
   <si>
     <t>Hypixel (NPC)</t>
@@ -6369,7 +6375,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1175"/>
+  <dimension ref="A1:B1176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -11051,12 +11057,12 @@
         <v>1015</v>
       </c>
       <c r="B584" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B585" t="s">
         <v>1017</v>
@@ -11067,20 +11073,20 @@
         <v>1018</v>
       </c>
       <c r="B586" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B587" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B588" t="s">
         <v>1021</v>
@@ -11099,12 +11105,12 @@
         <v>1024</v>
       </c>
       <c r="B590" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B591" t="s">
         <v>1026</v>
@@ -11115,12 +11121,12 @@
         <v>1027</v>
       </c>
       <c r="B592" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B593" t="s">
         <v>1029</v>
@@ -11187,20 +11193,20 @@
         <v>1044</v>
       </c>
       <c r="B601" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B602" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B603" t="s">
         <v>1047</v>
@@ -11211,20 +11217,20 @@
         <v>1048</v>
       </c>
       <c r="B604" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B605" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B606" t="s">
         <v>1051</v>
@@ -11267,12 +11273,12 @@
         <v>1060</v>
       </c>
       <c r="B611" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B612" t="s">
         <v>1062</v>
@@ -11363,28 +11369,28 @@
         <v>1083</v>
       </c>
       <c r="B623" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B624" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B625" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B626" t="s">
         <v>1087</v>
@@ -11403,12 +11409,12 @@
         <v>1090</v>
       </c>
       <c r="B628" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B629" t="s">
         <v>1092</v>
@@ -11419,20 +11425,20 @@
         <v>1093</v>
       </c>
       <c r="B630" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B631" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B632" t="s">
         <v>1096</v>
@@ -11443,52 +11449,52 @@
         <v>1097</v>
       </c>
       <c r="B633" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B634" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B635" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B636" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B637" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B638" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B639" t="s">
         <v>1104</v>
@@ -11499,36 +11505,36 @@
         <v>1105</v>
       </c>
       <c r="B640" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B641" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B642" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B643" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B644" t="s">
         <v>1110</v>
@@ -11563,28 +11569,28 @@
         <v>1117</v>
       </c>
       <c r="B648" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B649" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B650" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B651" t="s">
         <v>1121</v>
@@ -11595,12 +11601,12 @@
         <v>1122</v>
       </c>
       <c r="B652" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B653" t="s">
         <v>1124</v>
@@ -11619,20 +11625,20 @@
         <v>1127</v>
       </c>
       <c r="B655" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B656" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B657" t="s">
         <v>1130</v>
@@ -11699,20 +11705,20 @@
         <v>1145</v>
       </c>
       <c r="B665" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B666" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B667" t="s">
         <v>1148</v>
@@ -11723,12 +11729,12 @@
         <v>1149</v>
       </c>
       <c r="B668" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B669" t="s">
         <v>1151</v>
@@ -11779,12 +11785,12 @@
         <v>1162</v>
       </c>
       <c r="B675" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B676" t="s">
         <v>1164</v>
@@ -11795,12 +11801,12 @@
         <v>1165</v>
       </c>
       <c r="B677" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B678" t="s">
         <v>1167</v>
@@ -11827,20 +11833,20 @@
         <v>1172</v>
       </c>
       <c r="B681" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B682" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B683" t="s">
         <v>1175</v>
@@ -11899,12 +11905,12 @@
         <v>1188</v>
       </c>
       <c r="B690" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B691" t="s">
         <v>1190</v>
@@ -11923,12 +11929,12 @@
         <v>1193</v>
       </c>
       <c r="B693" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B694" t="s">
         <v>1195</v>
@@ -11971,12 +11977,12 @@
         <v>1204</v>
       </c>
       <c r="B699" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B700" t="s">
         <v>1206</v>
@@ -11987,20 +11993,20 @@
         <v>1207</v>
       </c>
       <c r="B701" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B702" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B703" t="s">
         <v>1210</v>
@@ -12011,60 +12017,60 @@
         <v>1211</v>
       </c>
       <c r="B704" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B705" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B706" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B707" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B708" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B709" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B710" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B711" t="s">
         <v>1219</v>
@@ -12075,12 +12081,12 @@
         <v>1220</v>
       </c>
       <c r="B712" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B713" t="s">
         <v>1222</v>
@@ -12219,12 +12225,12 @@
         <v>1255</v>
       </c>
       <c r="B730" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B731" t="s">
         <v>1257</v>
@@ -12267,20 +12273,20 @@
         <v>1266</v>
       </c>
       <c r="B736" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B737" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B738" t="s">
         <v>1269</v>
@@ -12299,20 +12305,20 @@
         <v>1272</v>
       </c>
       <c r="B740" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B741" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B742" t="s">
         <v>1275</v>
@@ -12331,36 +12337,36 @@
         <v>1278</v>
       </c>
       <c r="B744" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B745" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B746" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B747" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B748" t="s">
         <v>1283</v>
@@ -12451,12 +12457,12 @@
         <v>1304</v>
       </c>
       <c r="B759" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B760" t="s">
         <v>1306</v>
@@ -12467,20 +12473,20 @@
         <v>1307</v>
       </c>
       <c r="B761" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B762" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B763" t="s">
         <v>1310</v>
@@ -12523,12 +12529,12 @@
         <v>1319</v>
       </c>
       <c r="B768" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B769" t="s">
         <v>1321</v>
@@ -12563,12 +12569,12 @@
         <v>1328</v>
       </c>
       <c r="B773" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B774" t="s">
         <v>1330</v>
@@ -12635,20 +12641,20 @@
         <v>1345</v>
       </c>
       <c r="B782" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B783" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B784" t="s">
         <v>1348</v>
@@ -12675,12 +12681,12 @@
         <v>1353</v>
       </c>
       <c r="B787" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B788" t="s">
         <v>1355</v>
@@ -12691,20 +12697,20 @@
         <v>1356</v>
       </c>
       <c r="B789" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B790" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B791" t="s">
         <v>1359</v>
@@ -12715,36 +12721,36 @@
         <v>1360</v>
       </c>
       <c r="B792" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B793" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B794" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B795" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B796" t="s">
         <v>1365</v>
@@ -12819,28 +12825,28 @@
         <v>1382</v>
       </c>
       <c r="B805" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B806" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B807" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B808" t="s">
         <v>1386</v>
@@ -12923,12 +12929,12 @@
         <v>1405</v>
       </c>
       <c r="B818" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B819" t="s">
         <v>1407</v>
@@ -12939,12 +12945,12 @@
         <v>1408</v>
       </c>
       <c r="B820" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B821" t="s">
         <v>1410</v>
@@ -12955,12 +12961,12 @@
         <v>1411</v>
       </c>
       <c r="B822" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B823" t="s">
         <v>1413</v>
@@ -12971,12 +12977,12 @@
         <v>1414</v>
       </c>
       <c r="B824" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B825" t="s">
         <v>1416</v>
@@ -12987,12 +12993,12 @@
         <v>1417</v>
       </c>
       <c r="B826" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B827" t="s">
         <v>1419</v>
@@ -13003,12 +13009,12 @@
         <v>1420</v>
       </c>
       <c r="B828" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B829" t="s">
         <v>1422</v>
@@ -13019,12 +13025,12 @@
         <v>1423</v>
       </c>
       <c r="B830" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B831" t="s">
         <v>1425</v>
@@ -13035,20 +13041,20 @@
         <v>1426</v>
       </c>
       <c r="B832" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B833" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B834" t="s">
         <v>1429</v>
@@ -13107,36 +13113,36 @@
         <v>1442</v>
       </c>
       <c r="B841" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B842" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B843" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B844" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B845" t="s">
         <v>1447</v>
@@ -13243,36 +13249,36 @@
         <v>1472</v>
       </c>
       <c r="B858" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B859" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B860" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B861" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B862" t="s">
         <v>1477</v>
@@ -13283,20 +13289,20 @@
         <v>1478</v>
       </c>
       <c r="B863" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B864" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B865" t="s">
         <v>1481</v>
@@ -13307,12 +13313,12 @@
         <v>1482</v>
       </c>
       <c r="B866" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B867" t="s">
         <v>1484</v>
@@ -13363,12 +13369,12 @@
         <v>1495</v>
       </c>
       <c r="B873" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B874" t="s">
         <v>1497</v>
@@ -13395,20 +13401,20 @@
         <v>1502</v>
       </c>
       <c r="B877" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B878" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B879" t="s">
         <v>1505</v>
@@ -13435,20 +13441,20 @@
         <v>1510</v>
       </c>
       <c r="B882" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B883" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B884" t="s">
         <v>1513</v>
@@ -13475,12 +13481,12 @@
         <v>1518</v>
       </c>
       <c r="B887" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B888" t="s">
         <v>1520</v>
@@ -13491,12 +13497,12 @@
         <v>1521</v>
       </c>
       <c r="B889" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B890" t="s">
         <v>1523</v>
@@ -13507,20 +13513,20 @@
         <v>1524</v>
       </c>
       <c r="B891" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B892" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B893" t="s">
         <v>1527</v>
@@ -13531,15 +13537,15 @@
         <v>1528</v>
       </c>
       <c r="B894" t="s">
-        <v>354</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B895" t="s">
-        <v>1530</v>
+        <v>354</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -13547,12 +13553,12 @@
         <v>1531</v>
       </c>
       <c r="B896" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B897" t="s">
         <v>1533</v>
@@ -13603,60 +13609,60 @@
         <v>1544</v>
       </c>
       <c r="B903" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B904" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B905" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B906" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B907" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B908" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B909" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B910" t="s">
         <v>1552</v>
@@ -13683,28 +13689,28 @@
         <v>1557</v>
       </c>
       <c r="B913" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B914" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B915" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B916" t="s">
         <v>1561</v>
@@ -13755,12 +13761,12 @@
         <v>1572</v>
       </c>
       <c r="B922" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B923" t="s">
         <v>1574</v>
@@ -13795,12 +13801,12 @@
         <v>1581</v>
       </c>
       <c r="B927" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B928" t="s">
         <v>1583</v>
@@ -13819,12 +13825,12 @@
         <v>1586</v>
       </c>
       <c r="B930" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B931" t="s">
         <v>1588</v>
@@ -13899,28 +13905,28 @@
         <v>1605</v>
       </c>
       <c r="B940" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B941" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B942" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B943" t="s">
         <v>1609</v>
@@ -13947,20 +13953,20 @@
         <v>1614</v>
       </c>
       <c r="B946" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B947" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B948" t="s">
         <v>1617</v>
@@ -13971,12 +13977,12 @@
         <v>1618</v>
       </c>
       <c r="B949" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B950" t="s">
         <v>1620</v>
@@ -14019,20 +14025,20 @@
         <v>1629</v>
       </c>
       <c r="B955" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B956" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B957" t="s">
         <v>1632</v>
@@ -14083,28 +14089,28 @@
         <v>1643</v>
       </c>
       <c r="B963" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B964" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B965" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B966" t="s">
         <v>1647</v>
@@ -14163,12 +14169,12 @@
         <v>1660</v>
       </c>
       <c r="B973" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B974" t="s">
         <v>1662</v>
@@ -14179,12 +14185,12 @@
         <v>1663</v>
       </c>
       <c r="B975" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B976" t="s">
         <v>1665</v>
@@ -14203,20 +14209,20 @@
         <v>1668</v>
       </c>
       <c r="B978" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B979" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B980" t="s">
         <v>1671</v>
@@ -14251,20 +14257,20 @@
         <v>1678</v>
       </c>
       <c r="B984" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B985" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B986" t="s">
         <v>1681</v>
@@ -14283,15 +14289,15 @@
         <v>1684</v>
       </c>
       <c r="B988" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B989" t="s">
         <v>1685</v>
-      </c>
-      <c r="B989" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -14315,12 +14321,12 @@
         <v>1691</v>
       </c>
       <c r="B992" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B993" t="s">
         <v>1693</v>
@@ -14339,12 +14345,12 @@
         <v>1696</v>
       </c>
       <c r="B995" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B996" t="s">
         <v>1698</v>
@@ -14355,12 +14361,12 @@
         <v>1699</v>
       </c>
       <c r="B997" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B998" t="s">
         <v>1701</v>
@@ -14395,20 +14401,20 @@
         <v>1708</v>
       </c>
       <c r="B1002" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1003" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B1004" t="s">
         <v>1711</v>
@@ -14435,36 +14441,36 @@
         <v>1716</v>
       </c>
       <c r="B1007" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B1008" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B1009" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B1010" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B1011" t="s">
         <v>1721</v>
@@ -14483,12 +14489,12 @@
         <v>1724</v>
       </c>
       <c r="B1013" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1014" t="s">
         <v>1726</v>
@@ -14499,20 +14505,20 @@
         <v>1727</v>
       </c>
       <c r="B1015" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B1016" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B1017" t="s">
         <v>1730</v>
@@ -14587,12 +14593,12 @@
         <v>1747</v>
       </c>
       <c r="B1026" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1027" t="s">
         <v>1749</v>
@@ -14619,36 +14625,36 @@
         <v>1754</v>
       </c>
       <c r="B1030" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B1031" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B1032" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B1033" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B1034" t="s">
         <v>1759</v>
@@ -14667,12 +14673,12 @@
         <v>1762</v>
       </c>
       <c r="B1036" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B1037" t="s">
         <v>1764</v>
@@ -14699,12 +14705,12 @@
         <v>1769</v>
       </c>
       <c r="B1040" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="B1041" t="s">
         <v>1771</v>
@@ -14723,12 +14729,12 @@
         <v>1774</v>
       </c>
       <c r="B1043" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="B1044" t="s">
         <v>1776</v>
@@ -14755,12 +14761,12 @@
         <v>1781</v>
       </c>
       <c r="B1047" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="B1048" t="s">
         <v>1783</v>
@@ -14851,12 +14857,12 @@
         <v>1804</v>
       </c>
       <c r="B1059" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B1060" t="s">
         <v>1806</v>
@@ -14955,12 +14961,12 @@
         <v>1829</v>
       </c>
       <c r="B1072" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B1073" t="s">
         <v>1831</v>
@@ -14971,28 +14977,28 @@
         <v>1832</v>
       </c>
       <c r="B1074" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B1075" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B1076" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B1077" t="s">
         <v>1836</v>
@@ -15003,12 +15009,12 @@
         <v>1837</v>
       </c>
       <c r="B1078" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B1079" t="s">
         <v>1839</v>
@@ -15027,12 +15033,12 @@
         <v>1842</v>
       </c>
       <c r="B1081" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B1082" t="s">
         <v>1844</v>
@@ -15099,20 +15105,20 @@
         <v>1859</v>
       </c>
       <c r="B1090" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B1091" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B1092" t="s">
         <v>1862</v>
@@ -15155,12 +15161,12 @@
         <v>1871</v>
       </c>
       <c r="B1097" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="B1098" t="s">
         <v>1873</v>
@@ -15187,12 +15193,12 @@
         <v>1878</v>
       </c>
       <c r="B1101" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="B1102" t="s">
         <v>1880</v>
@@ -15203,20 +15209,20 @@
         <v>1881</v>
       </c>
       <c r="B1103" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B1104" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="B1105" t="s">
         <v>1884</v>
@@ -15251,12 +15257,12 @@
         <v>1891</v>
       </c>
       <c r="B1109" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B1110" t="s">
         <v>1893</v>
@@ -15267,12 +15273,12 @@
         <v>1894</v>
       </c>
       <c r="B1111" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="B1112" t="s">
         <v>1896</v>
@@ -15427,28 +15433,28 @@
         <v>1933</v>
       </c>
       <c r="B1131" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="B1132" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="B1133" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B1134" t="s">
         <v>1937</v>
@@ -15459,12 +15465,12 @@
         <v>1938</v>
       </c>
       <c r="B1135" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B1136" t="s">
         <v>1940</v>
@@ -15483,28 +15489,28 @@
         <v>1943</v>
       </c>
       <c r="B1138" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="B1139" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="B1140" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="B1141" t="s">
         <v>1947</v>
@@ -15523,12 +15529,12 @@
         <v>1950</v>
       </c>
       <c r="B1143" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="B1144" t="s">
         <v>1952</v>
@@ -15571,12 +15577,12 @@
         <v>1961</v>
       </c>
       <c r="B1149" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="B1150" t="s">
         <v>1963</v>
@@ -15587,12 +15593,12 @@
         <v>1964</v>
       </c>
       <c r="B1151" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="B1152" t="s">
         <v>1966</v>
@@ -15627,36 +15633,36 @@
         <v>1973</v>
       </c>
       <c r="B1156" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B1157" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B1158" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B1159" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B1160" t="s">
         <v>1978</v>
@@ -15683,20 +15689,20 @@
         <v>1983</v>
       </c>
       <c r="B1163" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B1164" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B1165" t="s">
         <v>1986</v>
@@ -15707,36 +15713,36 @@
         <v>1987</v>
       </c>
       <c r="B1166" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B1167" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B1168" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B1169" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B1170" t="s">
         <v>1992</v>
@@ -15771,19 +15777,27 @@
         <v>1999</v>
       </c>
       <c r="B1174" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B1175" t="s">
         <v>2001</v>
       </c>
     </row>
+    <row r="1176" spans="1:2">
+      <c r="A1176" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>2003</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1175"/>
+  <autoFilter ref="A1:B1176"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/tr/headTags.xlsx
+++ b/lang/tr/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1177</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2006">
   <si>
     <t>en</t>
   </si>
@@ -3064,2965 +3064,2971 @@
     <t>Hypixel (Minion)</t>
   </si>
   <si>
+    <t>Hypixel (Mutations)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutasyonlar)</t>
+  </si>
+  <si>
+    <t>Hypixel (NPC)</t>
+  </si>
+  <si>
+    <t>Hypixel (Pets)</t>
+  </si>
+  <si>
+    <t>Hypixel (Evcil Hayvanlar)</t>
+  </si>
+  <si>
+    <t>Hypixel (Reforge Stone)</t>
+  </si>
+  <si>
+    <t>Hypixel (Sacks)</t>
+  </si>
+  <si>
+    <t>Hypixel (Skins)</t>
+  </si>
+  <si>
+    <t>Hypixel (Kaplamalar)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismans)</t>
+  </si>
+  <si>
+    <t>Hypixel (Tılsımlar)</t>
+  </si>
+  <si>
+    <t>Hypixel (Trophy Fish)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Land of the Lustrous)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Parıltılı Ülke)</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t>Buz Devri</t>
+  </si>
+  <si>
+    <t>Ice Climber</t>
+  </si>
+  <si>
+    <t>Buz Tırmanıcısı</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Dondurma</t>
+  </si>
+  <si>
+    <t>Icons (GUI)</t>
+  </si>
+  <si>
+    <t>Simgeler (GUI)</t>
+  </si>
+  <si>
+    <t>Icons (Ironblock)</t>
+  </si>
+  <si>
+    <t>Simgeler (Ironblock)</t>
+  </si>
+  <si>
+    <t>Icons (Other)</t>
+  </si>
+  <si>
+    <t>Simgeler (Diğer)</t>
+  </si>
+  <si>
+    <t>Icons (white background)</t>
+  </si>
+  <si>
+    <t>Simgeler (beyaz arka plan)</t>
+  </si>
+  <si>
+    <t>Identity V</t>
+  </si>
+  <si>
+    <t>Kimlik V</t>
+  </si>
+  <si>
+    <t>Illager</t>
+  </si>
+  <si>
+    <t>Inazuma Eleven</t>
+  </si>
+  <si>
+    <t>Incredibles</t>
+  </si>
+  <si>
+    <t>İnanılmaz Aile</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Indigo Park</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>Yaralanmalar</t>
+  </si>
+  <si>
+    <t>Inner Layer Block</t>
+  </si>
+  <si>
+    <t>İç Katman Bloğu</t>
+  </si>
+  <si>
+    <t>Inscryption</t>
+  </si>
+  <si>
+    <t>Şifreleme</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>Böcek</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>Tersyüz</t>
+  </si>
+  <si>
+    <t>Inu Yasha</t>
+  </si>
+  <si>
+    <t>Invader Zim</t>
+  </si>
+  <si>
+    <t>İstilacı Zim</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>Yenilmez</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>Demir Adam</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Bu</t>
+  </si>
+  <si>
+    <t>Jak and Daxter</t>
+  </si>
+  <si>
+    <t>Jak ve Daxter</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Japonya</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>Kavanoz</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>Takı</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure</t>
+  </si>
+  <si>
+    <t>JoJo'nun Tuhaf Macerası</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure (Stand)</t>
+  </si>
+  <si>
+    <t>JoJo'nun Tuhaf Maceraları (Stand)</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Yolculuk</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>Jump King</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>Adalet Birliği</t>
+  </si>
+  <si>
+    <t>Kaiju Paradise</t>
+  </si>
+  <si>
+    <t>Kaiju Cenneti</t>
+  </si>
+  <si>
+    <t>Kakegurui</t>
+  </si>
+  <si>
+    <t>Karate Kid</t>
+  </si>
+  <si>
+    <t>Karate Çocuk</t>
+  </si>
+  <si>
+    <t>Katamari Damacy</t>
+  </si>
+  <si>
+    <t>Kid Icarus</t>
+  </si>
+  <si>
+    <t>Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t>Kiki'nin Teslimat Servisi</t>
+  </si>
+  <si>
+    <t>Kill la Kill</t>
+  </si>
+  <si>
+    <t>Killzone</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Mutfak</t>
+  </si>
+  <si>
+    <t>KonoSuba</t>
+  </si>
+  <si>
+    <t>Koopalings</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda</t>
+  </si>
+  <si>
+    <t>Kuroko no Basuke</t>
+  </si>
+  <si>
+    <t>Lamp Shade</t>
+  </si>
+  <si>
+    <t>Abajur</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>Peyzaj</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>Fener</t>
+  </si>
+  <si>
+    <t>Laputa: Castle in the Sky</t>
+  </si>
+  <si>
+    <t>Laputa: Gökyüzündeki Kale</t>
+  </si>
+  <si>
+    <t>LazyTown</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>Left 4 Dead</t>
+  </si>
+  <si>
+    <t>Legendary Pokemon</t>
+  </si>
+  <si>
+    <t>Efsanevi Pokemon</t>
+  </si>
+  <si>
+    <t>Lego</t>
+  </si>
+  <si>
+    <t>Lethal League</t>
+  </si>
+  <si>
+    <t>Ölümcül Lig</t>
+  </si>
+  <si>
+    <t>Library of Ruina</t>
+  </si>
+  <si>
+    <t>Ruina Kütüphanesi</t>
+  </si>
+  <si>
+    <t>Life is Strange</t>
+  </si>
+  <si>
+    <t>Lilo &amp; Stitch</t>
+  </si>
+  <si>
+    <t>Limbus Company</t>
+  </si>
+  <si>
+    <t>Limbus Şirketi</t>
+  </si>
+  <si>
+    <t>Lion King</t>
+  </si>
+  <si>
+    <t>Aslan Kral</t>
+  </si>
+  <si>
+    <t>Little Big Planet</t>
+  </si>
+  <si>
+    <t>Küçük Büyük Gezegen</t>
+  </si>
+  <si>
+    <t>Little Mermaid</t>
+  </si>
+  <si>
+    <t>Küçük Deniz Kızı</t>
+  </si>
+  <si>
+    <t>Little Nightmares</t>
+  </si>
+  <si>
+    <t>Küçük Kabuslar</t>
+  </si>
+  <si>
+    <t>Little Shop of Horrors</t>
+  </si>
+  <si>
+    <t>Küçük Korku Dükkanı</t>
+  </si>
+  <si>
+    <t>Little Witch Academia</t>
+  </si>
+  <si>
+    <t>Küçük Cadı Akademisi</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>Lord of the Rings</t>
+  </si>
+  <si>
+    <t>Yüzüklerin Efendisi</t>
+  </si>
+  <si>
+    <t>Love Live!</t>
+  </si>
+  <si>
+    <t>Lovestruck Creature</t>
+  </si>
+  <si>
+    <t>Aşık Yaratık</t>
+  </si>
+  <si>
+    <t>Lovestruck Person</t>
+  </si>
+  <si>
+    <t>Aşık İnsan</t>
+  </si>
+  <si>
+    <t>Lucky Luke</t>
+  </si>
+  <si>
+    <t>Şanslı Luke</t>
+  </si>
+  <si>
+    <t>Machine Part</t>
+  </si>
+  <si>
+    <t>Makine Parçası</t>
+  </si>
+  <si>
+    <t>Mad Father</t>
+  </si>
+  <si>
+    <t>Çılgın Baba</t>
+  </si>
+  <si>
+    <t>Mad Max</t>
+  </si>
+  <si>
+    <t>Çılgın Max</t>
+  </si>
+  <si>
+    <t>Made in Abyss</t>
+  </si>
+  <si>
+    <t>Madness Combat</t>
+  </si>
+  <si>
+    <t>Çılgınlık Savaşı</t>
+  </si>
+  <si>
+    <t>Madoka Magica</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Makyaj</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Erkek</t>
+  </si>
+  <si>
+    <t>Mao Mao Heroes of Pure Heart</t>
+  </si>
+  <si>
+    <t>Mao Mao Saf Kalpli Kahramanlar</t>
+  </si>
+  <si>
+    <t>MapleStory</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>Mary and the Witch's Flower</t>
+  </si>
+  <si>
+    <t>Meryem ve Cadının Çiçeği</t>
+  </si>
+  <si>
+    <t>Mascot</t>
+  </si>
+  <si>
+    <t>Maskot</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Maske</t>
+  </si>
+  <si>
+    <t>Mask (full)</t>
+  </si>
+  <si>
+    <t>Maske (tam)</t>
+  </si>
+  <si>
+    <t>Mask (functional)</t>
+  </si>
+  <si>
+    <t>Maske (işlevsel)</t>
+  </si>
+  <si>
+    <t>Mask (health)</t>
+  </si>
+  <si>
+    <t>Maske (sağlık)</t>
+  </si>
+  <si>
+    <t>Mask (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>Maske (Minecraft çetesi)</t>
+  </si>
+  <si>
+    <t>Mass Effect</t>
+  </si>
+  <si>
+    <t>Masters of the Universe</t>
+  </si>
+  <si>
+    <t>Evrenin Efendileri</t>
+  </si>
+  <si>
+    <t>Mathematical Symbol</t>
+  </si>
+  <si>
+    <t>Matematiksel Sembol</t>
+  </si>
+  <si>
+    <t>Mc Donalds</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Yemek</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Et</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>Ortaçağ</t>
+  </si>
+  <si>
+    <t>Medieval Tavern</t>
+  </si>
+  <si>
+    <t>Ortaçağ Tavernası</t>
+  </si>
+  <si>
+    <t>Medieval Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Ortaçağ Savaş Miğferi</t>
+  </si>
+  <si>
+    <t>MediEvil</t>
+  </si>
+  <si>
+    <t>Mega Evolution</t>
+  </si>
+  <si>
+    <t>Mega Evrim</t>
+  </si>
+  <si>
+    <t>Megaman</t>
+  </si>
+  <si>
+    <t>Megami Tensei</t>
+  </si>
+  <si>
+    <t>Mekakucity Actors</t>
+  </si>
+  <si>
+    <t>Mekakucity Oyuncuları</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>Meme (Doge)</t>
+  </si>
+  <si>
+    <t>Meme (Pepe)</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Metal Gear</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Metroid</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Meksika</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>Military Equipment</t>
+  </si>
+  <si>
+    <t>Askeri Ekipman</t>
+  </si>
+  <si>
+    <t>Minecraft April Fools</t>
+  </si>
+  <si>
+    <t>Minecraft 1 Nisan Şakası</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock Sürümü</t>
+  </si>
+  <si>
+    <t>Minecraft Dungeons</t>
+  </si>
+  <si>
+    <t>Minecraft Zindanları</t>
+  </si>
+  <si>
+    <t>Minecraft Earth</t>
+  </si>
+  <si>
+    <t>Minecraft Dünya</t>
+  </si>
+  <si>
+    <t>Minecraft Education Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Eğitim Sürümü</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>Minecraft Efsaneleri</t>
+  </si>
+  <si>
+    <t>Minecraft Live</t>
+  </si>
+  <si>
+    <t>Minecraft Canlı</t>
+  </si>
+  <si>
+    <t>Minecraft Movie</t>
+  </si>
+  <si>
+    <t>Minecraft Filmi</t>
+  </si>
+  <si>
+    <t>Minecraft Story Mode</t>
+  </si>
+  <si>
+    <t>Minecraft Hikaye Modu</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Madenci</t>
+  </si>
+  <si>
+    <t>Minesweeper</t>
+  </si>
+  <si>
+    <t>Mayın Tarlası</t>
+  </si>
+  <si>
+    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>Mucizevi: Uğur Böceği ve Kara Kedi Hikayeleri</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Future Diary)</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Gelecek Günlüğü)</t>
+  </si>
+  <si>
+    <t>Mirror's Edge</t>
+  </si>
+  <si>
+    <t>Aynanın Kenarı</t>
+  </si>
+  <si>
+    <t>Miss Kobayashi's Dragon Maid</t>
+  </si>
+  <si>
+    <t>Bayan Kobayashi'nin Ejderha Hizmetçisi</t>
+  </si>
+  <si>
+    <t>Mizuno's Resource Pack</t>
+  </si>
+  <si>
+    <t>Mizuno'nun Kaynak Paketi</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>Modern Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Modern Savaş Kaskı</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Para</t>
+  </si>
+  <si>
+    <t>Money Heist</t>
+  </si>
+  <si>
+    <t>Para Soygunu</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Monitör</t>
+  </si>
+  <si>
+    <t>Monkey Island</t>
+  </si>
+  <si>
+    <t>Maymun Adası</t>
+  </si>
+  <si>
+    <t>Monocle</t>
+  </si>
+  <si>
+    <t>Monster High</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
+  </si>
+  <si>
+    <t>Canavar Avcısı</t>
+  </si>
+  <si>
+    <t>Monsters Inc</t>
+  </si>
+  <si>
+    <t>Canavarlar Şirketi</t>
+  </si>
+  <si>
+    <t>Moomin</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Kargaşa Binekleri</t>
+  </si>
+  <si>
+    <t>Mouthwashing</t>
+  </si>
+  <si>
+    <t>Ağız Yıkama</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>Mulan</t>
+  </si>
+  <si>
+    <t>Mundo Gaturro</t>
+  </si>
+  <si>
+    <t>Muppets</t>
+  </si>
+  <si>
+    <t>Murder Drones</t>
+  </si>
+  <si>
+    <t>Cinayet Dronları</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Mantar</t>
+  </si>
+  <si>
+    <t>Mushroom (Biome)</t>
+  </si>
+  <si>
+    <t>Mantar (Biyom)</t>
+  </si>
+  <si>
+    <t>Mushroom (Headwear)</t>
+  </si>
+  <si>
+    <t>Mantar (Şapkalar)</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Müzik</t>
+  </si>
+  <si>
+    <t>Mustache</t>
+  </si>
+  <si>
+    <t>Bıyık</t>
+  </si>
+  <si>
+    <t>My Deer Friend Nokotan</t>
+  </si>
+  <si>
+    <t>Geyik Arkadaşım Nokotan</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>Benim Kahraman Akademim</t>
+  </si>
+  <si>
+    <t>My Little Pony</t>
+  </si>
+  <si>
+    <t>Benim Küçük Midillim</t>
+  </si>
+  <si>
+    <t>My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t>Komşum Totoro</t>
+  </si>
+  <si>
+    <t>My Singing Monsters</t>
+  </si>
+  <si>
+    <t>Şarkı Söyleyen Canavarlarım</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>Rüzgar Vadisi'nin Nausicaä'sı</t>
+  </si>
+  <si>
+    <t>Nekopara</t>
+  </si>
+  <si>
+    <t>Neon Genesis Evangelion</t>
+  </si>
+  <si>
+    <t>Nether (inspired)</t>
+  </si>
+  <si>
+    <t>Nether (ilham)</t>
+  </si>
+  <si>
+    <t>Nether (vanilla)</t>
+  </si>
+  <si>
+    <t>Nether (vanilya)</t>
+  </si>
+  <si>
+    <t>Neutral Creature</t>
+  </si>
+  <si>
+    <t>Nötr Yaratık</t>
+  </si>
+  <si>
+    <t>Neutral Person</t>
+  </si>
+  <si>
+    <t>Tarafsız Kişi</t>
+  </si>
+  <si>
+    <t>New Year's Eve</t>
+  </si>
+  <si>
+    <t>Yeni Yıl Arifesi</t>
+  </si>
+  <si>
+    <t>NieR: Automata</t>
+  </si>
+  <si>
+    <t>Night in the Woods</t>
+  </si>
+  <si>
+    <t>Ormanda Gece</t>
+  </si>
+  <si>
+    <t>Nightmare Before Christmas</t>
+  </si>
+  <si>
+    <t>Noel Öncesi Kabus</t>
+  </si>
+  <si>
+    <t>Ninja Turtles</t>
+  </si>
+  <si>
+    <t>Ninja Kaplumbağalar</t>
+  </si>
+  <si>
+    <t>No Game No Life</t>
+  </si>
+  <si>
+    <t>Oyun Yoksa Hayat da Yok</t>
+  </si>
+  <si>
+    <t>No Man's Sky</t>
+  </si>
+  <si>
+    <t>Noel's House Party</t>
+  </si>
+  <si>
+    <t>Noel'in Ev Partisi</t>
+  </si>
+  <si>
+    <t>Norse Mythology</t>
+  </si>
+  <si>
+    <t>İskandinav Mitolojisi</t>
+  </si>
+  <si>
+    <t>NPC (Education Edition)</t>
+  </si>
+  <si>
+    <t>NPC (Eğitim Sürümü)</t>
+  </si>
+  <si>
+    <t>Nuclear Fallout</t>
+  </si>
+  <si>
+    <t>Nükleer Serpinti</t>
+  </si>
+  <si>
+    <t>Nuclear Throne</t>
+  </si>
+  <si>
+    <t>Nükleer Taht</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Sayı</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Fındık</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Okyanus</t>
+  </si>
+  <si>
+    <t>Octodad</t>
+  </si>
+  <si>
+    <t>Oddworld</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>KAPALI</t>
+  </si>
+  <si>
+    <t>Officer Cap</t>
+  </si>
+  <si>
+    <t>Memur Şapkası</t>
+  </si>
+  <si>
+    <t>Oggy and the Cockroaches</t>
+  </si>
+  <si>
+    <t>Oggy ve Hamamböcekleri</t>
+  </si>
+  <si>
+    <t>Okegom</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Eski</t>
+  </si>
+  <si>
+    <t>Oliver &amp; Co</t>
+  </si>
+  <si>
+    <t>Omori</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>Tek Parça</t>
+  </si>
+  <si>
+    <t>One Punch Man</t>
+  </si>
+  <si>
+    <t>OneShot</t>
+  </si>
+  <si>
+    <t>Ongezellig</t>
+  </si>
+  <si>
+    <t>Onii-chan wa Oshimai</t>
+  </si>
+  <si>
+    <t>Open Source Objects</t>
+  </si>
+  <si>
+    <t>Açık Kaynak Nesneler</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>Küre</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Ork</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Cevher</t>
+  </si>
+  <si>
+    <t>Organs and Bodyparts</t>
+  </si>
+  <si>
+    <t>Organlar ve Vücut Parçaları</t>
+  </si>
+  <si>
+    <t>Other Headgear</t>
+  </si>
+  <si>
+    <t>Diğer Başlıklar</t>
+  </si>
+  <si>
+    <t>Other Illumination</t>
+  </si>
+  <si>
+    <t>Diğer Aydınlatmalar</t>
+  </si>
+  <si>
+    <t>Other Mystic Creature</t>
+  </si>
+  <si>
+    <t>Diğer Mistik Yaratık</t>
+  </si>
+  <si>
+    <t>Outer Layer Block</t>
+  </si>
+  <si>
+    <t>Dış Katman Bloğu</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>Pacific Rim</t>
+  </si>
+  <si>
+    <t>Pasifik Kıyıları</t>
+  </si>
+  <si>
+    <t>Pacifier</t>
+  </si>
+  <si>
+    <t>Emzik</t>
+  </si>
+  <si>
+    <t>Painted Face</t>
+  </si>
+  <si>
+    <t>Boyalı Yüz</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspired)</t>
+  </si>
+  <si>
+    <t>Solgun Bahçe (ilham)</t>
+  </si>
+  <si>
+    <t>Panda Bear</t>
+  </si>
+  <si>
+    <t>Panda Ayı</t>
+  </si>
+  <si>
+    <t>Pans Labyrinth</t>
+  </si>
+  <si>
+    <t>Tavalar Labirenti</t>
+  </si>
+  <si>
+    <t>Papers Please</t>
+  </si>
+  <si>
+    <t>Kağıtlar Lütfen</t>
+  </si>
+  <si>
+    <t>PaRappa the Rapper</t>
+  </si>
+  <si>
+    <t>Rapçi PaRappa</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Parti</t>
+  </si>
+  <si>
+    <t>Pastries and Sweets</t>
+  </si>
+  <si>
+    <t>Hamur İşleri ve Tatlılar</t>
+  </si>
+  <si>
+    <t>Paw Patrol</t>
+  </si>
+  <si>
+    <t>Payday</t>
+  </si>
+  <si>
+    <t>Ödeme Günü</t>
+  </si>
+  <si>
+    <t>Peanuts (Snoopy)</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Penguen</t>
+  </si>
+  <si>
+    <t>Peppa Pig</t>
+  </si>
+  <si>
+    <t>Periodic Table of Elements</t>
+  </si>
+  <si>
+    <t>Elementlerin Periyodik Tablosu</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Pet Equipment</t>
+  </si>
+  <si>
+    <t>Evcil Hayvan Ekipmanları</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Fantom</t>
+  </si>
+  <si>
+    <t>Phineas &amp; Ferb</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Domuz</t>
+  </si>
+  <si>
+    <t>Piglin</t>
+  </si>
+  <si>
+    <t>Pigman</t>
+  </si>
+  <si>
+    <t>Domuz Adam</t>
+  </si>
+  <si>
+    <t>Pikmin</t>
+  </si>
+  <si>
+    <t>Pingu</t>
+  </si>
+  <si>
+    <t>Pink Panther</t>
+  </si>
+  <si>
+    <t>Pembe Panter</t>
+  </si>
+  <si>
+    <t>Pinky and the Brain</t>
+  </si>
+  <si>
+    <t>Pinky ve Beyin</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Pinokyo</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean</t>
+  </si>
+  <si>
+    <t>Karayip Korsanları</t>
+  </si>
+  <si>
+    <t>Pizza Tower</t>
+  </si>
+  <si>
+    <t>Pizza Kulesi</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>Gezegen</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies</t>
+  </si>
+  <si>
+    <t>Bitkiler Zombilere Karşı</t>
+  </si>
+  <si>
+    <t>Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 1</t>
+  </si>
+  <si>
+    <t>Pokemon Nesil 1</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 2</t>
+  </si>
+  <si>
+    <t>Pokemon 2. Nesil</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 3</t>
+  </si>
+  <si>
+    <t>Pokemon 3. Nesil</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 4</t>
+  </si>
+  <si>
+    <t>Pokemon 4. Nesil</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 5</t>
+  </si>
+  <si>
+    <t>Pokemon 5. Nesil</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 6</t>
+  </si>
+  <si>
+    <t>Pokemon 6. Nesil</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 7</t>
+  </si>
+  <si>
+    <t>Pokemon 7. Nesil</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 8</t>
+  </si>
+  <si>
+    <t>Pokemon 8. Nesil</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 9</t>
+  </si>
+  <si>
+    <t>Pokemon 9. Nesil</t>
+  </si>
+  <si>
+    <t>Pokemon Items</t>
+  </si>
+  <si>
+    <t>Pokemon Eşyaları</t>
+  </si>
+  <si>
+    <t>Pokemon Trainer</t>
+  </si>
+  <si>
+    <t>Pokemon Eğitmeni</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>Kutup Ayısı</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Polis</t>
+  </si>
+  <si>
+    <t>Pom Poko</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t>Pop Team Epic</t>
+  </si>
+  <si>
+    <t>POPGOES</t>
+  </si>
+  <si>
+    <t>Poppy Playtime</t>
+  </si>
+  <si>
+    <t>Poppy Oyun Zamanı</t>
+  </si>
+  <si>
+    <t>Porco Rosso</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Postman Pat</t>
+  </si>
+  <si>
+    <t>Postacı Pat</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>Powerpuff Girls</t>
+  </si>
+  <si>
+    <t>Powerpuff Kızları</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>Yırtıcı</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Mevcut</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>Gurur</t>
+  </si>
+  <si>
+    <t>Primate</t>
+  </si>
+  <si>
+    <t>Primat</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>Prenses Mononoke</t>
+  </si>
+  <si>
+    <t>Prof Layton</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Balkabağı</t>
+  </si>
+  <si>
+    <t>Pumpkin (Lit)</t>
+  </si>
+  <si>
+    <t>Balkabağı (Lit)</t>
+  </si>
+  <si>
+    <t>Punctuation Mark</t>
+  </si>
+  <si>
+    <t>Noktalama İşareti</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Tavşan</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>Demiryolu</t>
+  </si>
+  <si>
+    <t>Rain World</t>
+  </si>
+  <si>
+    <t>Yağmur Dünyası</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank</t>
+  </si>
+  <si>
+    <t>Re:Creators</t>
+  </si>
+  <si>
+    <t>Re:Yaratıcılar</t>
+  </si>
+  <si>
+    <t>Re:Zero</t>
+  </si>
+  <si>
+    <t>Re:Sıfır</t>
+  </si>
+  <si>
+    <t>Realm of the Mad God</t>
+  </si>
+  <si>
+    <t>Deli Tanrı'nın Diyarı</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>Red Riding Hood</t>
+  </si>
+  <si>
+    <t>Kırmızı Başlıklı Kız</t>
+  </si>
+  <si>
+    <t>Redstone</t>
+  </si>
+  <si>
+    <t>Regional Form Pokemon</t>
+  </si>
+  <si>
+    <t>Bölgesel Form Pokemonları</t>
+  </si>
+  <si>
+    <t>Regretavator</t>
+  </si>
+  <si>
+    <t>Regular Show</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Din</t>
+  </si>
+  <si>
+    <t>Reptile</t>
+  </si>
+  <si>
+    <t>Rescue Rangers</t>
+  </si>
+  <si>
+    <t>Kurtarma Korucuları</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>Rhythm Heaven</t>
+  </si>
+  <si>
+    <t>Ritim Cenneti</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>Kurdele</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>Rick ve Morty</t>
+  </si>
+  <si>
+    <t>Risk of Rain</t>
+  </si>
+  <si>
+    <t>Yağmur Riski</t>
+  </si>
+  <si>
+    <t>Rival of Aether</t>
+  </si>
+  <si>
+    <t>Aether'in Rakibi</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Nehir</t>
+  </si>
+  <si>
+    <t>Riverdale</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>RoboCop</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Rocky Horror Picture Show</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>Kemirgen</t>
+  </si>
+  <si>
+    <t>Rotated Entity</t>
+  </si>
+  <si>
+    <t>Döndürülmüş Varlık</t>
+  </si>
+  <si>
+    <t>Royal Headgear</t>
+  </si>
+  <si>
+    <t>Kraliyet Başlığı</t>
+  </si>
+  <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>Runescape</t>
+  </si>
+  <si>
+    <t>RWBY</t>
+  </si>
+  <si>
+    <t>Sackboy: A Big Adventure</t>
+  </si>
+  <si>
+    <t>Sackboy Büyük Bir Macera</t>
+  </si>
+  <si>
+    <t>Sad Creature</t>
+  </si>
+  <si>
+    <t>Hüzünlü Yaratık</t>
+  </si>
+  <si>
+    <t>Sad Person</t>
+  </si>
+  <si>
+    <t>Üzgün İnsan</t>
+  </si>
+  <si>
+    <t>Safari (Other)</t>
+  </si>
+  <si>
+    <t>Safari (Diğer)</t>
+  </si>
+  <si>
+    <t>Saga of Tanya the Evil</t>
+  </si>
+  <si>
+    <t>Kötü Tanya'nın Destanı</t>
+  </si>
+  <si>
+    <t>Sailor Moon</t>
+  </si>
+  <si>
+    <t>Ay Savaşçısı</t>
+  </si>
+  <si>
+    <t>Sakurasou no Pet na Kanojo</t>
+  </si>
+  <si>
+    <t>Samurai Helmet</t>
+  </si>
+  <si>
+    <t>Samuray Kaskı</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>Tatmin edici</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Testere</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>Eşarp</t>
+  </si>
+  <si>
+    <t>Scooby-Doo</t>
+  </si>
+  <si>
+    <t>SCP Containment Breach</t>
+  </si>
+  <si>
+    <t>SCP Muhafaza İhlali</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>Çığlık</t>
+  </si>
+  <si>
+    <t>Scribblenauts</t>
+  </si>
+  <si>
+    <t>Sea of Thieves</t>
+  </si>
+  <si>
+    <t>Hırsızlar Denizi</t>
+  </si>
+  <si>
+    <t>Seafarer</t>
+  </si>
+  <si>
+    <t>Denizci</t>
+  </si>
+  <si>
+    <t>Seraph of the End</t>
+  </si>
+  <si>
+    <t>Sonun Seraph'ı</t>
+  </si>
+  <si>
+    <t>Serial Experiments Lain</t>
+  </si>
+  <si>
+    <t>Seri Deneyler Lain</t>
+  </si>
+  <si>
+    <t>Sesame Street</t>
+  </si>
+  <si>
+    <t>Susam Sokağı</t>
+  </si>
+  <si>
+    <t>Seven Deadly Sins</t>
+  </si>
+  <si>
+    <t>Yedi Ölümcül Günah</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>Colossus'un Gölgesi</t>
+  </si>
+  <si>
+    <t>Shadows of Mordor</t>
+  </si>
+  <si>
+    <t>Mordor'un Gölgeleri</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Koyun</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Shigatsu wa Kimi no Uso</t>
+  </si>
+  <si>
+    <t>Shimoneta</t>
+  </si>
+  <si>
+    <t>Shiny Pokemon</t>
+  </si>
+  <si>
+    <t>Parlak Pokemon</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Nakliye</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>Kürek Şövalyesi</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>Shulker</t>
+  </si>
+  <si>
+    <t>Silent Hill</t>
+  </si>
+  <si>
+    <t>Sessiz Tepe</t>
+  </si>
+  <si>
+    <t>SilvaGunner</t>
+  </si>
+  <si>
+    <t>Simpsons</t>
+  </si>
+  <si>
+    <t>Simpsonlar</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>İskelet</t>
+  </si>
+  <si>
+    <t>Skeleton (Vanilla)</t>
+  </si>
+  <si>
+    <t>İskelet (Vanilya)</t>
+  </si>
+  <si>
+    <t>Skeptical Creature</t>
+  </si>
+  <si>
+    <t>Şüpheci Yaratık</t>
+  </si>
+  <si>
+    <t>Skeptical Person</t>
+  </si>
+  <si>
+    <t>Şüpheci Kişi</t>
+  </si>
+  <si>
+    <t>Skullgirls</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>Sleeping Beauty</t>
+  </si>
+  <si>
+    <t>Uyuyan Güzel</t>
+  </si>
+  <si>
+    <t>Sleeping Creature</t>
+  </si>
+  <si>
+    <t>Uyuyan Yaratık</t>
+  </si>
+  <si>
+    <t>Sleeping Person</t>
+  </si>
+  <si>
+    <t>Uyuyan Kişi</t>
+  </si>
+  <si>
+    <t>Sliced</t>
+  </si>
+  <si>
+    <t>Dilimlenmiş</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>Balçık</t>
+  </si>
+  <si>
+    <t>Slime (Vanilla)</t>
+  </si>
+  <si>
+    <t>Slime (Vanilya)</t>
+  </si>
+  <si>
+    <t>Slime Rancher</t>
+  </si>
+  <si>
+    <t>Slimefun</t>
+  </si>
+  <si>
+    <t>Sly Cooper</t>
+  </si>
+  <si>
+    <t>Smite Gods</t>
+  </si>
+  <si>
+    <t>Tanrıları Parçala</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Sigara içmek</t>
+  </si>
+  <si>
+    <t>Smurfs</t>
+  </si>
+  <si>
+    <t>Şirinler</t>
+  </si>
+  <si>
+    <t>Snow Fight</t>
+  </si>
+  <si>
+    <t>Karla Mücadele</t>
+  </si>
+  <si>
+    <t>Snow Sculpture</t>
+  </si>
+  <si>
+    <t>Kar Heykeli</t>
+  </si>
+  <si>
+    <t>Snow White and the Seven Dwarfs</t>
+  </si>
+  <si>
+    <t>Pamuk Prenses ve Yedi Cüceler</t>
+  </si>
+  <si>
+    <t>Songs of War</t>
+  </si>
+  <si>
+    <t>Savaş Şarkıları</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog</t>
+  </si>
+  <si>
+    <t>Soul Knight</t>
+  </si>
+  <si>
+    <t>Ruh Şövalyesi</t>
+  </si>
+  <si>
+    <t>South Park</t>
+  </si>
+  <si>
+    <t>Space Travel</t>
+  </si>
+  <si>
+    <t>Uzay Yolculuğu</t>
+  </si>
+  <si>
+    <t>Spawn Egg</t>
+  </si>
+  <si>
+    <t>Yumurtlama Yumurtası</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>Spelunky</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Örümcek</t>
+  </si>
+  <si>
+    <t>Spider (Vanilla)</t>
+  </si>
+  <si>
+    <t>Örümcek (Vanilya)</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>Örümcek Adam</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>Ruhların Kaçışı</t>
+  </si>
+  <si>
+    <t>Splatoon</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>Spooky's Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>Spooky'nin Atlama Korku Konağı</t>
+  </si>
+  <si>
+    <t>Spore</t>
+  </si>
+  <si>
+    <t>Spor</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Spreads</t>
+  </si>
+  <si>
+    <t>Spreadler</t>
+  </si>
+  <si>
+    <t>Spring to Life</t>
+  </si>
+  <si>
+    <t>Hayata Bahar</t>
+  </si>
+  <si>
+    <t>Spy x Family</t>
+  </si>
+  <si>
+    <t>Casus x Aile</t>
+  </si>
+  <si>
+    <t>Spyro</t>
+  </si>
+  <si>
+    <t>Squid Game</t>
+  </si>
+  <si>
+    <t>Kalamar Oyunu</t>
+  </si>
+  <si>
+    <t>St. Patrick's Day</t>
+  </si>
+  <si>
+    <t>Aziz Patrick Günü</t>
+  </si>
+  <si>
+    <t>StackUp</t>
+  </si>
+  <si>
+    <t>Star Fox</t>
+  </si>
+  <si>
+    <t>Yıldız Tilki</t>
+  </si>
+  <si>
+    <t>Star Trek</t>
+  </si>
+  <si>
+    <t>Star vs the Forces of Evil</t>
+  </si>
+  <si>
+    <t>Yıldız Kötülük Güçlerine Karşı</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Yıldız Savaşları</t>
+  </si>
+  <si>
+    <t>Star Wars Helmet</t>
+  </si>
+  <si>
+    <t>Yıldız Savaşları Kaskı</t>
+  </si>
+  <si>
+    <t>Star Wars Trooper Helmet</t>
+  </si>
+  <si>
+    <t>Yıldız Savaşları Asker Kaskı</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>StarCraft</t>
+  </si>
+  <si>
+    <t>Stardew Valley</t>
+  </si>
+  <si>
+    <t>Stardew Vadisi</t>
+  </si>
+  <si>
+    <t>Starter Pokemon</t>
+  </si>
+  <si>
+    <t>Başlangıç Pokemonları</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Kırtasiye Malzemeleri</t>
+  </si>
+  <si>
+    <t>Steampunk</t>
+  </si>
+  <si>
+    <t>Steins;Gate</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Steven Universe</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Taş</t>
+  </si>
+  <si>
+    <t>Storage (other)</t>
+  </si>
+  <si>
+    <t>Depolama (diğer)</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>Street Fighter</t>
+  </si>
+  <si>
+    <t>Sokak Dövüşçüsü</t>
+  </si>
+  <si>
+    <t>Strider</t>
+  </si>
+  <si>
+    <t>Subnautica</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Yaz</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Güneş Gözlüğü</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>Süper Mario</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>Doğaüstü</t>
+  </si>
+  <si>
+    <t>Surprised Creature</t>
+  </si>
+  <si>
+    <t>Sürpriz Yaratık</t>
+  </si>
+  <si>
+    <t>Surprised Person</t>
+  </si>
+  <si>
+    <t>Şaşırmış Kişi</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Suşi</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Bataklık</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>Kılıç Sanatı Çevrimiçi</t>
+  </si>
+  <si>
+    <t>TaleSpin</t>
+  </si>
+  <si>
+    <t>Tangled</t>
+  </si>
+  <si>
+    <t>Karmakarışık</t>
+  </si>
+  <si>
+    <t>Tattletail</t>
+  </si>
+  <si>
+    <t>Gammaz</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>Takım Kalesi 2</t>
+  </si>
+  <si>
+    <t>Teletubbies</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>Terraria (Calamity)</t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>Şükran Günü</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime</t>
+  </si>
+  <si>
+    <t>Slime Olarak Reenkarne Olduğum Zaman</t>
+  </si>
+  <si>
+    <t>Thaumcraft</t>
+  </si>
+  <si>
+    <t>The Adventures of Tintin</t>
+  </si>
+  <si>
+    <t>Tenten'in Maceraları</t>
+  </si>
+  <si>
+    <t>The Amazing Digital Circus</t>
+  </si>
+  <si>
+    <t>İnanılmaz Dijital Sirk</t>
+  </si>
+  <si>
+    <t>The Amazing World of Gumball</t>
+  </si>
+  <si>
+    <t>Gumball'ın İnanılmaz Dünyası</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac</t>
+  </si>
+  <si>
+    <t>The Boys</t>
+  </si>
+  <si>
+    <t>Çocuklar</t>
+  </si>
+  <si>
+    <t>The Cat Returns</t>
+  </si>
+  <si>
+    <t>Kedi Geri Dönüyor</t>
+  </si>
+  <si>
+    <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>The Copper Age</t>
+  </si>
+  <si>
+    <t>Bakır Çağı</t>
+  </si>
+  <si>
+    <t>The Emperor's New Groove</t>
+  </si>
+  <si>
+    <t>İmparatorun Yeni Groove'u</t>
+  </si>
+  <si>
+    <t>The English Ensemble Stars</t>
+  </si>
+  <si>
+    <t>İngiliz Topluluk Yıldızları</t>
+  </si>
+  <si>
+    <t>The Fairly OddParents</t>
+  </si>
+  <si>
+    <t>The Finals</t>
+  </si>
+  <si>
+    <t>Finaller</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>Flash</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>Çakmaktaşlar</t>
+  </si>
+  <si>
+    <t>The Fly</t>
+  </si>
+  <si>
+    <t>Sinek</t>
+  </si>
+  <si>
+    <t>The Garden Awakens</t>
+  </si>
+  <si>
+    <t>Bahçe Uyanıyor</t>
+  </si>
+  <si>
+    <t>The Good Dinosaur</t>
+  </si>
+  <si>
+    <t>İyi Dinozor</t>
+  </si>
+  <si>
+    <t>The Great Mouse Detective</t>
+  </si>
+  <si>
+    <t>Büyük Fare Dedektifi</t>
+  </si>
+  <si>
+    <t>The Grim Adventures of Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>Billy ve Mandy'nin Korkunç Maceraları</t>
+  </si>
+  <si>
+    <t>The Hunchback of Notre Dame</t>
+  </si>
+  <si>
+    <t>Notre Dame'ın Kamburu</t>
+  </si>
+  <si>
+    <t>The Iron Giant</t>
+  </si>
+  <si>
+    <t>Demir Dev</t>
+  </si>
+  <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
+    <t>Son Muhafız</t>
+  </si>
+  <si>
+    <t>The Last of Us</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>Zelda Efsanesi</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>Loraks</t>
+  </si>
+  <si>
+    <t>The Neverhood</t>
+  </si>
+  <si>
+    <t>Hiçlik</t>
+  </si>
+  <si>
+    <t>The Owl House</t>
+  </si>
+  <si>
+    <t>Baykuş Evi</t>
+  </si>
+  <si>
+    <t>The Princess and the Frog</t>
+  </si>
+  <si>
+    <t>Prenses ve Kurbağa</t>
+  </si>
+  <si>
+    <t>The Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>Ren &amp; Stimpy Şov</t>
+  </si>
+  <si>
+    <t>The Road to El Dorado</t>
+  </si>
+  <si>
+    <t>El Dorado'ya Giden Yol</t>
+  </si>
+  <si>
+    <t>The Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>Teksas Testere Katliamı</t>
+  </si>
+  <si>
+    <t>The Three Caballeros</t>
+  </si>
+  <si>
+    <t>Üç Caballeros</t>
+  </si>
+  <si>
+    <t>The Walten Files</t>
+  </si>
+  <si>
+    <t>Walten Dosyaları</t>
+  </si>
+  <si>
+    <t>The Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>Woody Ağaçkakan Gösterisi</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Friends</t>
+  </si>
+  <si>
+    <t>Thomas ve Arkadaşları</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Those Nights at Rachel's</t>
+  </si>
+  <si>
+    <t>Rachel'ın Geceleri</t>
+  </si>
+  <si>
+    <t>Tinker's Construct</t>
+  </si>
+  <si>
+    <t>Titanfall</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Tom ve Jerry</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>Tomorrow's Pioneers</t>
+  </si>
+  <si>
+    <t>Yarının Öncüleri</t>
+  </si>
+  <si>
+    <t>Tooth Gap</t>
+  </si>
+  <si>
+    <t>Diş Boşluğu</t>
+  </si>
+  <si>
+    <t>Toradora</t>
+  </si>
+  <si>
+    <t>Total Drama Island</t>
+  </si>
+  <si>
+    <t>Toplam Drama Adası</t>
+  </si>
+  <si>
+    <t>Touhou Project</t>
+  </si>
+  <si>
+    <t>Touhou Projesi</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>Oyuncak</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Oyuncak Hikayesi</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>Trafik</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>Trafik Işığı</t>
+  </si>
+  <si>
+    <t>Traffic Sign</t>
+  </si>
+  <si>
+    <t>Trafik İşareti</t>
+  </si>
+  <si>
+    <t>Trails and Tales</t>
+  </si>
+  <si>
+    <t>İzler ve Masallar</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Transformice</t>
+  </si>
+  <si>
+    <t>Transparent Head</t>
+  </si>
+  <si>
+    <t>Şeffaf Kafa</t>
+  </si>
+  <si>
+    <t>Trash Can</t>
+  </si>
+  <si>
+    <t>Çöp Kovası</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Hazine</t>
+  </si>
+  <si>
+    <t>Treasure Planet</t>
+  </si>
+  <si>
+    <t>Hazine Gezegeni</t>
+  </si>
+  <si>
+    <t>Tricky Trials Update</t>
+  </si>
+  <si>
+    <t>Zorlu Denemeler Güncellemesi</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Kaplumbağa</t>
+  </si>
+  <si>
+    <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>Alacakaranlık Ormanı</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Twisted Harikalar Diyarı</t>
+  </si>
+  <si>
+    <t>Ultrakill</t>
+  </si>
+  <si>
+    <t>Umineko - When They Cry</t>
+  </si>
+  <si>
+    <t>Umineko - Ağladıklarında</t>
+  </si>
+  <si>
+    <t>Undertale</t>
+  </si>
+  <si>
+    <t>Undertale AU</t>
+  </si>
+  <si>
+    <t>Undertale Yellow</t>
+  </si>
+  <si>
+    <t>Undertale Sarı</t>
+  </si>
+  <si>
+    <t>Universal Symbol</t>
+  </si>
+  <si>
+    <t>Evrensel Sembol</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Yukarı</t>
+  </si>
+  <si>
+    <t>Urban Wildlife</t>
+  </si>
+  <si>
+    <t>Kentsel Yaban Hayatı</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>Valentines</t>
+  </si>
+  <si>
+    <t>Sevgililer Günü</t>
+  </si>
+  <si>
+    <t>Valorant</t>
+  </si>
+  <si>
+    <t>Vanilla (removed)</t>
+  </si>
+  <si>
+    <t>Vanilya (kaldırıldı)</t>
+  </si>
+  <si>
+    <t>Vanilla Block</t>
+  </si>
+  <si>
+    <t>Vanilya Bloğu</t>
+  </si>
+  <si>
+    <t>Vanilla Food</t>
+  </si>
+  <si>
+    <t>Vanilyalı Yiyecek</t>
+  </si>
+  <si>
+    <t>Vanilla Helmet</t>
+  </si>
+  <si>
+    <t>Vanilya Kask</t>
+  </si>
+  <si>
+    <t>Vanilla Item</t>
+  </si>
+  <si>
+    <t>Vanilya Eşyası</t>
+  </si>
+  <si>
+    <t>Vanilla Mob</t>
+  </si>
+  <si>
+    <t>Vanilya Çetesi</t>
+  </si>
+  <si>
+    <t>Vault Hunters</t>
+  </si>
+  <si>
+    <t>Kasa Avcıları</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Sebze</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Araç</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>Vikingler</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>Köylü</t>
+  </si>
+  <si>
+    <t>Villager (Desert)</t>
+  </si>
+  <si>
+    <t>Köylü (Çöl)</t>
+  </si>
+  <si>
+    <t>Villager (Jungle)</t>
+  </si>
+  <si>
+    <t>Köylü (Orman)</t>
+  </si>
+  <si>
+    <t>Villager (Plains)</t>
+  </si>
+  <si>
+    <t>Köylü (Ovalar)</t>
+  </si>
+  <si>
+    <t>Villager (Savanna)</t>
+  </si>
+  <si>
+    <t>Köylü (Savanna)</t>
+  </si>
+  <si>
+    <t>Villager (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>Köylü (Karlı Tundra)</t>
+  </si>
+  <si>
+    <t>Villager (Swamp)</t>
+  </si>
+  <si>
+    <t>Köylü (Bataklık)</t>
+  </si>
+  <si>
+    <t>Villager (Taiga)</t>
+  </si>
+  <si>
+    <t>Köylü (Tayga)</t>
+  </si>
+  <si>
+    <t>Virtual Youtuber</t>
+  </si>
+  <si>
+    <t>Sanal Youtuber</t>
+  </si>
+  <si>
+    <t>Vocaloid</t>
+  </si>
+  <si>
+    <t>Voltron</t>
+  </si>
+  <si>
+    <t>Wakfu</t>
+  </si>
+  <si>
+    <t>Walking Dead</t>
+  </si>
+  <si>
+    <t>Yürüyen Ölüler</t>
+  </si>
+  <si>
+    <t>Wall-E</t>
+  </si>
+  <si>
+    <t>Wallace and Gromit</t>
+  </si>
+  <si>
+    <t>Wallace ve Gromit</t>
+  </si>
+  <si>
+    <t>War of the Worlds</t>
+  </si>
+  <si>
+    <t>Dünyalar Savaşı</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>Warrior Cats</t>
+  </si>
+  <si>
+    <t>Savaşçı Kediler</t>
+  </si>
+  <si>
+    <t>We Bear Bears</t>
+  </si>
+  <si>
+    <t>Biz Ayılar</t>
+  </si>
+  <si>
+    <t>We Happy Few</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Hava Durumu</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>Evinize Hoş Geldiniz</t>
+  </si>
+  <si>
+    <t>Who is this?</t>
+  </si>
+  <si>
+    <t>Kim bu?</t>
+  </si>
+  <si>
+    <t>Wild Update</t>
+  </si>
+  <si>
+    <t>Vahşi Güncelleme</t>
+  </si>
+  <si>
+    <t>Wings of Fire</t>
+  </si>
+  <si>
+    <t>Ateşin Kanatları</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Kış</t>
+  </si>
+  <si>
+    <t>Witcher</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World</t>
+  </si>
+  <si>
+    <t>Harika Harikalar Dünyası</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Ahşap</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>Yün</t>
+  </si>
+  <si>
+    <t>Work Safety Helmet</t>
+  </si>
+  <si>
+    <t>İş Güvenliği Bareti</t>
+  </si>
+  <si>
+    <t>Wreck It Ralph</t>
+  </si>
+  <si>
+    <t>Wybel</t>
+  </si>
+  <si>
+    <t>Wynncraft</t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>Xenoblade Günlükleri</t>
+  </si>
+  <si>
+    <t>Yandere Simulator</t>
+  </si>
+  <si>
+    <t>Yandere Simülatörü</t>
+  </si>
+  <si>
+    <t>Yellow Submarine</t>
+  </si>
+  <si>
+    <t>Sarı Denizaltı</t>
+  </si>
+  <si>
+    <t>Yokai</t>
+  </si>
+  <si>
+    <t>Yooka Laylee</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Genç</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>Yume Nikki</t>
+  </si>
+  <si>
+    <t>Zero no Tsukaima</t>
+  </si>
+  <si>
+    <t>Zero Wing</t>
+  </si>
+  <si>
+    <t>Sıfır Kanat</t>
+  </si>
+  <si>
+    <t>Zodiac Sign</t>
+  </si>
+  <si>
+    <t>Zodyak Burcu</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Zombi</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>Zombi (Vanilya)</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
     <t>Hypixel (Mutations) Tag</t>
   </si>
   <si>
     <t>Hypixel (Mutasyonlar) Etiketi</t>
-  </si>
-  <si>
-    <t>Hypixel (NPC)</t>
-  </si>
-  <si>
-    <t>Hypixel (Pets)</t>
-  </si>
-  <si>
-    <t>Hypixel (Evcil Hayvanlar)</t>
-  </si>
-  <si>
-    <t>Hypixel (Reforge Stone)</t>
-  </si>
-  <si>
-    <t>Hypixel (Sacks)</t>
-  </si>
-  <si>
-    <t>Hypixel (Skins)</t>
-  </si>
-  <si>
-    <t>Hypixel (Kaplamalar)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismans)</t>
-  </si>
-  <si>
-    <t>Hypixel (Tılsımlar)</t>
-  </si>
-  <si>
-    <t>Hypixel (Trophy Fish)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Land of the Lustrous)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Parıltılı Ülke)</t>
-  </si>
-  <si>
-    <t>Ib</t>
-  </si>
-  <si>
-    <t>Ice Age</t>
-  </si>
-  <si>
-    <t>Buz Devri</t>
-  </si>
-  <si>
-    <t>Ice Climber</t>
-  </si>
-  <si>
-    <t>Buz Tırmanıcısı</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Dondurma</t>
-  </si>
-  <si>
-    <t>Icons (GUI)</t>
-  </si>
-  <si>
-    <t>Simgeler (GUI)</t>
-  </si>
-  <si>
-    <t>Icons (Ironblock)</t>
-  </si>
-  <si>
-    <t>Simgeler (Ironblock)</t>
-  </si>
-  <si>
-    <t>Icons (Other)</t>
-  </si>
-  <si>
-    <t>Simgeler (Diğer)</t>
-  </si>
-  <si>
-    <t>Icons (white background)</t>
-  </si>
-  <si>
-    <t>Simgeler (beyaz arka plan)</t>
-  </si>
-  <si>
-    <t>Identity V</t>
-  </si>
-  <si>
-    <t>Kimlik V</t>
-  </si>
-  <si>
-    <t>Illager</t>
-  </si>
-  <si>
-    <t>Inazuma Eleven</t>
-  </si>
-  <si>
-    <t>Incredibles</t>
-  </si>
-  <si>
-    <t>İnanılmaz Aile</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Indigo Park</t>
-  </si>
-  <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>Yaralanmalar</t>
-  </si>
-  <si>
-    <t>Inner Layer Block</t>
-  </si>
-  <si>
-    <t>İç Katman Bloğu</t>
-  </si>
-  <si>
-    <t>Inscryption</t>
-  </si>
-  <si>
-    <t>Şifreleme</t>
-  </si>
-  <si>
-    <t>Insect</t>
-  </si>
-  <si>
-    <t>Böcek</t>
-  </si>
-  <si>
-    <t>Inside Out</t>
-  </si>
-  <si>
-    <t>Tersyüz</t>
-  </si>
-  <si>
-    <t>Inu Yasha</t>
-  </si>
-  <si>
-    <t>Invader Zim</t>
-  </si>
-  <si>
-    <t>İstilacı Zim</t>
-  </si>
-  <si>
-    <t>Invincible</t>
-  </si>
-  <si>
-    <t>Yenilmez</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>Demir Adam</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>Bu</t>
-  </si>
-  <si>
-    <t>Jak and Daxter</t>
-  </si>
-  <si>
-    <t>Jak ve Daxter</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Japonya</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>Kavanoz</t>
-  </si>
-  <si>
-    <t>Jewelry</t>
-  </si>
-  <si>
-    <t>Takı</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure</t>
-  </si>
-  <si>
-    <t>JoJo'nun Tuhaf Macerası</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure (Stand)</t>
-  </si>
-  <si>
-    <t>JoJo'nun Tuhaf Maceraları (Stand)</t>
-  </si>
-  <si>
-    <t>Journey</t>
-  </si>
-  <si>
-    <t>Yolculuk</t>
-  </si>
-  <si>
-    <t>Jujutsu Kaisen</t>
-  </si>
-  <si>
-    <t>Jump King</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
-    <t>Justice League</t>
-  </si>
-  <si>
-    <t>Adalet Birliği</t>
-  </si>
-  <si>
-    <t>Kaiju Paradise</t>
-  </si>
-  <si>
-    <t>Kaiju Cenneti</t>
-  </si>
-  <si>
-    <t>Kakegurui</t>
-  </si>
-  <si>
-    <t>Karate Kid</t>
-  </si>
-  <si>
-    <t>Karate Çocuk</t>
-  </si>
-  <si>
-    <t>Katamari Damacy</t>
-  </si>
-  <si>
-    <t>Kid Icarus</t>
-  </si>
-  <si>
-    <t>Kiki's Delivery Service</t>
-  </si>
-  <si>
-    <t>Kiki'nin Teslimat Servisi</t>
-  </si>
-  <si>
-    <t>Kill la Kill</t>
-  </si>
-  <si>
-    <t>Killzone</t>
-  </si>
-  <si>
-    <t>Kim Possible</t>
-  </si>
-  <si>
-    <t>Kimetsu no Yaiba</t>
-  </si>
-  <si>
-    <t>Kingdom Hearts</t>
-  </si>
-  <si>
-    <t>Kirby</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>Mutfak</t>
-  </si>
-  <si>
-    <t>KonoSuba</t>
-  </si>
-  <si>
-    <t>Koopalings</t>
-  </si>
-  <si>
-    <t>Kung Fu Panda</t>
-  </si>
-  <si>
-    <t>Kuroko no Basuke</t>
-  </si>
-  <si>
-    <t>Lamp Shade</t>
-  </si>
-  <si>
-    <t>Abajur</t>
-  </si>
-  <si>
-    <t>Landscape</t>
-  </si>
-  <si>
-    <t>Peyzaj</t>
-  </si>
-  <si>
-    <t>Lantern</t>
-  </si>
-  <si>
-    <t>Fener</t>
-  </si>
-  <si>
-    <t>Laputa: Castle in the Sky</t>
-  </si>
-  <si>
-    <t>Laputa: Gökyüzündeki Kale</t>
-  </si>
-  <si>
-    <t>LazyTown</t>
-  </si>
-  <si>
-    <t>League of Legends</t>
-  </si>
-  <si>
-    <t>Left 4 Dead</t>
-  </si>
-  <si>
-    <t>Legendary Pokemon</t>
-  </si>
-  <si>
-    <t>Efsanevi Pokemon</t>
-  </si>
-  <si>
-    <t>Lego</t>
-  </si>
-  <si>
-    <t>Lethal League</t>
-  </si>
-  <si>
-    <t>Ölümcül Lig</t>
-  </si>
-  <si>
-    <t>Library of Ruina</t>
-  </si>
-  <si>
-    <t>Ruina Kütüphanesi</t>
-  </si>
-  <si>
-    <t>Life is Strange</t>
-  </si>
-  <si>
-    <t>Lilo &amp; Stitch</t>
-  </si>
-  <si>
-    <t>Limbus Company</t>
-  </si>
-  <si>
-    <t>Limbus Şirketi</t>
-  </si>
-  <si>
-    <t>Lion King</t>
-  </si>
-  <si>
-    <t>Aslan Kral</t>
-  </si>
-  <si>
-    <t>Little Big Planet</t>
-  </si>
-  <si>
-    <t>Küçük Büyük Gezegen</t>
-  </si>
-  <si>
-    <t>Little Mermaid</t>
-  </si>
-  <si>
-    <t>Küçük Deniz Kızı</t>
-  </si>
-  <si>
-    <t>Little Nightmares</t>
-  </si>
-  <si>
-    <t>Küçük Kabuslar</t>
-  </si>
-  <si>
-    <t>Little Shop of Horrors</t>
-  </si>
-  <si>
-    <t>Küçük Korku Dükkanı</t>
-  </si>
-  <si>
-    <t>Little Witch Academia</t>
-  </si>
-  <si>
-    <t>Küçük Cadı Akademisi</t>
-  </si>
-  <si>
-    <t>Llama</t>
-  </si>
-  <si>
-    <t>Lama</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>Looney Tunes</t>
-  </si>
-  <si>
-    <t>Lord of the Rings</t>
-  </si>
-  <si>
-    <t>Yüzüklerin Efendisi</t>
-  </si>
-  <si>
-    <t>Love Live!</t>
-  </si>
-  <si>
-    <t>Lovestruck Creature</t>
-  </si>
-  <si>
-    <t>Aşık Yaratık</t>
-  </si>
-  <si>
-    <t>Lovestruck Person</t>
-  </si>
-  <si>
-    <t>Aşık İnsan</t>
-  </si>
-  <si>
-    <t>Lucky Luke</t>
-  </si>
-  <si>
-    <t>Şanslı Luke</t>
-  </si>
-  <si>
-    <t>Machine Part</t>
-  </si>
-  <si>
-    <t>Makine Parçası</t>
-  </si>
-  <si>
-    <t>Mad Father</t>
-  </si>
-  <si>
-    <t>Çılgın Baba</t>
-  </si>
-  <si>
-    <t>Mad Max</t>
-  </si>
-  <si>
-    <t>Çılgın Max</t>
-  </si>
-  <si>
-    <t>Made in Abyss</t>
-  </si>
-  <si>
-    <t>Madness Combat</t>
-  </si>
-  <si>
-    <t>Çılgınlık Savaşı</t>
-  </si>
-  <si>
-    <t>Madoka Magica</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Makyaj</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Erkek</t>
-  </si>
-  <si>
-    <t>Mao Mao Heroes of Pure Heart</t>
-  </si>
-  <si>
-    <t>Mao Mao Saf Kalpli Kahramanlar</t>
-  </si>
-  <si>
-    <t>MapleStory</t>
-  </si>
-  <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>Mary and the Witch's Flower</t>
-  </si>
-  <si>
-    <t>Meryem ve Cadının Çiçeği</t>
-  </si>
-  <si>
-    <t>Mascot</t>
-  </si>
-  <si>
-    <t>Maskot</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>Maske</t>
-  </si>
-  <si>
-    <t>Mask (full)</t>
-  </si>
-  <si>
-    <t>Maske (tam)</t>
-  </si>
-  <si>
-    <t>Mask (functional)</t>
-  </si>
-  <si>
-    <t>Maske (işlevsel)</t>
-  </si>
-  <si>
-    <t>Mask (health)</t>
-  </si>
-  <si>
-    <t>Maske (sağlık)</t>
-  </si>
-  <si>
-    <t>Mask (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>Maske (Minecraft çetesi)</t>
-  </si>
-  <si>
-    <t>Mass Effect</t>
-  </si>
-  <si>
-    <t>Masters of the Universe</t>
-  </si>
-  <si>
-    <t>Evrenin Efendileri</t>
-  </si>
-  <si>
-    <t>Mathematical Symbol</t>
-  </si>
-  <si>
-    <t>Matematiksel Sembol</t>
-  </si>
-  <si>
-    <t>Mc Donalds</t>
-  </si>
-  <si>
-    <t>Meal</t>
-  </si>
-  <si>
-    <t>Yemek</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Et</t>
-  </si>
-  <si>
-    <t>Medieval</t>
-  </si>
-  <si>
-    <t>Ortaçağ</t>
-  </si>
-  <si>
-    <t>Medieval Tavern</t>
-  </si>
-  <si>
-    <t>Ortaçağ Tavernası</t>
-  </si>
-  <si>
-    <t>Medieval Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Ortaçağ Savaş Miğferi</t>
-  </si>
-  <si>
-    <t>MediEvil</t>
-  </si>
-  <si>
-    <t>Mega Evolution</t>
-  </si>
-  <si>
-    <t>Mega Evrim</t>
-  </si>
-  <si>
-    <t>Megaman</t>
-  </si>
-  <si>
-    <t>Megami Tensei</t>
-  </si>
-  <si>
-    <t>Mekakucity Actors</t>
-  </si>
-  <si>
-    <t>Mekakucity Oyuncuları</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>Meme (Doge)</t>
-  </si>
-  <si>
-    <t>Meme (Pepe)</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Metal Gear</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>Metroid</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Meksika</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>Military Equipment</t>
-  </si>
-  <si>
-    <t>Askeri Ekipman</t>
-  </si>
-  <si>
-    <t>Minecraft April Fools</t>
-  </si>
-  <si>
-    <t>Minecraft 1 Nisan Şakası</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock Sürümü</t>
-  </si>
-  <si>
-    <t>Minecraft Dungeons</t>
-  </si>
-  <si>
-    <t>Minecraft Zindanları</t>
-  </si>
-  <si>
-    <t>Minecraft Earth</t>
-  </si>
-  <si>
-    <t>Minecraft Dünya</t>
-  </si>
-  <si>
-    <t>Minecraft Education Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Eğitim Sürümü</t>
-  </si>
-  <si>
-    <t>Minecraft Legends</t>
-  </si>
-  <si>
-    <t>Minecraft Efsaneleri</t>
-  </si>
-  <si>
-    <t>Minecraft Live</t>
-  </si>
-  <si>
-    <t>Minecraft Canlı</t>
-  </si>
-  <si>
-    <t>Minecraft Movie</t>
-  </si>
-  <si>
-    <t>Minecraft Filmi</t>
-  </si>
-  <si>
-    <t>Minecraft Story Mode</t>
-  </si>
-  <si>
-    <t>Minecraft Hikaye Modu</t>
-  </si>
-  <si>
-    <t>Miner</t>
-  </si>
-  <si>
-    <t>Madenci</t>
-  </si>
-  <si>
-    <t>Minesweeper</t>
-  </si>
-  <si>
-    <t>Mayın Tarlası</t>
-  </si>
-  <si>
-    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>Mucizevi: Uğur Böceği ve Kara Kedi Hikayeleri</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Future Diary)</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Gelecek Günlüğü)</t>
-  </si>
-  <si>
-    <t>Mirror's Edge</t>
-  </si>
-  <si>
-    <t>Aynanın Kenarı</t>
-  </si>
-  <si>
-    <t>Miss Kobayashi's Dragon Maid</t>
-  </si>
-  <si>
-    <t>Bayan Kobayashi'nin Ejderha Hizmetçisi</t>
-  </si>
-  <si>
-    <t>Mizuno's Resource Pack</t>
-  </si>
-  <si>
-    <t>Mizuno'nun Kaynak Paketi</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>Modern Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Modern Savaş Kaskı</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Para</t>
-  </si>
-  <si>
-    <t>Money Heist</t>
-  </si>
-  <si>
-    <t>Para Soygunu</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Monitör</t>
-  </si>
-  <si>
-    <t>Monkey Island</t>
-  </si>
-  <si>
-    <t>Maymun Adası</t>
-  </si>
-  <si>
-    <t>Monocle</t>
-  </si>
-  <si>
-    <t>Monster High</t>
-  </si>
-  <si>
-    <t>Monster Hunter</t>
-  </si>
-  <si>
-    <t>Canavar Avcısı</t>
-  </si>
-  <si>
-    <t>Monsters Inc</t>
-  </si>
-  <si>
-    <t>Canavarlar Şirketi</t>
-  </si>
-  <si>
-    <t>Moomin</t>
-  </si>
-  <si>
-    <t>Mortal Kombat</t>
-  </si>
-  <si>
-    <t>Mounts of Mayhem</t>
-  </si>
-  <si>
-    <t>Kargaşa Binekleri</t>
-  </si>
-  <si>
-    <t>Mouthwashing</t>
-  </si>
-  <si>
-    <t>Ağız Yıkama</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>Mulan</t>
-  </si>
-  <si>
-    <t>Mundo Gaturro</t>
-  </si>
-  <si>
-    <t>Muppets</t>
-  </si>
-  <si>
-    <t>Murder Drones</t>
-  </si>
-  <si>
-    <t>Cinayet Dronları</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>Mantar</t>
-  </si>
-  <si>
-    <t>Mushroom (Biome)</t>
-  </si>
-  <si>
-    <t>Mantar (Biyom)</t>
-  </si>
-  <si>
-    <t>Mushroom (Headwear)</t>
-  </si>
-  <si>
-    <t>Mantar (Şapkalar)</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Müzik</t>
-  </si>
-  <si>
-    <t>Mustache</t>
-  </si>
-  <si>
-    <t>Bıyık</t>
-  </si>
-  <si>
-    <t>My Deer Friend Nokotan</t>
-  </si>
-  <si>
-    <t>Geyik Arkadaşım Nokotan</t>
-  </si>
-  <si>
-    <t>My Hero Academia</t>
-  </si>
-  <si>
-    <t>Benim Kahraman Akademim</t>
-  </si>
-  <si>
-    <t>My Little Pony</t>
-  </si>
-  <si>
-    <t>Benim Küçük Midillim</t>
-  </si>
-  <si>
-    <t>My Neighbor Totoro</t>
-  </si>
-  <si>
-    <t>Komşum Totoro</t>
-  </si>
-  <si>
-    <t>My Singing Monsters</t>
-  </si>
-  <si>
-    <t>Şarkı Söyleyen Canavarlarım</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>Nausicaä of the Valley of the Wind</t>
-  </si>
-  <si>
-    <t>Rüzgar Vadisi'nin Nausicaä'sı</t>
-  </si>
-  <si>
-    <t>Nekopara</t>
-  </si>
-  <si>
-    <t>Neon Genesis Evangelion</t>
-  </si>
-  <si>
-    <t>Nether (inspired)</t>
-  </si>
-  <si>
-    <t>Nether (ilham)</t>
-  </si>
-  <si>
-    <t>Nether (vanilla)</t>
-  </si>
-  <si>
-    <t>Nether (vanilya)</t>
-  </si>
-  <si>
-    <t>Neutral Creature</t>
-  </si>
-  <si>
-    <t>Nötr Yaratık</t>
-  </si>
-  <si>
-    <t>Neutral Person</t>
-  </si>
-  <si>
-    <t>Tarafsız Kişi</t>
-  </si>
-  <si>
-    <t>New Year's Eve</t>
-  </si>
-  <si>
-    <t>Yeni Yıl Arifesi</t>
-  </si>
-  <si>
-    <t>NieR: Automata</t>
-  </si>
-  <si>
-    <t>Night in the Woods</t>
-  </si>
-  <si>
-    <t>Ormanda Gece</t>
-  </si>
-  <si>
-    <t>Nightmare Before Christmas</t>
-  </si>
-  <si>
-    <t>Noel Öncesi Kabus</t>
-  </si>
-  <si>
-    <t>Ninja Turtles</t>
-  </si>
-  <si>
-    <t>Ninja Kaplumbağalar</t>
-  </si>
-  <si>
-    <t>No Game No Life</t>
-  </si>
-  <si>
-    <t>Oyun Yoksa Hayat da Yok</t>
-  </si>
-  <si>
-    <t>No Man's Sky</t>
-  </si>
-  <si>
-    <t>Noel's House Party</t>
-  </si>
-  <si>
-    <t>Noel'in Ev Partisi</t>
-  </si>
-  <si>
-    <t>Norse Mythology</t>
-  </si>
-  <si>
-    <t>İskandinav Mitolojisi</t>
-  </si>
-  <si>
-    <t>NPC (Education Edition)</t>
-  </si>
-  <si>
-    <t>NPC (Eğitim Sürümü)</t>
-  </si>
-  <si>
-    <t>Nuclear Fallout</t>
-  </si>
-  <si>
-    <t>Nükleer Serpinti</t>
-  </si>
-  <si>
-    <t>Nuclear Throne</t>
-  </si>
-  <si>
-    <t>Nükleer Taht</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Sayı</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>Fındık</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>Okyanus</t>
-  </si>
-  <si>
-    <t>Octodad</t>
-  </si>
-  <si>
-    <t>Oddworld</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>KAPALI</t>
-  </si>
-  <si>
-    <t>Officer Cap</t>
-  </si>
-  <si>
-    <t>Memur Şapkası</t>
-  </si>
-  <si>
-    <t>Oggy and the Cockroaches</t>
-  </si>
-  <si>
-    <t>Oggy ve Hamamböcekleri</t>
-  </si>
-  <si>
-    <t>Okegom</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>Eski</t>
-  </si>
-  <si>
-    <t>Oliver &amp; Co</t>
-  </si>
-  <si>
-    <t>Omori</t>
-  </si>
-  <si>
-    <t>One Piece</t>
-  </si>
-  <si>
-    <t>Tek Parça</t>
-  </si>
-  <si>
-    <t>One Punch Man</t>
-  </si>
-  <si>
-    <t>OneShot</t>
-  </si>
-  <si>
-    <t>Ongezellig</t>
-  </si>
-  <si>
-    <t>Onii-chan wa Oshimai</t>
-  </si>
-  <si>
-    <t>Open Source Objects</t>
-  </si>
-  <si>
-    <t>Açık Kaynak Nesneler</t>
-  </si>
-  <si>
-    <t>Orb</t>
-  </si>
-  <si>
-    <t>Küre</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>Ork</t>
-  </si>
-  <si>
-    <t>Ore</t>
-  </si>
-  <si>
-    <t>Cevher</t>
-  </si>
-  <si>
-    <t>Organs and Bodyparts</t>
-  </si>
-  <si>
-    <t>Organlar ve Vücut Parçaları</t>
-  </si>
-  <si>
-    <t>Other Headgear</t>
-  </si>
-  <si>
-    <t>Diğer Başlıklar</t>
-  </si>
-  <si>
-    <t>Other Illumination</t>
-  </si>
-  <si>
-    <t>Diğer Aydınlatmalar</t>
-  </si>
-  <si>
-    <t>Other Mystic Creature</t>
-  </si>
-  <si>
-    <t>Diğer Mistik Yaratık</t>
-  </si>
-  <si>
-    <t>Outer Layer Block</t>
-  </si>
-  <si>
-    <t>Dış Katman Bloğu</t>
-  </si>
-  <si>
-    <t>Overlord</t>
-  </si>
-  <si>
-    <t>Overwatch</t>
-  </si>
-  <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>Pacific Rim</t>
-  </si>
-  <si>
-    <t>Pasifik Kıyıları</t>
-  </si>
-  <si>
-    <t>Pacifier</t>
-  </si>
-  <si>
-    <t>Emzik</t>
-  </si>
-  <si>
-    <t>Painted Face</t>
-  </si>
-  <si>
-    <t>Boyalı Yüz</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspired)</t>
-  </si>
-  <si>
-    <t>Solgun Bahçe (ilham)</t>
-  </si>
-  <si>
-    <t>Panda Bear</t>
-  </si>
-  <si>
-    <t>Panda Ayı</t>
-  </si>
-  <si>
-    <t>Pans Labyrinth</t>
-  </si>
-  <si>
-    <t>Tavalar Labirenti</t>
-  </si>
-  <si>
-    <t>Papers Please</t>
-  </si>
-  <si>
-    <t>Kağıtlar Lütfen</t>
-  </si>
-  <si>
-    <t>PaRappa the Rapper</t>
-  </si>
-  <si>
-    <t>Rapçi PaRappa</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>Parti</t>
-  </si>
-  <si>
-    <t>Pastries and Sweets</t>
-  </si>
-  <si>
-    <t>Hamur İşleri ve Tatlılar</t>
-  </si>
-  <si>
-    <t>Paw Patrol</t>
-  </si>
-  <si>
-    <t>Payday</t>
-  </si>
-  <si>
-    <t>Ödeme Günü</t>
-  </si>
-  <si>
-    <t>Peanuts (Snoopy)</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>Penguen</t>
-  </si>
-  <si>
-    <t>Peppa Pig</t>
-  </si>
-  <si>
-    <t>Periodic Table of Elements</t>
-  </si>
-  <si>
-    <t>Elementlerin Periyodik Tablosu</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Pet Equipment</t>
-  </si>
-  <si>
-    <t>Evcil Hayvan Ekipmanları</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>Fantom</t>
-  </si>
-  <si>
-    <t>Phineas &amp; Ferb</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>Domuz</t>
-  </si>
-  <si>
-    <t>Piglin</t>
-  </si>
-  <si>
-    <t>Pigman</t>
-  </si>
-  <si>
-    <t>Domuz Adam</t>
-  </si>
-  <si>
-    <t>Pikmin</t>
-  </si>
-  <si>
-    <t>Pingu</t>
-  </si>
-  <si>
-    <t>Pink Panther</t>
-  </si>
-  <si>
-    <t>Pembe Panter</t>
-  </si>
-  <si>
-    <t>Pinky and the Brain</t>
-  </si>
-  <si>
-    <t>Pinky ve Beyin</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Pinokyo</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean</t>
-  </si>
-  <si>
-    <t>Karayip Korsanları</t>
-  </si>
-  <si>
-    <t>Pizza Tower</t>
-  </si>
-  <si>
-    <t>Pizza Kulesi</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>Gezegen</t>
-  </si>
-  <si>
-    <t>Plants vs. Zombies</t>
-  </si>
-  <si>
-    <t>Bitkiler Zombilere Karşı</t>
-  </si>
-  <si>
-    <t>Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>Pokeball</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 1</t>
-  </si>
-  <si>
-    <t>Pokemon Nesil 1</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 2</t>
-  </si>
-  <si>
-    <t>Pokemon 2. Nesil</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 3</t>
-  </si>
-  <si>
-    <t>Pokemon 3. Nesil</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 4</t>
-  </si>
-  <si>
-    <t>Pokemon 4. Nesil</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 5</t>
-  </si>
-  <si>
-    <t>Pokemon 5. Nesil</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 6</t>
-  </si>
-  <si>
-    <t>Pokemon 6. Nesil</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 7</t>
-  </si>
-  <si>
-    <t>Pokemon 7. Nesil</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 8</t>
-  </si>
-  <si>
-    <t>Pokemon 8. Nesil</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 9</t>
-  </si>
-  <si>
-    <t>Pokemon 9. Nesil</t>
-  </si>
-  <si>
-    <t>Pokemon Items</t>
-  </si>
-  <si>
-    <t>Pokemon Eşyaları</t>
-  </si>
-  <si>
-    <t>Pokemon Trainer</t>
-  </si>
-  <si>
-    <t>Pokemon Eğitmeni</t>
-  </si>
-  <si>
-    <t>Polar Bear</t>
-  </si>
-  <si>
-    <t>Kutup Ayısı</t>
-  </si>
-  <si>
-    <t>Police</t>
-  </si>
-  <si>
-    <t>Polis</t>
-  </si>
-  <si>
-    <t>Pom Poko</t>
-  </si>
-  <si>
-    <t>Ponyo</t>
-  </si>
-  <si>
-    <t>Pop Team Epic</t>
-  </si>
-  <si>
-    <t>POPGOES</t>
-  </si>
-  <si>
-    <t>Poppy Playtime</t>
-  </si>
-  <si>
-    <t>Poppy Oyun Zamanı</t>
-  </si>
-  <si>
-    <t>Porco Rosso</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>Postman Pat</t>
-  </si>
-  <si>
-    <t>Postacı Pat</t>
-  </si>
-  <si>
-    <t>Power Rangers</t>
-  </si>
-  <si>
-    <t>Powerpuff Girls</t>
-  </si>
-  <si>
-    <t>Powerpuff Kızları</t>
-  </si>
-  <si>
-    <t>Predator</t>
-  </si>
-  <si>
-    <t>Yırtıcı</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Mevcut</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>Gurur</t>
-  </si>
-  <si>
-    <t>Primate</t>
-  </si>
-  <si>
-    <t>Primat</t>
-  </si>
-  <si>
-    <t>Princess Mononoke</t>
-  </si>
-  <si>
-    <t>Prenses Mononoke</t>
-  </si>
-  <si>
-    <t>Prof Layton</t>
-  </si>
-  <si>
-    <t>Pumpkin</t>
-  </si>
-  <si>
-    <t>Balkabağı</t>
-  </si>
-  <si>
-    <t>Pumpkin (Lit)</t>
-  </si>
-  <si>
-    <t>Balkabağı (Lit)</t>
-  </si>
-  <si>
-    <t>Punctuation Mark</t>
-  </si>
-  <si>
-    <t>Noktalama İşareti</t>
-  </si>
-  <si>
-    <t>Quake</t>
-  </si>
-  <si>
-    <t>R.E.P.O.</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Tavşan</t>
-  </si>
-  <si>
-    <t>Railway</t>
-  </si>
-  <si>
-    <t>Demiryolu</t>
-  </si>
-  <si>
-    <t>Rain World</t>
-  </si>
-  <si>
-    <t>Yağmur Dünyası</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank</t>
-  </si>
-  <si>
-    <t>Re:Creators</t>
-  </si>
-  <si>
-    <t>Re:Yaratıcılar</t>
-  </si>
-  <si>
-    <t>Re:Zero</t>
-  </si>
-  <si>
-    <t>Re:Sıfır</t>
-  </si>
-  <si>
-    <t>Realm of the Mad God</t>
-  </si>
-  <si>
-    <t>Deli Tanrı'nın Diyarı</t>
-  </si>
-  <si>
-    <t>Red Dead Redemption</t>
-  </si>
-  <si>
-    <t>Red Riding Hood</t>
-  </si>
-  <si>
-    <t>Kırmızı Başlıklı Kız</t>
-  </si>
-  <si>
-    <t>Redstone</t>
-  </si>
-  <si>
-    <t>Regional Form Pokemon</t>
-  </si>
-  <si>
-    <t>Bölgesel Form Pokemonları</t>
-  </si>
-  <si>
-    <t>Regretavator</t>
-  </si>
-  <si>
-    <t>Regular Show</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Din</t>
-  </si>
-  <si>
-    <t>Reptile</t>
-  </si>
-  <si>
-    <t>Rescue Rangers</t>
-  </si>
-  <si>
-    <t>Kurtarma Korucuları</t>
-  </si>
-  <si>
-    <t>Resident Evil</t>
-  </si>
-  <si>
-    <t>Rhythm Heaven</t>
-  </si>
-  <si>
-    <t>Ritim Cenneti</t>
-  </si>
-  <si>
-    <t>Ribbon</t>
-  </si>
-  <si>
-    <t>Kurdele</t>
-  </si>
-  <si>
-    <t>Rick and Morty</t>
-  </si>
-  <si>
-    <t>Rick ve Morty</t>
-  </si>
-  <si>
-    <t>Risk of Rain</t>
-  </si>
-  <si>
-    <t>Yağmur Riski</t>
-  </si>
-  <si>
-    <t>Rival of Aether</t>
-  </si>
-  <si>
-    <t>Aether'in Rakibi</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Nehir</t>
-  </si>
-  <si>
-    <t>Riverdale</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>Roblox</t>
-  </si>
-  <si>
-    <t>RoboCop</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>Rocky Horror Picture Show</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
-    <t>Kemirgen</t>
-  </si>
-  <si>
-    <t>Rotated Entity</t>
-  </si>
-  <si>
-    <t>Döndürülmüş Varlık</t>
-  </si>
-  <si>
-    <t>Royal Headgear</t>
-  </si>
-  <si>
-    <t>Kraliyet Başlığı</t>
-  </si>
-  <si>
-    <t>Rune</t>
-  </si>
-  <si>
-    <t>Runescape</t>
-  </si>
-  <si>
-    <t>RWBY</t>
-  </si>
-  <si>
-    <t>Sackboy: A Big Adventure</t>
-  </si>
-  <si>
-    <t>Sackboy Büyük Bir Macera</t>
-  </si>
-  <si>
-    <t>Sad Creature</t>
-  </si>
-  <si>
-    <t>Hüzünlü Yaratık</t>
-  </si>
-  <si>
-    <t>Sad Person</t>
-  </si>
-  <si>
-    <t>Üzgün İnsan</t>
-  </si>
-  <si>
-    <t>Safari (Other)</t>
-  </si>
-  <si>
-    <t>Safari (Diğer)</t>
-  </si>
-  <si>
-    <t>Saga of Tanya the Evil</t>
-  </si>
-  <si>
-    <t>Kötü Tanya'nın Destanı</t>
-  </si>
-  <si>
-    <t>Sailor Moon</t>
-  </si>
-  <si>
-    <t>Ay Savaşçısı</t>
-  </si>
-  <si>
-    <t>Sakurasou no Pet na Kanojo</t>
-  </si>
-  <si>
-    <t>Samurai Helmet</t>
-  </si>
-  <si>
-    <t>Samuray Kaskı</t>
-  </si>
-  <si>
-    <t>Satisfactory</t>
-  </si>
-  <si>
-    <t>Tatmin edici</t>
-  </si>
-  <si>
-    <t>Saw</t>
-  </si>
-  <si>
-    <t>Testere</t>
-  </si>
-  <si>
-    <t>Scarf</t>
-  </si>
-  <si>
-    <t>Eşarp</t>
-  </si>
-  <si>
-    <t>Scooby-Doo</t>
-  </si>
-  <si>
-    <t>SCP Containment Breach</t>
-  </si>
-  <si>
-    <t>SCP Muhafaza İhlali</t>
-  </si>
-  <si>
-    <t>Scream</t>
-  </si>
-  <si>
-    <t>Çığlık</t>
-  </si>
-  <si>
-    <t>Scribblenauts</t>
-  </si>
-  <si>
-    <t>Sea of Thieves</t>
-  </si>
-  <si>
-    <t>Hırsızlar Denizi</t>
-  </si>
-  <si>
-    <t>Seafarer</t>
-  </si>
-  <si>
-    <t>Denizci</t>
-  </si>
-  <si>
-    <t>Seraph of the End</t>
-  </si>
-  <si>
-    <t>Sonun Seraph'ı</t>
-  </si>
-  <si>
-    <t>Serial Experiments Lain</t>
-  </si>
-  <si>
-    <t>Seri Deneyler Lain</t>
-  </si>
-  <si>
-    <t>Sesame Street</t>
-  </si>
-  <si>
-    <t>Susam Sokağı</t>
-  </si>
-  <si>
-    <t>Seven Deadly Sins</t>
-  </si>
-  <si>
-    <t>Yedi Ölümcül Günah</t>
-  </si>
-  <si>
-    <t>Shadow of the Colossus</t>
-  </si>
-  <si>
-    <t>Colossus'un Gölgesi</t>
-  </si>
-  <si>
-    <t>Shadows of Mordor</t>
-  </si>
-  <si>
-    <t>Mordor'un Gölgeleri</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>Koyun</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Shigatsu wa Kimi no Uso</t>
-  </si>
-  <si>
-    <t>Shimoneta</t>
-  </si>
-  <si>
-    <t>Shiny Pokemon</t>
-  </si>
-  <si>
-    <t>Parlak Pokemon</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>Nakliye</t>
-  </si>
-  <si>
-    <t>Shovel Knight</t>
-  </si>
-  <si>
-    <t>Kürek Şövalyesi</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>Shulker</t>
-  </si>
-  <si>
-    <t>Silent Hill</t>
-  </si>
-  <si>
-    <t>Sessiz Tepe</t>
-  </si>
-  <si>
-    <t>SilvaGunner</t>
-  </si>
-  <si>
-    <t>Simpsons</t>
-  </si>
-  <si>
-    <t>Simpsonlar</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>İskelet</t>
-  </si>
-  <si>
-    <t>Skeleton (Vanilla)</t>
-  </si>
-  <si>
-    <t>İskelet (Vanilya)</t>
-  </si>
-  <si>
-    <t>Skeptical Creature</t>
-  </si>
-  <si>
-    <t>Şüpheci Yaratık</t>
-  </si>
-  <si>
-    <t>Skeptical Person</t>
-  </si>
-  <si>
-    <t>Şüpheci Kişi</t>
-  </si>
-  <si>
-    <t>Skullgirls</t>
-  </si>
-  <si>
-    <t>Skyrim</t>
-  </si>
-  <si>
-    <t>Sleeping Beauty</t>
-  </si>
-  <si>
-    <t>Uyuyan Güzel</t>
-  </si>
-  <si>
-    <t>Sleeping Creature</t>
-  </si>
-  <si>
-    <t>Uyuyan Yaratık</t>
-  </si>
-  <si>
-    <t>Sleeping Person</t>
-  </si>
-  <si>
-    <t>Uyuyan Kişi</t>
-  </si>
-  <si>
-    <t>Sliced</t>
-  </si>
-  <si>
-    <t>Dilimlenmiş</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>Balçık</t>
-  </si>
-  <si>
-    <t>Slime (Vanilla)</t>
-  </si>
-  <si>
-    <t>Slime (Vanilya)</t>
-  </si>
-  <si>
-    <t>Slime Rancher</t>
-  </si>
-  <si>
-    <t>Slimefun</t>
-  </si>
-  <si>
-    <t>Sly Cooper</t>
-  </si>
-  <si>
-    <t>Smite Gods</t>
-  </si>
-  <si>
-    <t>Tanrıları Parçala</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>Sigara içmek</t>
-  </si>
-  <si>
-    <t>Smurfs</t>
-  </si>
-  <si>
-    <t>Şirinler</t>
-  </si>
-  <si>
-    <t>Snow Fight</t>
-  </si>
-  <si>
-    <t>Karla Mücadele</t>
-  </si>
-  <si>
-    <t>Snow Sculpture</t>
-  </si>
-  <si>
-    <t>Kar Heykeli</t>
-  </si>
-  <si>
-    <t>Snow White and the Seven Dwarfs</t>
-  </si>
-  <si>
-    <t>Pamuk Prenses ve Yedi Cüceler</t>
-  </si>
-  <si>
-    <t>Songs of War</t>
-  </si>
-  <si>
-    <t>Savaş Şarkıları</t>
-  </si>
-  <si>
-    <t>Sonic the Hedgehog</t>
-  </si>
-  <si>
-    <t>Soul Knight</t>
-  </si>
-  <si>
-    <t>Ruh Şövalyesi</t>
-  </si>
-  <si>
-    <t>South Park</t>
-  </si>
-  <si>
-    <t>Space Travel</t>
-  </si>
-  <si>
-    <t>Uzay Yolculuğu</t>
-  </si>
-  <si>
-    <t>Spawn Egg</t>
-  </si>
-  <si>
-    <t>Yumurtlama Yumurtası</t>
-  </si>
-  <si>
-    <t>Spawner</t>
-  </si>
-  <si>
-    <t>Spelunky</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>Örümcek</t>
-  </si>
-  <si>
-    <t>Spider (Vanilla)</t>
-  </si>
-  <si>
-    <t>Örümcek (Vanilya)</t>
-  </si>
-  <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>Örümcek Adam</t>
-  </si>
-  <si>
-    <t>Spirited Away</t>
-  </si>
-  <si>
-    <t>Ruhların Kaçışı</t>
-  </si>
-  <si>
-    <t>Splatoon</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>Spooky's Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>Spooky'nin Atlama Korku Konağı</t>
-  </si>
-  <si>
-    <t>Spore</t>
-  </si>
-  <si>
-    <t>Spor</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>Spreads</t>
-  </si>
-  <si>
-    <t>Spreadler</t>
-  </si>
-  <si>
-    <t>Spring to Life</t>
-  </si>
-  <si>
-    <t>Hayata Bahar</t>
-  </si>
-  <si>
-    <t>Spy x Family</t>
-  </si>
-  <si>
-    <t>Casus x Aile</t>
-  </si>
-  <si>
-    <t>Spyro</t>
-  </si>
-  <si>
-    <t>Squid Game</t>
-  </si>
-  <si>
-    <t>Kalamar Oyunu</t>
-  </si>
-  <si>
-    <t>St. Patrick's Day</t>
-  </si>
-  <si>
-    <t>Aziz Patrick Günü</t>
-  </si>
-  <si>
-    <t>StackUp</t>
-  </si>
-  <si>
-    <t>Star Fox</t>
-  </si>
-  <si>
-    <t>Yıldız Tilki</t>
-  </si>
-  <si>
-    <t>Star Trek</t>
-  </si>
-  <si>
-    <t>Star vs the Forces of Evil</t>
-  </si>
-  <si>
-    <t>Yıldız Kötülük Güçlerine Karşı</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>Yıldız Savaşları</t>
-  </si>
-  <si>
-    <t>Star Wars Helmet</t>
-  </si>
-  <si>
-    <t>Yıldız Savaşları Kaskı</t>
-  </si>
-  <si>
-    <t>Star Wars Trooper Helmet</t>
-  </si>
-  <si>
-    <t>Yıldız Savaşları Asker Kaskı</t>
-  </si>
-  <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
-    <t>StarCraft</t>
-  </si>
-  <si>
-    <t>Stardew Valley</t>
-  </si>
-  <si>
-    <t>Stardew Vadisi</t>
-  </si>
-  <si>
-    <t>Starter Pokemon</t>
-  </si>
-  <si>
-    <t>Başlangıç Pokemonları</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>Kırtasiye Malzemeleri</t>
-  </si>
-  <si>
-    <t>Steampunk</t>
-  </si>
-  <si>
-    <t>Steins;Gate</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Steven Universe</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Taş</t>
-  </si>
-  <si>
-    <t>Storage (other)</t>
-  </si>
-  <si>
-    <t>Depolama (diğer)</t>
-  </si>
-  <si>
-    <t>Stranger Things</t>
-  </si>
-  <si>
-    <t>Street Fighter</t>
-  </si>
-  <si>
-    <t>Sokak Dövüşçüsü</t>
-  </si>
-  <si>
-    <t>Strider</t>
-  </si>
-  <si>
-    <t>Subnautica</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Yaz</t>
-  </si>
-  <si>
-    <t>Sunglasses</t>
-  </si>
-  <si>
-    <t>Güneş Gözlüğü</t>
-  </si>
-  <si>
-    <t>Super Mario</t>
-  </si>
-  <si>
-    <t>Süper Mario</t>
-  </si>
-  <si>
-    <t>Supernatural</t>
-  </si>
-  <si>
-    <t>Doğaüstü</t>
-  </si>
-  <si>
-    <t>Surprised Creature</t>
-  </si>
-  <si>
-    <t>Sürpriz Yaratık</t>
-  </si>
-  <si>
-    <t>Surprised Person</t>
-  </si>
-  <si>
-    <t>Şaşırmış Kişi</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>Suşi</t>
-  </si>
-  <si>
-    <t>Swamp</t>
-  </si>
-  <si>
-    <t>Bataklık</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
-    <t>Kılıç Sanatı Çevrimiçi</t>
-  </si>
-  <si>
-    <t>TaleSpin</t>
-  </si>
-  <si>
-    <t>Tangled</t>
-  </si>
-  <si>
-    <t>Karmakarışık</t>
-  </si>
-  <si>
-    <t>Tattletail</t>
-  </si>
-  <si>
-    <t>Gammaz</t>
-  </si>
-  <si>
-    <t>Team Fortress 2</t>
-  </si>
-  <si>
-    <t>Takım Kalesi 2</t>
-  </si>
-  <si>
-    <t>Teletubbies</t>
-  </si>
-  <si>
-    <t>Terraria</t>
-  </si>
-  <si>
-    <t>Terraria (Calamity)</t>
-  </si>
-  <si>
-    <t>Tetris</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>Şükran Günü</t>
-  </si>
-  <si>
-    <t>That Time I Got Reincarnated as a Slime</t>
-  </si>
-  <si>
-    <t>Slime Olarak Reenkarne Olduğum Zaman</t>
-  </si>
-  <si>
-    <t>Thaumcraft</t>
-  </si>
-  <si>
-    <t>The Adventures of Tintin</t>
-  </si>
-  <si>
-    <t>Tenten'in Maceraları</t>
-  </si>
-  <si>
-    <t>The Amazing Digital Circus</t>
-  </si>
-  <si>
-    <t>İnanılmaz Dijital Sirk</t>
-  </si>
-  <si>
-    <t>The Amazing World of Gumball</t>
-  </si>
-  <si>
-    <t>Gumball'ın İnanılmaz Dünyası</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac</t>
-  </si>
-  <si>
-    <t>The Boys</t>
-  </si>
-  <si>
-    <t>Çocuklar</t>
-  </si>
-  <si>
-    <t>The Cat Returns</t>
-  </si>
-  <si>
-    <t>Kedi Geri Dönüyor</t>
-  </si>
-  <si>
-    <t>The Conjuring</t>
-  </si>
-  <si>
-    <t>The Copper Age</t>
-  </si>
-  <si>
-    <t>Bakır Çağı</t>
-  </si>
-  <si>
-    <t>The Emperor's New Groove</t>
-  </si>
-  <si>
-    <t>İmparatorun Yeni Groove'u</t>
-  </si>
-  <si>
-    <t>The English Ensemble Stars</t>
-  </si>
-  <si>
-    <t>İngiliz Topluluk Yıldızları</t>
-  </si>
-  <si>
-    <t>The Fairly OddParents</t>
-  </si>
-  <si>
-    <t>The Finals</t>
-  </si>
-  <si>
-    <t>Finaller</t>
-  </si>
-  <si>
-    <t>The Flash</t>
-  </si>
-  <si>
-    <t>Flash</t>
-  </si>
-  <si>
-    <t>The Flintstones</t>
-  </si>
-  <si>
-    <t>Çakmaktaşlar</t>
-  </si>
-  <si>
-    <t>The Fly</t>
-  </si>
-  <si>
-    <t>Sinek</t>
-  </si>
-  <si>
-    <t>The Garden Awakens</t>
-  </si>
-  <si>
-    <t>Bahçe Uyanıyor</t>
-  </si>
-  <si>
-    <t>The Good Dinosaur</t>
-  </si>
-  <si>
-    <t>İyi Dinozor</t>
-  </si>
-  <si>
-    <t>The Great Mouse Detective</t>
-  </si>
-  <si>
-    <t>Büyük Fare Dedektifi</t>
-  </si>
-  <si>
-    <t>The Grim Adventures of Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>Billy ve Mandy'nin Korkunç Maceraları</t>
-  </si>
-  <si>
-    <t>The Hunchback of Notre Dame</t>
-  </si>
-  <si>
-    <t>Notre Dame'ın Kamburu</t>
-  </si>
-  <si>
-    <t>The Iron Giant</t>
-  </si>
-  <si>
-    <t>Demir Dev</t>
-  </si>
-  <si>
-    <t>The Last Guardian</t>
-  </si>
-  <si>
-    <t>Son Muhafız</t>
-  </si>
-  <si>
-    <t>The Last of Us</t>
-  </si>
-  <si>
-    <t>The Legend of Zelda</t>
-  </si>
-  <si>
-    <t>Zelda Efsanesi</t>
-  </si>
-  <si>
-    <t>The Lorax</t>
-  </si>
-  <si>
-    <t>Loraks</t>
-  </si>
-  <si>
-    <t>The Neverhood</t>
-  </si>
-  <si>
-    <t>Hiçlik</t>
-  </si>
-  <si>
-    <t>The Owl House</t>
-  </si>
-  <si>
-    <t>Baykuş Evi</t>
-  </si>
-  <si>
-    <t>The Princess and the Frog</t>
-  </si>
-  <si>
-    <t>Prenses ve Kurbağa</t>
-  </si>
-  <si>
-    <t>The Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>Ren &amp; Stimpy Şov</t>
-  </si>
-  <si>
-    <t>The Road to El Dorado</t>
-  </si>
-  <si>
-    <t>El Dorado'ya Giden Yol</t>
-  </si>
-  <si>
-    <t>The Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>Teksas Testere Katliamı</t>
-  </si>
-  <si>
-    <t>The Three Caballeros</t>
-  </si>
-  <si>
-    <t>Üç Caballeros</t>
-  </si>
-  <si>
-    <t>The Walten Files</t>
-  </si>
-  <si>
-    <t>Walten Dosyaları</t>
-  </si>
-  <si>
-    <t>The Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>Woody Ağaçkakan Gösterisi</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Friends</t>
-  </si>
-  <si>
-    <t>Thomas ve Arkadaşları</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>Those Nights at Rachel's</t>
-  </si>
-  <si>
-    <t>Rachel'ın Geceleri</t>
-  </si>
-  <si>
-    <t>Tinker's Construct</t>
-  </si>
-  <si>
-    <t>Titanfall</t>
-  </si>
-  <si>
-    <t>Tokyo Ghoul</t>
-  </si>
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>Tom ve Jerry</t>
-  </si>
-  <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>Tomorrow's Pioneers</t>
-  </si>
-  <si>
-    <t>Yarının Öncüleri</t>
-  </si>
-  <si>
-    <t>Tooth Gap</t>
-  </si>
-  <si>
-    <t>Diş Boşluğu</t>
-  </si>
-  <si>
-    <t>Toradora</t>
-  </si>
-  <si>
-    <t>Total Drama Island</t>
-  </si>
-  <si>
-    <t>Toplam Drama Adası</t>
-  </si>
-  <si>
-    <t>Touhou Project</t>
-  </si>
-  <si>
-    <t>Touhou Projesi</t>
-  </si>
-  <si>
-    <t>Toy</t>
-  </si>
-  <si>
-    <t>Oyuncak</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>Oyuncak Hikayesi</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>Trafik</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>Trafik Işığı</t>
-  </si>
-  <si>
-    <t>Traffic Sign</t>
-  </si>
-  <si>
-    <t>Trafik İşareti</t>
-  </si>
-  <si>
-    <t>Trails and Tales</t>
-  </si>
-  <si>
-    <t>İzler ve Masallar</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t>Transformice</t>
-  </si>
-  <si>
-    <t>Transparent Head</t>
-  </si>
-  <si>
-    <t>Şeffaf Kafa</t>
-  </si>
-  <si>
-    <t>Trash Can</t>
-  </si>
-  <si>
-    <t>Çöp Kovası</t>
-  </si>
-  <si>
-    <t>Treasure</t>
-  </si>
-  <si>
-    <t>Hazine</t>
-  </si>
-  <si>
-    <t>Treasure Planet</t>
-  </si>
-  <si>
-    <t>Hazine Gezegeni</t>
-  </si>
-  <si>
-    <t>Tricky Trials Update</t>
-  </si>
-  <si>
-    <t>Zorlu Denemeler Güncellemesi</t>
-  </si>
-  <si>
-    <t>Tron</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>Kaplumbağa</t>
-  </si>
-  <si>
-    <t>Twilight Forest</t>
-  </si>
-  <si>
-    <t>Alacakaranlık Ormanı</t>
-  </si>
-  <si>
-    <t>Twisted Wonderland</t>
-  </si>
-  <si>
-    <t>Twisted Harikalar Diyarı</t>
-  </si>
-  <si>
-    <t>Ultrakill</t>
-  </si>
-  <si>
-    <t>Umineko - When They Cry</t>
-  </si>
-  <si>
-    <t>Umineko - Ağladıklarında</t>
-  </si>
-  <si>
-    <t>Undertale</t>
-  </si>
-  <si>
-    <t>Undertale AU</t>
-  </si>
-  <si>
-    <t>Undertale Yellow</t>
-  </si>
-  <si>
-    <t>Undertale Sarı</t>
-  </si>
-  <si>
-    <t>Universal Symbol</t>
-  </si>
-  <si>
-    <t>Evrensel Sembol</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Yukarı</t>
-  </si>
-  <si>
-    <t>Urban Wildlife</t>
-  </si>
-  <si>
-    <t>Kentsel Yaban Hayatı</t>
-  </si>
-  <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
-    <t>Valentines</t>
-  </si>
-  <si>
-    <t>Sevgililer Günü</t>
-  </si>
-  <si>
-    <t>Valorant</t>
-  </si>
-  <si>
-    <t>Vanilla (removed)</t>
-  </si>
-  <si>
-    <t>Vanilya (kaldırıldı)</t>
-  </si>
-  <si>
-    <t>Vanilla Block</t>
-  </si>
-  <si>
-    <t>Vanilya Bloğu</t>
-  </si>
-  <si>
-    <t>Vanilla Food</t>
-  </si>
-  <si>
-    <t>Vanilyalı Yiyecek</t>
-  </si>
-  <si>
-    <t>Vanilla Helmet</t>
-  </si>
-  <si>
-    <t>Vanilya Kask</t>
-  </si>
-  <si>
-    <t>Vanilla Item</t>
-  </si>
-  <si>
-    <t>Vanilya Eşyası</t>
-  </si>
-  <si>
-    <t>Vanilla Mob</t>
-  </si>
-  <si>
-    <t>Vanilya Çetesi</t>
-  </si>
-  <si>
-    <t>Vault Hunters</t>
-  </si>
-  <si>
-    <t>Kasa Avcıları</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>Sebze</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Araç</t>
-  </si>
-  <si>
-    <t>Vikings</t>
-  </si>
-  <si>
-    <t>Vikingler</t>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>Köylü</t>
-  </si>
-  <si>
-    <t>Villager (Desert)</t>
-  </si>
-  <si>
-    <t>Köylü (Çöl)</t>
-  </si>
-  <si>
-    <t>Villager (Jungle)</t>
-  </si>
-  <si>
-    <t>Köylü (Orman)</t>
-  </si>
-  <si>
-    <t>Villager (Plains)</t>
-  </si>
-  <si>
-    <t>Köylü (Ovalar)</t>
-  </si>
-  <si>
-    <t>Villager (Savanna)</t>
-  </si>
-  <si>
-    <t>Köylü (Savanna)</t>
-  </si>
-  <si>
-    <t>Villager (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>Köylü (Karlı Tundra)</t>
-  </si>
-  <si>
-    <t>Villager (Swamp)</t>
-  </si>
-  <si>
-    <t>Köylü (Bataklık)</t>
-  </si>
-  <si>
-    <t>Villager (Taiga)</t>
-  </si>
-  <si>
-    <t>Köylü (Tayga)</t>
-  </si>
-  <si>
-    <t>Virtual Youtuber</t>
-  </si>
-  <si>
-    <t>Sanal Youtuber</t>
-  </si>
-  <si>
-    <t>Vocaloid</t>
-  </si>
-  <si>
-    <t>Voltron</t>
-  </si>
-  <si>
-    <t>Wakfu</t>
-  </si>
-  <si>
-    <t>Walking Dead</t>
-  </si>
-  <si>
-    <t>Yürüyen Ölüler</t>
-  </si>
-  <si>
-    <t>Wall-E</t>
-  </si>
-  <si>
-    <t>Wallace and Gromit</t>
-  </si>
-  <si>
-    <t>Wallace ve Gromit</t>
-  </si>
-  <si>
-    <t>War of the Worlds</t>
-  </si>
-  <si>
-    <t>Dünyalar Savaşı</t>
-  </si>
-  <si>
-    <t>Warcraft</t>
-  </si>
-  <si>
-    <t>Warframe</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>Warrior Cats</t>
-  </si>
-  <si>
-    <t>Savaşçı Kediler</t>
-  </si>
-  <si>
-    <t>We Bear Bears</t>
-  </si>
-  <si>
-    <t>Biz Ayılar</t>
-  </si>
-  <si>
-    <t>We Happy Few</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>Hava Durumu</t>
-  </si>
-  <si>
-    <t>Welcome Home</t>
-  </si>
-  <si>
-    <t>Evinize Hoş Geldiniz</t>
-  </si>
-  <si>
-    <t>Who is this?</t>
-  </si>
-  <si>
-    <t>Kim bu?</t>
-  </si>
-  <si>
-    <t>Wild Update</t>
-  </si>
-  <si>
-    <t>Vahşi Güncelleme</t>
-  </si>
-  <si>
-    <t>Wings of Fire</t>
-  </si>
-  <si>
-    <t>Ateşin Kanatları</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Kış</t>
-  </si>
-  <si>
-    <t>Witcher</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World</t>
-  </si>
-  <si>
-    <t>Harika Harikalar Dünyası</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Ahşap</t>
-  </si>
-  <si>
-    <t>Wool</t>
-  </si>
-  <si>
-    <t>Yün</t>
-  </si>
-  <si>
-    <t>Work Safety Helmet</t>
-  </si>
-  <si>
-    <t>İş Güvenliği Bareti</t>
-  </si>
-  <si>
-    <t>Wreck It Ralph</t>
-  </si>
-  <si>
-    <t>Wybel</t>
-  </si>
-  <si>
-    <t>Wynncraft</t>
-  </si>
-  <si>
-    <t>X-Men</t>
-  </si>
-  <si>
-    <t>Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>Xenoblade Günlükleri</t>
-  </si>
-  <si>
-    <t>Yandere Simulator</t>
-  </si>
-  <si>
-    <t>Yandere Simülatörü</t>
-  </si>
-  <si>
-    <t>Yellow Submarine</t>
-  </si>
-  <si>
-    <t>Sarı Denizaltı</t>
-  </si>
-  <si>
-    <t>Yokai</t>
-  </si>
-  <si>
-    <t>Yooka Laylee</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Genç</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh</t>
-  </si>
-  <si>
-    <t>Yume Nikki</t>
-  </si>
-  <si>
-    <t>Zero no Tsukaima</t>
-  </si>
-  <si>
-    <t>Zero Wing</t>
-  </si>
-  <si>
-    <t>Sıfır Kanat</t>
-  </si>
-  <si>
-    <t>Zodiac Sign</t>
-  </si>
-  <si>
-    <t>Zodyak Burcu</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>Zombi</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilla)</t>
-  </si>
-  <si>
-    <t>Zombi (Vanilya)</t>
-  </si>
-  <si>
-    <t>Zootopia</t>
   </si>
   <si>
     <t>Fall Drop</t>
@@ -6375,7 +6381,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1176"/>
+  <dimension ref="A1:B1177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15796,8 +15802,16 @@
         <v>2003</v>
       </c>
     </row>
+    <row r="1177" spans="1:2">
+      <c r="A1177" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>2005</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1176"/>
+  <autoFilter ref="A1:B1177"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
